--- a/Pelatihan_new.xlsx
+++ b/Pelatihan_new.xlsx
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,7 +1794,7 @@
         <v>73.13</v>
       </c>
       <c r="C18">
-        <v>1.018</v>
+        <v>3.01</v>
       </c>
       <c r="D18">
         <v>19</v>
@@ -2078,7 +2078,7 @@
         <v>70.7</v>
       </c>
       <c r="C22">
-        <v>1.1399999999999999</v>
+        <v>3.14</v>
       </c>
       <c r="D22">
         <v>18.18</v>
@@ -3001,67 +3001,67 @@
         <v>74.489999999999995</v>
       </c>
       <c r="C35">
-        <v>1.47</v>
+        <v>6.85</v>
       </c>
       <c r="D35">
-        <v>20.41</v>
+        <v>23.58</v>
       </c>
       <c r="E35">
-        <v>66.3</v>
+        <v>51.82</v>
       </c>
       <c r="F35">
-        <v>8.32</v>
+        <v>13.53</v>
       </c>
       <c r="G35">
-        <v>0.112</v>
+        <v>0.02</v>
       </c>
       <c r="H35">
-        <v>8.8999999999999996E-2</v>
+        <v>0.03</v>
       </c>
       <c r="I35">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="J35">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="K35">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="L35">
         <v>0.01</v>
       </c>
       <c r="M35">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="N35">
-        <v>0.01</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O35">
         <v>0.01</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q35">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="R35">
         <v>0.03</v>
       </c>
       <c r="S35">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="T35">
-        <v>2.52</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="U35">
-        <v>4.08E-4</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="V35">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="W35">
-        <v>4.78</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">

--- a/Pelatihan_new.xlsx
+++ b/Pelatihan_new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
   <si>
     <t>Sample_Code</t>
   </si>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4055,6 +4055,3414 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="W49">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50">
+        <v>114.28</v>
+      </c>
+      <c r="C50">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="D50">
+        <v>19.03</v>
+      </c>
+      <c r="E50">
+        <v>61.23</v>
+      </c>
+      <c r="F50">
+        <v>10.81</v>
+      </c>
+      <c r="G50">
+        <v>0.1</v>
+      </c>
+      <c r="H50">
+        <v>0.08</v>
+      </c>
+      <c r="I50">
+        <v>0.61</v>
+      </c>
+      <c r="J50">
+        <v>0.06</v>
+      </c>
+      <c r="K50">
+        <v>3.26</v>
+      </c>
+      <c r="L50">
+        <v>0.01</v>
+      </c>
+      <c r="M50">
+        <v>0.31</v>
+      </c>
+      <c r="N50">
+        <v>0.01</v>
+      </c>
+      <c r="O50">
+        <v>0.01</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0.06</v>
+      </c>
+      <c r="R50">
+        <v>0.31</v>
+      </c>
+      <c r="S50">
+        <v>0.02</v>
+      </c>
+      <c r="T50">
+        <v>2.92</v>
+      </c>
+      <c r="U50">
+        <v>9.1479999999999999E-3</v>
+      </c>
+      <c r="V50">
+        <v>0.09</v>
+      </c>
+      <c r="W50">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51">
+        <v>78.56</v>
+      </c>
+      <c r="C51">
+        <v>2.33</v>
+      </c>
+      <c r="D51">
+        <v>21.53</v>
+      </c>
+      <c r="E51">
+        <v>59.57</v>
+      </c>
+      <c r="F51">
+        <v>12.04</v>
+      </c>
+      <c r="G51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.09</v>
+      </c>
+      <c r="I51">
+        <v>0.62</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>3.24</v>
+      </c>
+      <c r="L51">
+        <v>0.01</v>
+      </c>
+      <c r="M51">
+        <v>0.32</v>
+      </c>
+      <c r="N51">
+        <v>0.01</v>
+      </c>
+      <c r="O51">
+        <v>0.01</v>
+      </c>
+      <c r="P51">
+        <v>0.02</v>
+      </c>
+      <c r="Q51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R51">
+        <v>0.05</v>
+      </c>
+      <c r="S51">
+        <v>0.02</v>
+      </c>
+      <c r="T51">
+        <v>0.78</v>
+      </c>
+      <c r="U51">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="V51">
+        <v>0.06</v>
+      </c>
+      <c r="W51">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>134.5</v>
+      </c>
+      <c r="C52">
+        <v>2.84</v>
+      </c>
+      <c r="D52">
+        <v>19.98</v>
+      </c>
+      <c r="E52">
+        <v>61.14</v>
+      </c>
+      <c r="F52">
+        <v>11.35</v>
+      </c>
+      <c r="G52">
+        <v>0.09</v>
+      </c>
+      <c r="H52">
+        <v>0.08</v>
+      </c>
+      <c r="I52">
+        <v>0.67</v>
+      </c>
+      <c r="J52">
+        <v>0.05</v>
+      </c>
+      <c r="K52">
+        <v>3.31</v>
+      </c>
+      <c r="L52">
+        <v>0.01</v>
+      </c>
+      <c r="M52">
+        <v>0.32</v>
+      </c>
+      <c r="N52">
+        <v>0.01</v>
+      </c>
+      <c r="O52">
+        <v>0.01</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R52">
+        <v>0.05</v>
+      </c>
+      <c r="S52">
+        <v>0.02</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="V52">
+        <v>0.09</v>
+      </c>
+      <c r="W52">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53">
+        <v>90.47</v>
+      </c>
+      <c r="C53">
+        <v>3.22</v>
+      </c>
+      <c r="D53">
+        <v>21.97</v>
+      </c>
+      <c r="E53">
+        <v>56.58</v>
+      </c>
+      <c r="F53">
+        <v>13.44</v>
+      </c>
+      <c r="G53">
+        <v>0.06</v>
+      </c>
+      <c r="H53">
+        <v>0.08</v>
+      </c>
+      <c r="I53">
+        <v>0.69</v>
+      </c>
+      <c r="J53">
+        <v>0.03</v>
+      </c>
+      <c r="K53">
+        <v>3.41</v>
+      </c>
+      <c r="L53">
+        <v>0.01</v>
+      </c>
+      <c r="M53">
+        <v>0.35</v>
+      </c>
+      <c r="N53">
+        <v>0.01</v>
+      </c>
+      <c r="O53">
+        <v>0.01</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0.08</v>
+      </c>
+      <c r="R53">
+        <v>0.04</v>
+      </c>
+      <c r="S53">
+        <v>0.02</v>
+      </c>
+      <c r="T53">
+        <v>1.56</v>
+      </c>
+      <c r="U53">
+        <v>3.9800000000000002E-4</v>
+      </c>
+      <c r="V53">
+        <v>0.05</v>
+      </c>
+      <c r="W53">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54">
+        <v>131.25</v>
+      </c>
+      <c r="C54">
+        <v>4.04</v>
+      </c>
+      <c r="D54">
+        <v>18.97</v>
+      </c>
+      <c r="E54">
+        <v>59.07</v>
+      </c>
+      <c r="F54">
+        <v>12.37</v>
+      </c>
+      <c r="G54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I54">
+        <v>0.61</v>
+      </c>
+      <c r="J54">
+        <v>0.03</v>
+      </c>
+      <c r="K54">
+        <v>3.24</v>
+      </c>
+      <c r="L54">
+        <v>0.01</v>
+      </c>
+      <c r="M54">
+        <v>0.34</v>
+      </c>
+      <c r="N54">
+        <v>0.01</v>
+      </c>
+      <c r="O54">
+        <v>0.01</v>
+      </c>
+      <c r="P54">
+        <v>0.02</v>
+      </c>
+      <c r="Q54">
+        <v>0.08</v>
+      </c>
+      <c r="R54">
+        <v>0.04</v>
+      </c>
+      <c r="S54">
+        <v>0.02</v>
+      </c>
+      <c r="T54">
+        <v>4.09</v>
+      </c>
+      <c r="U54">
+        <v>8.2600000000000002E-4</v>
+      </c>
+      <c r="V54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W54">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>89.24</v>
+      </c>
+      <c r="C55">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D55">
+        <v>21.69</v>
+      </c>
+      <c r="E55">
+        <v>58.16</v>
+      </c>
+      <c r="F55">
+        <v>13.09</v>
+      </c>
+      <c r="G55">
+        <v>0.06</v>
+      </c>
+      <c r="H55">
+        <v>0.08</v>
+      </c>
+      <c r="I55">
+        <v>0.62</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>3.27</v>
+      </c>
+      <c r="L55">
+        <v>0.01</v>
+      </c>
+      <c r="M55">
+        <v>0.33</v>
+      </c>
+      <c r="N55">
+        <v>0.01</v>
+      </c>
+      <c r="O55">
+        <v>0.01</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0.08</v>
+      </c>
+      <c r="R55">
+        <v>0.04</v>
+      </c>
+      <c r="S55">
+        <v>0.02</v>
+      </c>
+      <c r="T55">
+        <v>2.34</v>
+      </c>
+      <c r="U55">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="V55">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W55">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56">
+        <v>111.02</v>
+      </c>
+      <c r="C56">
+        <v>3.91</v>
+      </c>
+      <c r="D56">
+        <v>21.26</v>
+      </c>
+      <c r="E56">
+        <v>58.01</v>
+      </c>
+      <c r="F56">
+        <v>12.41</v>
+      </c>
+      <c r="G56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.08</v>
+      </c>
+      <c r="I56">
+        <v>0.63</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>3.17</v>
+      </c>
+      <c r="L56">
+        <v>0.01</v>
+      </c>
+      <c r="M56">
+        <v>0.33</v>
+      </c>
+      <c r="N56">
+        <v>0.01</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0.18</v>
+      </c>
+      <c r="Q56">
+        <v>0.27</v>
+      </c>
+      <c r="R56">
+        <v>0.18</v>
+      </c>
+      <c r="S56">
+        <v>0.16</v>
+      </c>
+      <c r="T56">
+        <v>1.75</v>
+      </c>
+      <c r="U56">
+        <v>5.62E-4</v>
+      </c>
+      <c r="V56">
+        <v>0.08</v>
+      </c>
+      <c r="W56">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>67.08</v>
+      </c>
+      <c r="C57">
+        <v>0.16</v>
+      </c>
+      <c r="D57">
+        <v>4.55</v>
+      </c>
+      <c r="E57">
+        <v>15.52</v>
+      </c>
+      <c r="F57">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="G57">
+        <v>0.01</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0.77</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>8.25</v>
+      </c>
+      <c r="L57">
+        <v>0.08</v>
+      </c>
+      <c r="M57">
+        <v>0.65</v>
+      </c>
+      <c r="N57">
+        <v>0.16</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0.18</v>
+      </c>
+      <c r="Q57">
+        <v>0.27</v>
+      </c>
+      <c r="R57">
+        <v>0.18</v>
+      </c>
+      <c r="S57">
+        <v>0.16</v>
+      </c>
+      <c r="T57">
+        <v>0.78</v>
+      </c>
+      <c r="U57">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="V57">
+        <v>0.06</v>
+      </c>
+      <c r="W57">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58">
+        <v>46.52</v>
+      </c>
+      <c r="C58">
+        <v>1.68</v>
+      </c>
+      <c r="D58">
+        <v>18.16</v>
+      </c>
+      <c r="E58">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="F58">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G58">
+        <v>0.12</v>
+      </c>
+      <c r="H58">
+        <v>0.09</v>
+      </c>
+      <c r="I58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J58">
+        <v>1.57</v>
+      </c>
+      <c r="K58">
+        <v>2.71</v>
+      </c>
+      <c r="L58">
+        <v>0.01</v>
+      </c>
+      <c r="M58">
+        <v>0.31</v>
+      </c>
+      <c r="N58">
+        <v>0.02</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0.02</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>1.95</v>
+      </c>
+      <c r="U58">
+        <v>4.3262000000000002E-2</v>
+      </c>
+      <c r="V58">
+        <v>0.04</v>
+      </c>
+      <c r="W58">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59">
+        <v>54.34</v>
+      </c>
+      <c r="C59">
+        <v>3.08</v>
+      </c>
+      <c r="D59">
+        <v>20.09</v>
+      </c>
+      <c r="E59">
+        <v>63.29</v>
+      </c>
+      <c r="F59">
+        <v>9.41</v>
+      </c>
+      <c r="G59">
+        <v>0.05</v>
+      </c>
+      <c r="H59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.51</v>
+      </c>
+      <c r="J59">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K59">
+        <v>2.9</v>
+      </c>
+      <c r="L59">
+        <v>0.01</v>
+      </c>
+      <c r="M59">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N59">
+        <v>0.01</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R59">
+        <v>0.03</v>
+      </c>
+      <c r="S59">
+        <v>0.02</v>
+      </c>
+      <c r="T59">
+        <v>1.56</v>
+      </c>
+      <c r="U59">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="V59">
+        <v>0.06</v>
+      </c>
+      <c r="W59">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>96.36</v>
+      </c>
+      <c r="C60">
+        <v>1.39</v>
+      </c>
+      <c r="D60">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="E60">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="F60">
+        <v>7.29</v>
+      </c>
+      <c r="G60">
+        <v>0.13</v>
+      </c>
+      <c r="H60">
+        <v>0.1</v>
+      </c>
+      <c r="I60">
+        <v>0.48</v>
+      </c>
+      <c r="J60">
+        <v>0.13</v>
+      </c>
+      <c r="K60">
+        <v>2.63</v>
+      </c>
+      <c r="L60">
+        <v>0.01</v>
+      </c>
+      <c r="M60">
+        <v>0.23</v>
+      </c>
+      <c r="N60">
+        <v>0.01</v>
+      </c>
+      <c r="O60">
+        <v>0.01</v>
+      </c>
+      <c r="P60">
+        <v>0.01</v>
+      </c>
+      <c r="Q60">
+        <v>0.06</v>
+      </c>
+      <c r="R60">
+        <v>0.03</v>
+      </c>
+      <c r="S60">
+        <v>0.01</v>
+      </c>
+      <c r="T60">
+        <v>3.7</v>
+      </c>
+      <c r="U60">
+        <v>6.9020000000000001E-3</v>
+      </c>
+      <c r="V60">
+        <v>0.17</v>
+      </c>
+      <c r="W60">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61">
+        <v>86.93</v>
+      </c>
+      <c r="C61">
+        <v>0.72</v>
+      </c>
+      <c r="D61">
+        <v>17.62</v>
+      </c>
+      <c r="E61">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="F61">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G61">
+        <v>0.16</v>
+      </c>
+      <c r="H61">
+        <v>0.09</v>
+      </c>
+      <c r="I61">
+        <v>0.51</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0.01</v>
+      </c>
+      <c r="M61">
+        <v>0.26</v>
+      </c>
+      <c r="N61">
+        <v>0.01</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0.06</v>
+      </c>
+      <c r="R61">
+        <v>0.04</v>
+      </c>
+      <c r="S61">
+        <v>0.01</v>
+      </c>
+      <c r="T61">
+        <v>3.9</v>
+      </c>
+      <c r="U61">
+        <v>1.438E-3</v>
+      </c>
+      <c r="V61">
+        <v>0.13</v>
+      </c>
+      <c r="W61">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="C62">
+        <v>1.65</v>
+      </c>
+      <c r="D62">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E62">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="F62">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G62">
+        <v>0.15</v>
+      </c>
+      <c r="H62">
+        <v>0.1</v>
+      </c>
+      <c r="I62">
+        <v>0.49</v>
+      </c>
+      <c r="J62">
+        <v>0.4</v>
+      </c>
+      <c r="K62">
+        <v>2.73</v>
+      </c>
+      <c r="L62">
+        <v>0.01</v>
+      </c>
+      <c r="M62">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N62">
+        <v>0.01</v>
+      </c>
+      <c r="O62">
+        <v>0.01</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0.06</v>
+      </c>
+      <c r="R62">
+        <v>0.04</v>
+      </c>
+      <c r="S62">
+        <v>0.02</v>
+      </c>
+      <c r="T62">
+        <v>3.7</v>
+      </c>
+      <c r="U62">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="V62">
+        <v>0.18</v>
+      </c>
+      <c r="W62">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="C63">
+        <v>2.73</v>
+      </c>
+      <c r="D63">
+        <v>22.68</v>
+      </c>
+      <c r="E63">
+        <v>62.28</v>
+      </c>
+      <c r="F63">
+        <v>8.42</v>
+      </c>
+      <c r="G63">
+        <v>0.09</v>
+      </c>
+      <c r="H63">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I63">
+        <v>0.47</v>
+      </c>
+      <c r="J63">
+        <v>0.05</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0.01</v>
+      </c>
+      <c r="M63">
+        <v>0.24</v>
+      </c>
+      <c r="N63">
+        <v>0.01</v>
+      </c>
+      <c r="O63">
+        <v>0.01</v>
+      </c>
+      <c r="P63">
+        <v>0.01</v>
+      </c>
+      <c r="Q63">
+        <v>0.06</v>
+      </c>
+      <c r="R63">
+        <v>0.04</v>
+      </c>
+      <c r="S63">
+        <v>0.01</v>
+      </c>
+      <c r="T63">
+        <v>4.29</v>
+      </c>
+      <c r="U63">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="V63">
+        <v>0.08</v>
+      </c>
+      <c r="W63">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64">
+        <v>116.32</v>
+      </c>
+      <c r="C64">
+        <v>1.22</v>
+      </c>
+      <c r="D64">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E64">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="F64">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="G64">
+        <v>0.13</v>
+      </c>
+      <c r="H64">
+        <v>0.09</v>
+      </c>
+      <c r="I64">
+        <v>0.53</v>
+      </c>
+      <c r="J64">
+        <v>0.08</v>
+      </c>
+      <c r="K64">
+        <v>2.7</v>
+      </c>
+      <c r="L64">
+        <v>0.01</v>
+      </c>
+      <c r="M64">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N64">
+        <v>0.01</v>
+      </c>
+      <c r="O64">
+        <v>0.01</v>
+      </c>
+      <c r="P64">
+        <v>0.01</v>
+      </c>
+      <c r="Q64">
+        <v>0.05</v>
+      </c>
+      <c r="R64">
+        <v>0.04</v>
+      </c>
+      <c r="S64">
+        <v>0.02</v>
+      </c>
+      <c r="T64">
+        <v>2.92</v>
+      </c>
+      <c r="U64">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="V64">
+        <v>0.08</v>
+      </c>
+      <c r="W64">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65">
+        <v>91.28</v>
+      </c>
+      <c r="C65">
+        <v>1.97</v>
+      </c>
+      <c r="D65">
+        <v>20.63</v>
+      </c>
+      <c r="E65">
+        <v>58.16</v>
+      </c>
+      <c r="F65">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G65">
+        <v>0.1</v>
+      </c>
+      <c r="H65">
+        <v>0.08</v>
+      </c>
+      <c r="I65">
+        <v>0.51</v>
+      </c>
+      <c r="J65">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K65">
+        <v>2.8</v>
+      </c>
+      <c r="L65">
+        <v>0.01</v>
+      </c>
+      <c r="M65">
+        <v>0.31</v>
+      </c>
+      <c r="N65">
+        <v>0.01</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R65">
+        <v>0.04</v>
+      </c>
+      <c r="S65">
+        <v>0.01</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="V65">
+        <v>0.04</v>
+      </c>
+      <c r="W65">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66">
+        <v>73.13</v>
+      </c>
+      <c r="C66">
+        <v>3.01</v>
+      </c>
+      <c r="D66">
+        <v>19</v>
+      </c>
+      <c r="E66">
+        <v>61.79</v>
+      </c>
+      <c r="F66">
+        <v>12.01</v>
+      </c>
+      <c r="G66">
+        <v>0.15</v>
+      </c>
+      <c r="H66">
+        <v>0.11</v>
+      </c>
+      <c r="I66">
+        <v>0.48</v>
+      </c>
+      <c r="J66">
+        <v>0.02</v>
+      </c>
+      <c r="K66">
+        <v>2.86</v>
+      </c>
+      <c r="L66">
+        <v>0.01</v>
+      </c>
+      <c r="M66">
+        <v>0.35</v>
+      </c>
+      <c r="N66">
+        <v>0.01</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0.03</v>
+      </c>
+      <c r="Q66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R66">
+        <v>0.04</v>
+      </c>
+      <c r="S66">
+        <v>0.02</v>
+      </c>
+      <c r="T66">
+        <v>3.51</v>
+      </c>
+      <c r="U66">
+        <v>8.1599999999999999E-4</v>
+      </c>
+      <c r="V66">
+        <v>0.13</v>
+      </c>
+      <c r="W66">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>81.87</v>
+      </c>
+      <c r="C67">
+        <v>2.61</v>
+      </c>
+      <c r="D67">
+        <v>22.33</v>
+      </c>
+      <c r="E67">
+        <v>58.68</v>
+      </c>
+      <c r="F67">
+        <v>12.28</v>
+      </c>
+      <c r="G67">
+        <v>0.09</v>
+      </c>
+      <c r="H67">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I67">
+        <v>0.47</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>2.93</v>
+      </c>
+      <c r="L67">
+        <v>0.01</v>
+      </c>
+      <c r="M67">
+        <v>0.35</v>
+      </c>
+      <c r="N67">
+        <v>0.01</v>
+      </c>
+      <c r="O67">
+        <v>0.01</v>
+      </c>
+      <c r="P67">
+        <v>0.02</v>
+      </c>
+      <c r="Q67">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R67">
+        <v>0.03</v>
+      </c>
+      <c r="S67">
+        <v>0.01</v>
+      </c>
+      <c r="T67">
+        <v>2.34</v>
+      </c>
+      <c r="U67">
+        <v>3.79E-4</v>
+      </c>
+      <c r="V67">
+        <v>0.06</v>
+      </c>
+      <c r="W67">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68">
+        <v>76.14</v>
+      </c>
+      <c r="C68">
+        <v>2.21</v>
+      </c>
+      <c r="D68">
+        <v>19.48</v>
+      </c>
+      <c r="E68">
+        <v>63.38</v>
+      </c>
+      <c r="F68">
+        <v>11.08</v>
+      </c>
+      <c r="G68">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H68">
+        <v>0.11</v>
+      </c>
+      <c r="I68">
+        <v>0.45</v>
+      </c>
+      <c r="J68">
+        <v>0.1</v>
+      </c>
+      <c r="K68">
+        <v>2.58</v>
+      </c>
+      <c r="L68">
+        <v>0.01</v>
+      </c>
+      <c r="M68">
+        <v>0.21</v>
+      </c>
+      <c r="N68">
+        <v>0.01</v>
+      </c>
+      <c r="O68">
+        <v>0.01</v>
+      </c>
+      <c r="P68">
+        <v>0.02</v>
+      </c>
+      <c r="Q68">
+        <v>0.06</v>
+      </c>
+      <c r="R68">
+        <v>0.03</v>
+      </c>
+      <c r="S68">
+        <v>0.02</v>
+      </c>
+      <c r="T68">
+        <v>3.9</v>
+      </c>
+      <c r="U68">
+        <v>6.9499999999999998E-4</v>
+      </c>
+      <c r="V68">
+        <v>0.1</v>
+      </c>
+      <c r="W68">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69">
+        <v>68.81</v>
+      </c>
+      <c r="C69">
+        <v>3.7</v>
+      </c>
+      <c r="D69">
+        <v>18.48</v>
+      </c>
+      <c r="E69">
+        <v>61.05</v>
+      </c>
+      <c r="F69">
+        <v>12.61</v>
+      </c>
+      <c r="G69">
+        <v>0.2</v>
+      </c>
+      <c r="H69">
+        <v>0.11</v>
+      </c>
+      <c r="I69">
+        <v>0.5</v>
+      </c>
+      <c r="J69">
+        <v>0.18</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0.02</v>
+      </c>
+      <c r="M69">
+        <v>0.32</v>
+      </c>
+      <c r="N69">
+        <v>0.02</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0.06</v>
+      </c>
+      <c r="R69">
+        <v>0.04</v>
+      </c>
+      <c r="S69">
+        <v>0.03</v>
+      </c>
+      <c r="T69">
+        <v>5.45</v>
+      </c>
+      <c r="U69">
+        <v>1.64E-3</v>
+      </c>
+      <c r="V69">
+        <v>0.15</v>
+      </c>
+      <c r="W69">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70">
+        <v>70.7</v>
+      </c>
+      <c r="C70">
+        <v>3.14</v>
+      </c>
+      <c r="D70">
+        <v>18.18</v>
+      </c>
+      <c r="E70">
+        <v>62.09</v>
+      </c>
+      <c r="F70">
+        <v>12.15</v>
+      </c>
+      <c r="G70">
+        <v>0.19</v>
+      </c>
+      <c r="H70">
+        <v>0.1</v>
+      </c>
+      <c r="I70">
+        <v>0.52</v>
+      </c>
+      <c r="J70">
+        <v>0.25</v>
+      </c>
+      <c r="K70">
+        <v>2.85</v>
+      </c>
+      <c r="L70">
+        <v>0.02</v>
+      </c>
+      <c r="M70">
+        <v>0.32</v>
+      </c>
+      <c r="N70">
+        <v>0.01</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0.03</v>
+      </c>
+      <c r="Q70">
+        <v>0.06</v>
+      </c>
+      <c r="R70">
+        <v>0.04</v>
+      </c>
+      <c r="S70">
+        <v>0.04</v>
+      </c>
+      <c r="T70">
+        <v>5.26</v>
+      </c>
+      <c r="U70">
+        <v>1.145E-3</v>
+      </c>
+      <c r="V70">
+        <v>0.11</v>
+      </c>
+      <c r="W70">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71">
+        <v>107.21</v>
+      </c>
+      <c r="C71">
+        <v>3.95</v>
+      </c>
+      <c r="D71">
+        <v>21.79</v>
+      </c>
+      <c r="E71">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="F71">
+        <v>59.03</v>
+      </c>
+      <c r="G71">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H71">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I71">
+        <v>0.44</v>
+      </c>
+      <c r="J71">
+        <v>0.01</v>
+      </c>
+      <c r="K71">
+        <v>2.68</v>
+      </c>
+      <c r="L71">
+        <v>0.01</v>
+      </c>
+      <c r="M71">
+        <v>0.3</v>
+      </c>
+      <c r="N71">
+        <v>0.01</v>
+      </c>
+      <c r="O71">
+        <v>0.01</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0.05</v>
+      </c>
+      <c r="R71">
+        <v>0.04</v>
+      </c>
+      <c r="S71">
+        <v>0.01</v>
+      </c>
+      <c r="T71">
+        <v>1.56</v>
+      </c>
+      <c r="U71">
+        <v>5.9599999999999996E-4</v>
+      </c>
+      <c r="V71">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W71">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72">
+        <v>92.63</v>
+      </c>
+      <c r="C72">
+        <v>3.36</v>
+      </c>
+      <c r="D72">
+        <v>23.16</v>
+      </c>
+      <c r="E72">
+        <v>57.35</v>
+      </c>
+      <c r="F72">
+        <v>12.29</v>
+      </c>
+      <c r="G72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I72">
+        <v>0.46</v>
+      </c>
+      <c r="J72">
+        <v>0.03</v>
+      </c>
+      <c r="K72">
+        <v>2.79</v>
+      </c>
+      <c r="L72">
+        <v>0.01</v>
+      </c>
+      <c r="M72">
+        <v>0.27</v>
+      </c>
+      <c r="N72">
+        <v>0.01</v>
+      </c>
+      <c r="O72">
+        <v>0.01</v>
+      </c>
+      <c r="P72">
+        <v>0.02</v>
+      </c>
+      <c r="Q72">
+        <v>0.06</v>
+      </c>
+      <c r="R72">
+        <v>0.03</v>
+      </c>
+      <c r="S72">
+        <v>0.01</v>
+      </c>
+      <c r="T72">
+        <v>2.34</v>
+      </c>
+      <c r="U72">
+        <v>1.16E-4</v>
+      </c>
+      <c r="V72">
+        <v>0.04</v>
+      </c>
+      <c r="W72">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C73">
+        <v>1.05</v>
+      </c>
+      <c r="D73">
+        <v>20.49</v>
+      </c>
+      <c r="E73">
+        <v>66.33</v>
+      </c>
+      <c r="F73">
+        <v>8.35</v>
+      </c>
+      <c r="G73">
+        <v>0.11</v>
+      </c>
+      <c r="H73">
+        <v>0.09</v>
+      </c>
+      <c r="I73">
+        <v>0.47</v>
+      </c>
+      <c r="J73">
+        <v>0.06</v>
+      </c>
+      <c r="K73">
+        <v>2.67</v>
+      </c>
+      <c r="L73">
+        <v>0.01</v>
+      </c>
+      <c r="M73">
+        <v>0.25</v>
+      </c>
+      <c r="N73">
+        <v>0.01</v>
+      </c>
+      <c r="O73">
+        <v>0.01</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0.06</v>
+      </c>
+      <c r="R73">
+        <v>0.03</v>
+      </c>
+      <c r="S73">
+        <v>0.01</v>
+      </c>
+      <c r="T73">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U73">
+        <v>4.08E-4</v>
+      </c>
+      <c r="V73">
+        <v>0.04</v>
+      </c>
+      <c r="W73">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74">
+        <v>90.75</v>
+      </c>
+      <c r="C74">
+        <v>3.18</v>
+      </c>
+      <c r="D74">
+        <v>22.36</v>
+      </c>
+      <c r="E74">
+        <v>58.8</v>
+      </c>
+      <c r="F74">
+        <v>11.82</v>
+      </c>
+      <c r="G74">
+        <v>0.08</v>
+      </c>
+      <c r="H74">
+        <v>0.06</v>
+      </c>
+      <c r="I74">
+        <v>0.44</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>2.79</v>
+      </c>
+      <c r="L74">
+        <v>0.01</v>
+      </c>
+      <c r="M74">
+        <v>0.32</v>
+      </c>
+      <c r="N74">
+        <v>0.01</v>
+      </c>
+      <c r="O74">
+        <v>0.01</v>
+      </c>
+      <c r="P74">
+        <v>0.02</v>
+      </c>
+      <c r="Q74">
+        <v>0.06</v>
+      </c>
+      <c r="R74">
+        <v>0.03</v>
+      </c>
+      <c r="S74">
+        <v>0.02</v>
+      </c>
+      <c r="T74">
+        <v>2.73</v>
+      </c>
+      <c r="U74">
+        <v>1.55E-4</v>
+      </c>
+      <c r="V74">
+        <v>0.06</v>
+      </c>
+      <c r="W74">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75">
+        <v>24.31</v>
+      </c>
+      <c r="C75">
+        <v>4.51</v>
+      </c>
+      <c r="D75">
+        <v>22.58</v>
+      </c>
+      <c r="E75">
+        <v>55.04</v>
+      </c>
+      <c r="F75">
+        <v>12.57</v>
+      </c>
+      <c r="G75">
+        <v>0.11</v>
+      </c>
+      <c r="H75">
+        <v>0.03</v>
+      </c>
+      <c r="I75">
+        <v>0.46</v>
+      </c>
+      <c r="J75">
+        <v>1.23</v>
+      </c>
+      <c r="K75">
+        <v>3.02</v>
+      </c>
+      <c r="L75">
+        <v>0.02</v>
+      </c>
+      <c r="M75">
+        <v>0.27</v>
+      </c>
+      <c r="N75">
+        <v>0.01</v>
+      </c>
+      <c r="O75">
+        <v>0.01</v>
+      </c>
+      <c r="P75">
+        <v>0.02</v>
+      </c>
+      <c r="Q75">
+        <v>0.08</v>
+      </c>
+      <c r="R75">
+        <v>0.03</v>
+      </c>
+      <c r="S75">
+        <v>0.03</v>
+      </c>
+      <c r="T75">
+        <v>2.14</v>
+      </c>
+      <c r="U75">
+        <v>3.398E-3</v>
+      </c>
+      <c r="V75">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W75">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76">
+        <v>11.48</v>
+      </c>
+      <c r="C76">
+        <v>5.26</v>
+      </c>
+      <c r="D76">
+        <v>23.61</v>
+      </c>
+      <c r="E76">
+        <v>51.74</v>
+      </c>
+      <c r="F76">
+        <v>13.91</v>
+      </c>
+      <c r="G76">
+        <v>0.08</v>
+      </c>
+      <c r="H76">
+        <v>0.02</v>
+      </c>
+      <c r="I76">
+        <v>0.45</v>
+      </c>
+      <c r="J76">
+        <v>1.38</v>
+      </c>
+      <c r="K76">
+        <v>3.03</v>
+      </c>
+      <c r="L76">
+        <v>0.02</v>
+      </c>
+      <c r="M76">
+        <v>0.3</v>
+      </c>
+      <c r="N76">
+        <v>0.01</v>
+      </c>
+      <c r="O76">
+        <v>0.01</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0.09</v>
+      </c>
+      <c r="R76">
+        <v>0.03</v>
+      </c>
+      <c r="S76">
+        <v>0.04</v>
+      </c>
+      <c r="T76">
+        <v>3.7</v>
+      </c>
+      <c r="U76">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="V76">
+        <v>0.04</v>
+      </c>
+      <c r="W76">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>55.42</v>
+      </c>
+      <c r="C77">
+        <v>2.99</v>
+      </c>
+      <c r="D77">
+        <v>23.75</v>
+      </c>
+      <c r="E77">
+        <v>55.5</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77">
+        <v>0.05</v>
+      </c>
+      <c r="H77">
+        <v>0.03</v>
+      </c>
+      <c r="I77">
+        <v>0.46</v>
+      </c>
+      <c r="J77">
+        <v>0.59</v>
+      </c>
+      <c r="K77">
+        <v>3.16</v>
+      </c>
+      <c r="L77">
+        <v>0.01</v>
+      </c>
+      <c r="M77">
+        <v>0.27</v>
+      </c>
+      <c r="N77">
+        <v>0.01</v>
+      </c>
+      <c r="O77">
+        <v>0.01</v>
+      </c>
+      <c r="P77">
+        <v>0.02</v>
+      </c>
+      <c r="Q77">
+        <v>0.08</v>
+      </c>
+      <c r="R77">
+        <v>0.03</v>
+      </c>
+      <c r="S77">
+        <v>0.03</v>
+      </c>
+      <c r="T77">
+        <v>1.56</v>
+      </c>
+      <c r="U77">
+        <v>7.0100000000000002E-4</v>
+      </c>
+      <c r="V77">
+        <v>0.06</v>
+      </c>
+      <c r="W77">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C78">
+        <v>3.82</v>
+      </c>
+      <c r="D78">
+        <v>21.1</v>
+      </c>
+      <c r="E78">
+        <v>58.16</v>
+      </c>
+      <c r="F78">
+        <v>11.51</v>
+      </c>
+      <c r="G78">
+        <v>0.1</v>
+      </c>
+      <c r="H78">
+        <v>0.02</v>
+      </c>
+      <c r="I78">
+        <v>0.6</v>
+      </c>
+      <c r="J78">
+        <v>1.37</v>
+      </c>
+      <c r="K78">
+        <v>2.82</v>
+      </c>
+      <c r="L78">
+        <v>0.02</v>
+      </c>
+      <c r="M78">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N78">
+        <v>0.01</v>
+      </c>
+      <c r="O78">
+        <v>0.01</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0.02</v>
+      </c>
+      <c r="R78">
+        <v>0.04</v>
+      </c>
+      <c r="S78">
+        <v>0.03</v>
+      </c>
+      <c r="T78">
+        <v>2.92</v>
+      </c>
+      <c r="U78">
+        <v>3.7580000000000001E-3</v>
+      </c>
+      <c r="V78">
+        <v>0.11</v>
+      </c>
+      <c r="W78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79">
+        <v>46.49</v>
+      </c>
+      <c r="C79">
+        <v>4.41</v>
+      </c>
+      <c r="D79">
+        <v>24.67</v>
+      </c>
+      <c r="E79">
+        <v>53.92</v>
+      </c>
+      <c r="F79">
+        <v>12.71</v>
+      </c>
+      <c r="G79">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H79">
+        <v>0.03</v>
+      </c>
+      <c r="I79">
+        <v>0.43</v>
+      </c>
+      <c r="J79">
+        <v>0.25</v>
+      </c>
+      <c r="K79">
+        <v>0.34</v>
+      </c>
+      <c r="L79">
+        <v>0.01</v>
+      </c>
+      <c r="M79">
+        <v>0.25</v>
+      </c>
+      <c r="N79">
+        <v>0.01</v>
+      </c>
+      <c r="O79">
+        <v>0.01</v>
+      </c>
+      <c r="P79">
+        <v>0.02</v>
+      </c>
+      <c r="Q79">
+        <v>0.08</v>
+      </c>
+      <c r="R79">
+        <v>0.03</v>
+      </c>
+      <c r="S79">
+        <v>0.02</v>
+      </c>
+      <c r="T79">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U79">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="V79">
+        <v>0.06</v>
+      </c>
+      <c r="W79">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80">
+        <v>22.56</v>
+      </c>
+      <c r="C80">
+        <v>4.49</v>
+      </c>
+      <c r="D80">
+        <v>22.88</v>
+      </c>
+      <c r="E80">
+        <v>55.26</v>
+      </c>
+      <c r="F80">
+        <v>12.52</v>
+      </c>
+      <c r="G80">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H80">
+        <v>0.03</v>
+      </c>
+      <c r="I80">
+        <v>0.43</v>
+      </c>
+      <c r="J80">
+        <v>0.9</v>
+      </c>
+      <c r="K80">
+        <v>2.96</v>
+      </c>
+      <c r="L80">
+        <v>0.02</v>
+      </c>
+      <c r="M80">
+        <v>0.26</v>
+      </c>
+      <c r="N80">
+        <v>0.01</v>
+      </c>
+      <c r="O80">
+        <v>0.01</v>
+      </c>
+      <c r="P80">
+        <v>0.02</v>
+      </c>
+      <c r="Q80">
+        <v>0.08</v>
+      </c>
+      <c r="R80">
+        <v>0.03</v>
+      </c>
+      <c r="S80">
+        <v>0.02</v>
+      </c>
+      <c r="T80">
+        <v>1.75</v>
+      </c>
+      <c r="U80">
+        <v>2.6749999999999999E-3</v>
+      </c>
+      <c r="V80">
+        <v>0.06</v>
+      </c>
+      <c r="W80">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81">
+        <v>19.89</v>
+      </c>
+      <c r="C81">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D81">
+        <v>23.56</v>
+      </c>
+      <c r="E81">
+        <v>55.37</v>
+      </c>
+      <c r="F81">
+        <v>12.35</v>
+      </c>
+      <c r="G81">
+        <v>0.06</v>
+      </c>
+      <c r="H81">
+        <v>0.03</v>
+      </c>
+      <c r="I81">
+        <v>0.42</v>
+      </c>
+      <c r="J81">
+        <v>0.65</v>
+      </c>
+      <c r="K81">
+        <v>2.76</v>
+      </c>
+      <c r="L81">
+        <v>0.01</v>
+      </c>
+      <c r="M81">
+        <v>0.24</v>
+      </c>
+      <c r="N81">
+        <v>0.01</v>
+      </c>
+      <c r="O81">
+        <v>0.01</v>
+      </c>
+      <c r="P81">
+        <v>0.02</v>
+      </c>
+      <c r="Q81">
+        <v>0.08</v>
+      </c>
+      <c r="R81">
+        <v>0.02</v>
+      </c>
+      <c r="S81">
+        <v>0.02</v>
+      </c>
+      <c r="T81">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U81">
+        <v>1.6379999999999999E-3</v>
+      </c>
+      <c r="V81">
+        <v>0.05</v>
+      </c>
+      <c r="W81">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C82">
+        <v>5.12</v>
+      </c>
+      <c r="D82">
+        <v>21.58</v>
+      </c>
+      <c r="E82">
+        <v>55.02</v>
+      </c>
+      <c r="F82">
+        <v>12.25</v>
+      </c>
+      <c r="G82">
+        <v>0.11</v>
+      </c>
+      <c r="H82">
+        <v>0.02</v>
+      </c>
+      <c r="I82">
+        <v>0.59</v>
+      </c>
+      <c r="J82">
+        <v>1.78</v>
+      </c>
+      <c r="K82">
+        <v>3.01</v>
+      </c>
+      <c r="L82">
+        <v>0.02</v>
+      </c>
+      <c r="M82">
+        <v>0.26</v>
+      </c>
+      <c r="N82">
+        <v>0.01</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R82">
+        <v>0.03</v>
+      </c>
+      <c r="S82">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T82">
+        <v>2.34</v>
+      </c>
+      <c r="U82">
+        <v>1.1191E-2</v>
+      </c>
+      <c r="V82">
+        <v>0.11</v>
+      </c>
+      <c r="W82">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C83">
+        <v>6.85</v>
+      </c>
+      <c r="D83">
+        <v>23.58</v>
+      </c>
+      <c r="E83">
+        <v>51.82</v>
+      </c>
+      <c r="F83">
+        <v>13.53</v>
+      </c>
+      <c r="G83">
+        <v>0.02</v>
+      </c>
+      <c r="H83">
+        <v>0.03</v>
+      </c>
+      <c r="I83">
+        <v>0.39</v>
+      </c>
+      <c r="J83">
+        <v>0.33</v>
+      </c>
+      <c r="K83">
+        <v>2.99</v>
+      </c>
+      <c r="L83">
+        <v>0.01</v>
+      </c>
+      <c r="M83">
+        <v>0.32</v>
+      </c>
+      <c r="N83">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O83">
+        <v>0.01</v>
+      </c>
+      <c r="P83">
+        <v>0.02</v>
+      </c>
+      <c r="Q83">
+        <v>0.09</v>
+      </c>
+      <c r="R83">
+        <v>0.03</v>
+      </c>
+      <c r="S83">
+        <v>0.02</v>
+      </c>
+      <c r="T83">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U83">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V83">
+        <v>0.08</v>
+      </c>
+      <c r="W83">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84">
+        <v>102.13</v>
+      </c>
+      <c r="C84">
+        <v>3.32</v>
+      </c>
+      <c r="D84">
+        <v>21.78</v>
+      </c>
+      <c r="E84">
+        <v>56.43</v>
+      </c>
+      <c r="F84">
+        <v>12.66</v>
+      </c>
+      <c r="G84">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H84">
+        <v>0.08</v>
+      </c>
+      <c r="I84">
+        <v>0.62</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>3.4</v>
+      </c>
+      <c r="L84">
+        <v>0.01</v>
+      </c>
+      <c r="M84">
+        <v>0.36</v>
+      </c>
+      <c r="N84">
+        <v>0.01</v>
+      </c>
+      <c r="O84">
+        <v>0.01</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0.08</v>
+      </c>
+      <c r="R84">
+        <v>0.04</v>
+      </c>
+      <c r="S84">
+        <v>0.02</v>
+      </c>
+      <c r="T84">
+        <v>0.19</v>
+      </c>
+      <c r="U84">
+        <v>1.2019999999999999E-3</v>
+      </c>
+      <c r="V84">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="W84">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85">
+        <v>93.17</v>
+      </c>
+      <c r="C85">
+        <v>3.09</v>
+      </c>
+      <c r="D85">
+        <v>18.95</v>
+      </c>
+      <c r="E85">
+        <v>60.17</v>
+      </c>
+      <c r="F85">
+        <v>12.71</v>
+      </c>
+      <c r="G85">
+        <v>0.12</v>
+      </c>
+      <c r="H85">
+        <v>0.08</v>
+      </c>
+      <c r="I85">
+        <v>0.71</v>
+      </c>
+      <c r="J85">
+        <v>0.12</v>
+      </c>
+      <c r="K85">
+        <v>3.49</v>
+      </c>
+      <c r="L85">
+        <v>0.01</v>
+      </c>
+      <c r="M85">
+        <v>0.36</v>
+      </c>
+      <c r="N85">
+        <v>0.01</v>
+      </c>
+      <c r="O85">
+        <v>0.01</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0.08</v>
+      </c>
+      <c r="R85">
+        <v>0.05</v>
+      </c>
+      <c r="S85">
+        <v>0.03</v>
+      </c>
+      <c r="T85">
+        <v>2.14</v>
+      </c>
+      <c r="U85">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="V85">
+        <v>0.09</v>
+      </c>
+      <c r="W85">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>59</v>
+      </c>
+      <c r="B86">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="C86">
+        <v>2.85</v>
+      </c>
+      <c r="D86">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="E86">
+        <v>65.63</v>
+      </c>
+      <c r="F86">
+        <v>8.35</v>
+      </c>
+      <c r="G86">
+        <v>0.11</v>
+      </c>
+      <c r="H86">
+        <v>0.1</v>
+      </c>
+      <c r="I86">
+        <v>0.47</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0.01</v>
+      </c>
+      <c r="M86">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N86">
+        <v>0.01</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0.06</v>
+      </c>
+      <c r="R86">
+        <v>0.03</v>
+      </c>
+      <c r="S86">
+        <v>0.01</v>
+      </c>
+      <c r="T86">
+        <v>0.19</v>
+      </c>
+      <c r="U86">
+        <v>9.5600000000000004E-4</v>
+      </c>
+      <c r="V86">
+        <v>0.05</v>
+      </c>
+      <c r="W86">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87">
+        <v>19.34</v>
+      </c>
+      <c r="C87">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D87">
+        <v>19.5</v>
+      </c>
+      <c r="E87">
+        <v>62.82</v>
+      </c>
+      <c r="F87">
+        <v>11.45</v>
+      </c>
+      <c r="G87">
+        <v>0.16</v>
+      </c>
+      <c r="H87">
+        <v>0.1</v>
+      </c>
+      <c r="I87">
+        <v>0.49</v>
+      </c>
+      <c r="J87">
+        <v>0.06</v>
+      </c>
+      <c r="K87">
+        <v>2.73</v>
+      </c>
+      <c r="L87">
+        <v>0.01</v>
+      </c>
+      <c r="M87">
+        <v>0.27</v>
+      </c>
+      <c r="N87">
+        <v>0.01</v>
+      </c>
+      <c r="O87">
+        <v>0.01</v>
+      </c>
+      <c r="P87">
+        <v>0.02</v>
+      </c>
+      <c r="Q87">
+        <v>0.06</v>
+      </c>
+      <c r="R87">
+        <v>0.03</v>
+      </c>
+      <c r="S87">
+        <v>0.01</v>
+      </c>
+      <c r="T87">
+        <v>2.73</v>
+      </c>
+      <c r="U87">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="V87">
+        <v>0.12</v>
+      </c>
+      <c r="W87">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88">
+        <v>87.17</v>
+      </c>
+      <c r="C88">
+        <v>2.75</v>
+      </c>
+      <c r="D88">
+        <v>22.43</v>
+      </c>
+      <c r="E88">
+        <v>58.48</v>
+      </c>
+      <c r="F88">
+        <v>12.35</v>
+      </c>
+      <c r="G88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H88">
+        <v>0.08</v>
+      </c>
+      <c r="I88">
+        <v>0.42</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>2.86</v>
+      </c>
+      <c r="L88">
+        <v>0.01</v>
+      </c>
+      <c r="M88">
+        <v>0.31</v>
+      </c>
+      <c r="N88">
+        <v>0.01</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0.02</v>
+      </c>
+      <c r="Q88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R88">
+        <v>0.04</v>
+      </c>
+      <c r="S88">
+        <v>0.01</v>
+      </c>
+      <c r="T88">
+        <v>0.19</v>
+      </c>
+      <c r="U88">
+        <v>2.5300000000000002E-4</v>
+      </c>
+      <c r="V88">
+        <v>0.06</v>
+      </c>
+      <c r="W88">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89">
+        <v>55.41</v>
+      </c>
+      <c r="C89">
+        <v>4.13</v>
+      </c>
+      <c r="D89">
+        <v>24.94</v>
+      </c>
+      <c r="E89">
+        <v>52.63</v>
+      </c>
+      <c r="F89">
+        <v>13.67</v>
+      </c>
+      <c r="G89">
+        <v>0.03</v>
+      </c>
+      <c r="H89">
+        <v>0.02</v>
+      </c>
+      <c r="I89">
+        <v>0.42</v>
+      </c>
+      <c r="J89">
+        <v>1.34</v>
+      </c>
+      <c r="K89">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="L89">
+        <v>0.01</v>
+      </c>
+      <c r="M89">
+        <v>0.25</v>
+      </c>
+      <c r="N89">
+        <v>0.01</v>
+      </c>
+      <c r="O89">
+        <v>0.01</v>
+      </c>
+      <c r="P89">
+        <v>0.02</v>
+      </c>
+      <c r="Q89">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="R89">
+        <v>0.02</v>
+      </c>
+      <c r="S89">
+        <v>0.03</v>
+      </c>
+      <c r="T89">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U89">
+        <v>2.2420000000000001E-3</v>
+      </c>
+      <c r="V89">
+        <v>0.05</v>
+      </c>
+      <c r="W89">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90">
+        <v>82.63</v>
+      </c>
+      <c r="C90">
+        <v>4.3</v>
+      </c>
+      <c r="D90">
+        <v>20.52</v>
+      </c>
+      <c r="E90">
+        <v>59.62</v>
+      </c>
+      <c r="F90">
+        <v>11.26</v>
+      </c>
+      <c r="G90">
+        <v>0.08</v>
+      </c>
+      <c r="H90">
+        <v>0.06</v>
+      </c>
+      <c r="I90">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J90">
+        <v>0.04</v>
+      </c>
+      <c r="K90">
+        <v>3.09</v>
+      </c>
+      <c r="L90">
+        <v>0.01</v>
+      </c>
+      <c r="M90">
+        <v>0.31</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0.01</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R90">
+        <v>0.04</v>
+      </c>
+      <c r="S90">
+        <v>0.01</v>
+      </c>
+      <c r="T90">
+        <v>2.4</v>
+      </c>
+      <c r="U90">
+        <v>1.934E-3</v>
+      </c>
+      <c r="V90">
+        <v>0.08</v>
+      </c>
+      <c r="W90">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="C91">
+        <v>5.71</v>
+      </c>
+      <c r="D91">
+        <v>21.84</v>
+      </c>
+      <c r="E91">
+        <v>54.42</v>
+      </c>
+      <c r="F91">
+        <v>13.41</v>
+      </c>
+      <c r="G91">
+        <v>0.05</v>
+      </c>
+      <c r="H91">
+        <v>0.05</v>
+      </c>
+      <c r="I91">
+        <v>0.64</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>3.45</v>
+      </c>
+      <c r="L91">
+        <v>0.01</v>
+      </c>
+      <c r="M91">
+        <v>0.37</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0.01</v>
+      </c>
+      <c r="P91">
+        <v>0.02</v>
+      </c>
+      <c r="Q91">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="R91">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S91">
+        <v>0.02</v>
+      </c>
+      <c r="T91">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U91">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="V91">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="W91">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92">
+        <v>87.52</v>
+      </c>
+      <c r="C92">
+        <v>4.32</v>
+      </c>
+      <c r="D92">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E92">
+        <v>67.260000000000005</v>
+      </c>
+      <c r="F92">
+        <v>8.1449999999999996</v>
+      </c>
+      <c r="G92">
+        <v>0.09</v>
+      </c>
+      <c r="H92">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I92">
+        <v>0.44</v>
+      </c>
+      <c r="J92">
+        <v>0.35</v>
+      </c>
+      <c r="K92">
+        <v>2.74</v>
+      </c>
+      <c r="L92">
+        <v>0.01</v>
+      </c>
+      <c r="M92">
+        <v>0.27</v>
+      </c>
+      <c r="N92">
+        <v>0.01</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0.02</v>
+      </c>
+      <c r="Q92">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R92">
+        <v>0.05</v>
+      </c>
+      <c r="S92">
+        <v>0.02</v>
+      </c>
+      <c r="T92">
+        <v>3.2</v>
+      </c>
+      <c r="U92">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="V92">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="W92">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93">
+        <v>58.32</v>
+      </c>
+      <c r="C93">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D93">
+        <v>20.3</v>
+      </c>
+      <c r="E93">
+        <v>62.16</v>
+      </c>
+      <c r="F93">
+        <v>9.19</v>
+      </c>
+      <c r="G93">
+        <v>0.08</v>
+      </c>
+      <c r="H93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I93">
+        <v>0.43</v>
+      </c>
+      <c r="J93">
+        <v>0.13</v>
+      </c>
+      <c r="K93">
+        <v>2.84</v>
+      </c>
+      <c r="L93">
+        <v>0.01</v>
+      </c>
+      <c r="M93">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N93">
+        <v>0.01</v>
+      </c>
+      <c r="O93">
+        <v>0.01</v>
+      </c>
+      <c r="P93">
+        <v>0.02</v>
+      </c>
+      <c r="Q93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R93">
+        <v>0.05</v>
+      </c>
+      <c r="S93">
+        <v>0.01</v>
+      </c>
+      <c r="T93">
+        <v>1.9</v>
+      </c>
+      <c r="U93">
+        <v>1.2960000000000001E-3</v>
+      </c>
+      <c r="V93">
+        <v>0.05</v>
+      </c>
+      <c r="W93">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94">
+        <v>90.9</v>
+      </c>
+      <c r="C94">
+        <v>4.05</v>
+      </c>
+      <c r="D94">
+        <v>19.25</v>
+      </c>
+      <c r="E94">
+        <v>61.12</v>
+      </c>
+      <c r="F94">
+        <v>11.69</v>
+      </c>
+      <c r="G94">
+        <v>0.12</v>
+      </c>
+      <c r="H94">
+        <v>0.08</v>
+      </c>
+      <c r="I94">
+        <v>0.42</v>
+      </c>
+      <c r="J94">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K94">
+        <v>2.7</v>
+      </c>
+      <c r="L94">
+        <v>0.01</v>
+      </c>
+      <c r="M94">
+        <v>0.309</v>
+      </c>
+      <c r="N94">
+        <v>0.01</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0.02</v>
+      </c>
+      <c r="Q94">
+        <v>6.2E-2</v>
+      </c>
+      <c r="R94">
+        <v>0.03</v>
+      </c>
+      <c r="S94">
+        <v>0.02</v>
+      </c>
+      <c r="T94">
+        <v>3.44</v>
+      </c>
+      <c r="U94">
+        <v>1E-3</v>
+      </c>
+      <c r="V94">
+        <v>0.109</v>
+      </c>
+      <c r="W94">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95">
+        <v>83.11</v>
+      </c>
+      <c r="C95">
+        <v>5.61</v>
+      </c>
+      <c r="D95">
+        <v>20.59</v>
+      </c>
+      <c r="E95">
+        <v>58.05</v>
+      </c>
+      <c r="F95">
+        <v>12.03</v>
+      </c>
+      <c r="G95">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H95">
+        <v>0.06</v>
+      </c>
+      <c r="I95">
+        <v>0.42</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>2.67</v>
+      </c>
+      <c r="L95">
+        <v>0.01</v>
+      </c>
+      <c r="M95">
+        <v>0.3</v>
+      </c>
+      <c r="N95">
+        <v>0.01</v>
+      </c>
+      <c r="O95">
+        <v>0.01</v>
+      </c>
+      <c r="P95">
+        <v>0.02</v>
+      </c>
+      <c r="Q95">
+        <v>0.06</v>
+      </c>
+      <c r="R95">
+        <v>0.03</v>
+      </c>
+      <c r="S95">
+        <v>0.01</v>
+      </c>
+      <c r="T95">
+        <v>2.56</v>
+      </c>
+      <c r="U95">
+        <v>4.9200000000000003E-4</v>
+      </c>
+      <c r="V95">
+        <v>0.06</v>
+      </c>
+      <c r="W95">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C96">
+        <v>3.08</v>
+      </c>
+      <c r="D96">
+        <v>22.1</v>
+      </c>
+      <c r="E96">
+        <v>57.24</v>
+      </c>
+      <c r="F96">
+        <v>12.21</v>
+      </c>
+      <c r="G96">
+        <v>0.08</v>
+      </c>
+      <c r="H96">
+        <v>0.03</v>
+      </c>
+      <c r="I96">
+        <v>0.63</v>
+      </c>
+      <c r="J96">
+        <v>1.32</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0.02</v>
+      </c>
+      <c r="M96">
+        <v>0.24</v>
+      </c>
+      <c r="N96">
+        <v>0.01</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0.02</v>
+      </c>
+      <c r="Q96">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R96">
+        <v>0.05</v>
+      </c>
+      <c r="S96">
+        <v>0.05</v>
+      </c>
+      <c r="T96">
+        <v>2.13</v>
+      </c>
+      <c r="U96">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="V96">
+        <v>0.08</v>
+      </c>
+      <c r="W96">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97">
+        <v>35.9</v>
+      </c>
+      <c r="C97">
+        <v>3.42</v>
+      </c>
+      <c r="D97">
+        <v>23.32</v>
+      </c>
+      <c r="E97">
+        <v>54.7</v>
+      </c>
+      <c r="F97">
+        <v>13.4</v>
+      </c>
+      <c r="G97">
+        <v>0.05</v>
+      </c>
+      <c r="H97">
+        <v>0.03</v>
+      </c>
+      <c r="I97">
+        <v>0.43</v>
+      </c>
+      <c r="J97">
+        <v>0.93</v>
+      </c>
+      <c r="K97">
+        <v>2.96</v>
+      </c>
+      <c r="L97">
+        <v>0.01</v>
+      </c>
+      <c r="M97">
+        <v>0.26</v>
+      </c>
+      <c r="N97">
+        <v>0.01</v>
+      </c>
+      <c r="O97">
+        <v>0.01</v>
+      </c>
+      <c r="P97">
+        <v>0.02</v>
+      </c>
+      <c r="Q97">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="R97">
+        <v>0.03</v>
+      </c>
+      <c r="S97">
+        <v>0.02</v>
+      </c>
+      <c r="T97">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U97">
+        <v>1.34E-3</v>
+      </c>
+      <c r="V97">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="W97">
         <v>6.52</v>
       </c>
     </row>

--- a/Pelatihan_new.xlsx
+++ b/Pelatihan_new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="71">
   <si>
     <t>Sample_Code</t>
   </si>
@@ -568,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W97"/>
+  <dimension ref="A1:W206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M217" sqref="M217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6545,188 +6545,188 @@
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B85">
-        <v>93.17</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="C85">
-        <v>3.09</v>
+        <v>6.85</v>
       </c>
       <c r="D85">
-        <v>18.95</v>
+        <v>23.58</v>
       </c>
       <c r="E85">
-        <v>60.17</v>
+        <v>51.82</v>
       </c>
       <c r="F85">
-        <v>12.71</v>
+        <v>13.53</v>
       </c>
       <c r="G85">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="H85">
+        <v>0.03</v>
+      </c>
+      <c r="I85">
+        <v>0.39</v>
+      </c>
+      <c r="J85">
+        <v>0.33</v>
+      </c>
+      <c r="K85">
+        <v>2.99</v>
+      </c>
+      <c r="L85">
+        <v>0.01</v>
+      </c>
+      <c r="M85">
+        <v>0.32</v>
+      </c>
+      <c r="N85">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O85">
+        <v>0.01</v>
+      </c>
+      <c r="P85">
+        <v>0.02</v>
+      </c>
+      <c r="Q85">
+        <v>0.09</v>
+      </c>
+      <c r="R85">
+        <v>0.03</v>
+      </c>
+      <c r="S85">
+        <v>0.02</v>
+      </c>
+      <c r="T85">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U85">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V85">
         <v>0.08</v>
       </c>
-      <c r="I85">
-        <v>0.71</v>
-      </c>
-      <c r="J85">
-        <v>0.12</v>
-      </c>
-      <c r="K85">
-        <v>3.49</v>
-      </c>
-      <c r="L85">
-        <v>0.01</v>
-      </c>
-      <c r="M85">
-        <v>0.36</v>
-      </c>
-      <c r="N85">
-        <v>0.01</v>
-      </c>
-      <c r="O85">
-        <v>0.01</v>
-      </c>
-      <c r="P85">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>0.08</v>
-      </c>
-      <c r="R85">
-        <v>0.05</v>
-      </c>
-      <c r="S85">
-        <v>0.03</v>
-      </c>
-      <c r="T85">
-        <v>2.14</v>
-      </c>
-      <c r="U85">
-        <v>2.5100000000000001E-3</v>
-      </c>
-      <c r="V85">
-        <v>0.09</v>
-      </c>
       <c r="W85">
-        <v>5.13</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B86">
-        <v>71.510000000000005</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="C86">
-        <v>2.85</v>
+        <v>6.85</v>
       </c>
       <c r="D86">
-        <v>19.309999999999999</v>
+        <v>23.58</v>
       </c>
       <c r="E86">
-        <v>65.63</v>
+        <v>51.82</v>
       </c>
       <c r="F86">
-        <v>8.35</v>
+        <v>13.53</v>
       </c>
       <c r="G86">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="H86">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I86">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="L86">
         <v>0.01</v>
       </c>
       <c r="M86">
-        <v>0.28999999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="N86">
-        <v>0.01</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q86">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="R86">
         <v>0.03</v>
       </c>
       <c r="S86">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="T86">
-        <v>0.19</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="U86">
-        <v>9.5600000000000004E-4</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="V86">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="W86">
-        <v>4.8</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B87">
-        <v>19.34</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="C87">
-        <v>2.2599999999999998</v>
+        <v>6.85</v>
       </c>
       <c r="D87">
-        <v>19.5</v>
+        <v>23.58</v>
       </c>
       <c r="E87">
-        <v>62.82</v>
+        <v>51.82</v>
       </c>
       <c r="F87">
-        <v>11.45</v>
+        <v>13.53</v>
       </c>
       <c r="G87">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="H87">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="I87">
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="J87">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="K87">
-        <v>2.73</v>
+        <v>2.99</v>
       </c>
       <c r="L87">
         <v>0.01</v>
       </c>
       <c r="M87">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="N87">
-        <v>0.01</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O87">
         <v>0.01</v>
@@ -6735,137 +6735,137 @@
         <v>0.02</v>
       </c>
       <c r="Q87">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="R87">
         <v>0.03</v>
       </c>
       <c r="S87">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="T87">
-        <v>2.73</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="U87">
-        <v>1.1299999999999999E-3</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="V87">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="W87">
-        <v>4.91</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B88">
-        <v>87.17</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="C88">
-        <v>2.75</v>
+        <v>6.85</v>
       </c>
       <c r="D88">
-        <v>22.43</v>
+        <v>23.58</v>
       </c>
       <c r="E88">
-        <v>58.48</v>
+        <v>51.82</v>
       </c>
       <c r="F88">
-        <v>12.35</v>
+        <v>13.53</v>
       </c>
       <c r="G88">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H88">
+        <v>0.03</v>
+      </c>
+      <c r="I88">
+        <v>0.39</v>
+      </c>
+      <c r="J88">
+        <v>0.33</v>
+      </c>
+      <c r="K88">
+        <v>2.99</v>
+      </c>
+      <c r="L88">
+        <v>0.01</v>
+      </c>
+      <c r="M88">
+        <v>0.32</v>
+      </c>
+      <c r="N88">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O88">
+        <v>0.01</v>
+      </c>
+      <c r="P88">
+        <v>0.02</v>
+      </c>
+      <c r="Q88">
+        <v>0.09</v>
+      </c>
+      <c r="R88">
+        <v>0.03</v>
+      </c>
+      <c r="S88">
+        <v>0.02</v>
+      </c>
+      <c r="T88">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U88">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V88">
         <v>0.08</v>
       </c>
-      <c r="I88">
-        <v>0.42</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>2.86</v>
-      </c>
-      <c r="L88">
-        <v>0.01</v>
-      </c>
-      <c r="M88">
-        <v>0.31</v>
-      </c>
-      <c r="N88">
-        <v>0.01</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0.02</v>
-      </c>
-      <c r="Q88">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R88">
-        <v>0.04</v>
-      </c>
-      <c r="S88">
-        <v>0.01</v>
-      </c>
-      <c r="T88">
-        <v>0.19</v>
-      </c>
-      <c r="U88">
-        <v>2.5300000000000002E-4</v>
-      </c>
-      <c r="V88">
-        <v>0.06</v>
-      </c>
       <c r="W88">
-        <v>4.82</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B89">
-        <v>55.41</v>
+        <v>93.17</v>
       </c>
       <c r="C89">
-        <v>4.13</v>
+        <v>3.09</v>
       </c>
       <c r="D89">
-        <v>24.94</v>
+        <v>18.95</v>
       </c>
       <c r="E89">
-        <v>52.63</v>
+        <v>60.17</v>
       </c>
       <c r="F89">
-        <v>13.67</v>
+        <v>12.71</v>
       </c>
       <c r="G89">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="H89">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I89">
-        <v>0.42</v>
+        <v>0.71</v>
       </c>
       <c r="J89">
-        <v>1.34</v>
+        <v>0.12</v>
       </c>
       <c r="K89">
-        <v>2.9369999999999998</v>
+        <v>3.49</v>
       </c>
       <c r="L89">
         <v>0.01</v>
       </c>
       <c r="M89">
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="N89">
         <v>0.01</v>
@@ -6874,143 +6874,143 @@
         <v>0.01</v>
       </c>
       <c r="P89">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>8.1000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="R89">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="S89">
         <v>0.03</v>
       </c>
       <c r="T89">
-        <v>2.5299999999999998</v>
+        <v>2.14</v>
       </c>
       <c r="U89">
-        <v>2.2420000000000001E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="V89">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="W89">
-        <v>7.32</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B90">
-        <v>82.63</v>
+        <v>71.510000000000005</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>2.85</v>
       </c>
       <c r="D90">
-        <v>20.52</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="E90">
-        <v>59.62</v>
+        <v>65.63</v>
       </c>
       <c r="F90">
-        <v>11.26</v>
+        <v>8.35</v>
       </c>
       <c r="G90">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="H90">
+        <v>0.1</v>
+      </c>
+      <c r="I90">
+        <v>0.47</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0.01</v>
+      </c>
+      <c r="M90">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N90">
+        <v>0.01</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
         <v>0.06</v>
       </c>
-      <c r="I90">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J90">
-        <v>0.04</v>
-      </c>
-      <c r="K90">
-        <v>3.09</v>
-      </c>
-      <c r="L90">
-        <v>0.01</v>
-      </c>
-      <c r="M90">
-        <v>0.31</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0.01</v>
-      </c>
-      <c r="P90">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="R90">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="S90">
         <v>0.01</v>
       </c>
       <c r="T90">
-        <v>2.4</v>
+        <v>0.19</v>
       </c>
       <c r="U90">
-        <v>1.934E-3</v>
+        <v>9.5600000000000004E-4</v>
       </c>
       <c r="V90">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="W90">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B91">
-        <v>79.349999999999994</v>
+        <v>19.34</v>
       </c>
       <c r="C91">
-        <v>5.71</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="D91">
-        <v>21.84</v>
+        <v>19.5</v>
       </c>
       <c r="E91">
-        <v>54.42</v>
+        <v>62.82</v>
       </c>
       <c r="F91">
-        <v>13.41</v>
+        <v>11.45</v>
       </c>
       <c r="G91">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="H91">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I91">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K91">
-        <v>3.45</v>
+        <v>2.73</v>
       </c>
       <c r="L91">
         <v>0.01</v>
       </c>
       <c r="M91">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O91">
         <v>0.01</v>
@@ -7019,66 +7019,66 @@
         <v>0.02</v>
       </c>
       <c r="Q91">
-        <v>8.2000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="R91">
-        <v>4.2000000000000003E-2</v>
+        <v>0.03</v>
       </c>
       <c r="S91">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="T91">
-        <v>1.1399999999999999</v>
+        <v>2.73</v>
       </c>
       <c r="U91">
-        <v>4.4999999999999999E-4</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="V91">
-        <v>5.6000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="W91">
-        <v>4.7699999999999996</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B92">
-        <v>87.52</v>
+        <v>87.17</v>
       </c>
       <c r="C92">
-        <v>4.32</v>
+        <v>2.75</v>
       </c>
       <c r="D92">
-        <v>16.100000000000001</v>
+        <v>22.43</v>
       </c>
       <c r="E92">
-        <v>67.260000000000005</v>
+        <v>58.48</v>
       </c>
       <c r="F92">
-        <v>8.1449999999999996</v>
+        <v>12.35</v>
       </c>
       <c r="G92">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H92">
-        <v>6.2E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I92">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="J92">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="L92">
         <v>0.01</v>
       </c>
       <c r="M92">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="N92">
         <v>0.01</v>
@@ -7090,66 +7090,66 @@
         <v>0.02</v>
       </c>
       <c r="Q92">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="R92">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="S92">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="T92">
-        <v>3.2</v>
+        <v>0.19</v>
       </c>
       <c r="U92">
-        <v>1.5800000000000002E-2</v>
+        <v>2.5300000000000002E-4</v>
       </c>
       <c r="V92">
-        <v>0.11899999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="W92">
-        <v>5.01</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B93">
-        <v>58.32</v>
+        <v>55.41</v>
       </c>
       <c r="C93">
-        <v>4.3499999999999996</v>
+        <v>4.13</v>
       </c>
       <c r="D93">
-        <v>20.3</v>
+        <v>24.94</v>
       </c>
       <c r="E93">
-        <v>62.16</v>
+        <v>52.63</v>
       </c>
       <c r="F93">
-        <v>9.19</v>
+        <v>13.67</v>
       </c>
       <c r="G93">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="H93">
-        <v>7.0000000000000007E-2</v>
+        <v>0.02</v>
       </c>
       <c r="I93">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="J93">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="K93">
-        <v>2.84</v>
+        <v>2.9369999999999998</v>
       </c>
       <c r="L93">
         <v>0.01</v>
       </c>
       <c r="M93">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="N93">
         <v>0.01</v>
@@ -7161,140 +7161,140 @@
         <v>0.02</v>
       </c>
       <c r="Q93">
-        <v>7.0000000000000007E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="R93">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="S93">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="T93">
-        <v>1.9</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="U93">
-        <v>1.2960000000000001E-3</v>
+        <v>2.2420000000000001E-3</v>
       </c>
       <c r="V93">
         <v>0.05</v>
       </c>
       <c r="W93">
-        <v>5.01</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B94">
-        <v>90.9</v>
+        <v>82.63</v>
       </c>
       <c r="C94">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="D94">
-        <v>19.25</v>
+        <v>20.52</v>
       </c>
       <c r="E94">
-        <v>61.12</v>
+        <v>59.62</v>
       </c>
       <c r="F94">
-        <v>11.69</v>
+        <v>11.26</v>
       </c>
       <c r="G94">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="H94">
+        <v>0.06</v>
+      </c>
+      <c r="I94">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J94">
+        <v>0.04</v>
+      </c>
+      <c r="K94">
+        <v>3.09</v>
+      </c>
+      <c r="L94">
+        <v>0.01</v>
+      </c>
+      <c r="M94">
+        <v>0.31</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0.01</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R94">
+        <v>0.04</v>
+      </c>
+      <c r="S94">
+        <v>0.01</v>
+      </c>
+      <c r="T94">
+        <v>2.4</v>
+      </c>
+      <c r="U94">
+        <v>1.934E-3</v>
+      </c>
+      <c r="V94">
         <v>0.08</v>
       </c>
-      <c r="I94">
-        <v>0.42</v>
-      </c>
-      <c r="J94">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="K94">
-        <v>2.7</v>
-      </c>
-      <c r="L94">
-        <v>0.01</v>
-      </c>
-      <c r="M94">
-        <v>0.309</v>
-      </c>
-      <c r="N94">
-        <v>0.01</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>0.02</v>
-      </c>
-      <c r="Q94">
-        <v>6.2E-2</v>
-      </c>
-      <c r="R94">
-        <v>0.03</v>
-      </c>
-      <c r="S94">
-        <v>0.02</v>
-      </c>
-      <c r="T94">
-        <v>3.44</v>
-      </c>
-      <c r="U94">
-        <v>1E-3</v>
-      </c>
-      <c r="V94">
-        <v>0.109</v>
-      </c>
       <c r="W94">
-        <v>4.91</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B95">
-        <v>83.11</v>
+        <v>79.349999999999994</v>
       </c>
       <c r="C95">
-        <v>5.61</v>
+        <v>5.71</v>
       </c>
       <c r="D95">
-        <v>20.59</v>
+        <v>21.84</v>
       </c>
       <c r="E95">
-        <v>58.05</v>
+        <v>54.42</v>
       </c>
       <c r="F95">
-        <v>12.03</v>
+        <v>13.41</v>
       </c>
       <c r="G95">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H95">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I95">
-        <v>0.42</v>
+        <v>0.64</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95">
-        <v>2.67</v>
+        <v>3.45</v>
       </c>
       <c r="L95">
         <v>0.01</v>
       </c>
       <c r="M95">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="N95">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O95">
         <v>0.01</v>
@@ -7303,66 +7303,66 @@
         <v>0.02</v>
       </c>
       <c r="Q95">
-        <v>0.06</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="R95">
-        <v>0.03</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="S95">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="T95">
-        <v>2.56</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="U95">
-        <v>4.9200000000000003E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="V95">
-        <v>0.06</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="W95">
-        <v>4.96</v>
+        <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B96">
-        <v>33.200000000000003</v>
+        <v>87.52</v>
       </c>
       <c r="C96">
-        <v>3.08</v>
+        <v>4.32</v>
       </c>
       <c r="D96">
-        <v>22.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E96">
-        <v>57.24</v>
+        <v>67.260000000000005</v>
       </c>
       <c r="F96">
-        <v>12.21</v>
+        <v>8.1449999999999996</v>
       </c>
       <c r="G96">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H96">
-        <v>0.03</v>
+        <v>6.2E-2</v>
       </c>
       <c r="I96">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="J96">
-        <v>1.32</v>
+        <v>0.35</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="L96">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M96">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="N96">
         <v>0.01</v>
@@ -7374,96 +7374,7835 @@
         <v>0.02</v>
       </c>
       <c r="Q96">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="R96">
         <v>0.05</v>
       </c>
       <c r="S96">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="T96">
-        <v>2.13</v>
+        <v>3.2</v>
       </c>
       <c r="U96">
-        <v>4.1000000000000003E-3</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="V96">
-        <v>0.08</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="W96">
-        <v>6.7</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B97">
-        <v>35.9</v>
+        <v>58.32</v>
       </c>
       <c r="C97">
-        <v>3.42</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="D97">
-        <v>23.32</v>
+        <v>20.3</v>
       </c>
       <c r="E97">
-        <v>54.7</v>
+        <v>62.16</v>
       </c>
       <c r="F97">
-        <v>13.4</v>
+        <v>9.19</v>
       </c>
       <c r="G97">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H97">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I97">
         <v>0.43</v>
       </c>
       <c r="J97">
+        <v>0.13</v>
+      </c>
+      <c r="K97">
+        <v>2.84</v>
+      </c>
+      <c r="L97">
+        <v>0.01</v>
+      </c>
+      <c r="M97">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N97">
+        <v>0.01</v>
+      </c>
+      <c r="O97">
+        <v>0.01</v>
+      </c>
+      <c r="P97">
+        <v>0.02</v>
+      </c>
+      <c r="Q97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R97">
+        <v>0.05</v>
+      </c>
+      <c r="S97">
+        <v>0.01</v>
+      </c>
+      <c r="T97">
+        <v>1.9</v>
+      </c>
+      <c r="U97">
+        <v>1.2960000000000001E-3</v>
+      </c>
+      <c r="V97">
+        <v>0.05</v>
+      </c>
+      <c r="W97">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>67</v>
+      </c>
+      <c r="B98">
+        <v>90.9</v>
+      </c>
+      <c r="C98">
+        <v>4.05</v>
+      </c>
+      <c r="D98">
+        <v>19.25</v>
+      </c>
+      <c r="E98">
+        <v>61.12</v>
+      </c>
+      <c r="F98">
+        <v>11.69</v>
+      </c>
+      <c r="G98">
+        <v>0.12</v>
+      </c>
+      <c r="H98">
+        <v>0.08</v>
+      </c>
+      <c r="I98">
+        <v>0.42</v>
+      </c>
+      <c r="J98">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K98">
+        <v>2.7</v>
+      </c>
+      <c r="L98">
+        <v>0.01</v>
+      </c>
+      <c r="M98">
+        <v>0.309</v>
+      </c>
+      <c r="N98">
+        <v>0.01</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0.02</v>
+      </c>
+      <c r="Q98">
+        <v>6.2E-2</v>
+      </c>
+      <c r="R98">
+        <v>0.03</v>
+      </c>
+      <c r="S98">
+        <v>0.02</v>
+      </c>
+      <c r="T98">
+        <v>3.44</v>
+      </c>
+      <c r="U98">
+        <v>1E-3</v>
+      </c>
+      <c r="V98">
+        <v>0.109</v>
+      </c>
+      <c r="W98">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99">
+        <v>83.11</v>
+      </c>
+      <c r="C99">
+        <v>5.61</v>
+      </c>
+      <c r="D99">
+        <v>20.59</v>
+      </c>
+      <c r="E99">
+        <v>58.05</v>
+      </c>
+      <c r="F99">
+        <v>12.03</v>
+      </c>
+      <c r="G99">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H99">
+        <v>0.06</v>
+      </c>
+      <c r="I99">
+        <v>0.42</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>2.67</v>
+      </c>
+      <c r="L99">
+        <v>0.01</v>
+      </c>
+      <c r="M99">
+        <v>0.3</v>
+      </c>
+      <c r="N99">
+        <v>0.01</v>
+      </c>
+      <c r="O99">
+        <v>0.01</v>
+      </c>
+      <c r="P99">
+        <v>0.02</v>
+      </c>
+      <c r="Q99">
+        <v>0.06</v>
+      </c>
+      <c r="R99">
+        <v>0.03</v>
+      </c>
+      <c r="S99">
+        <v>0.01</v>
+      </c>
+      <c r="T99">
+        <v>2.56</v>
+      </c>
+      <c r="U99">
+        <v>4.9200000000000003E-4</v>
+      </c>
+      <c r="V99">
+        <v>0.06</v>
+      </c>
+      <c r="W99">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C100">
+        <v>3.08</v>
+      </c>
+      <c r="D100">
+        <v>22.1</v>
+      </c>
+      <c r="E100">
+        <v>57.24</v>
+      </c>
+      <c r="F100">
+        <v>12.21</v>
+      </c>
+      <c r="G100">
+        <v>0.08</v>
+      </c>
+      <c r="H100">
+        <v>0.03</v>
+      </c>
+      <c r="I100">
+        <v>0.63</v>
+      </c>
+      <c r="J100">
+        <v>1.32</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0.02</v>
+      </c>
+      <c r="M100">
+        <v>0.24</v>
+      </c>
+      <c r="N100">
+        <v>0.01</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0.02</v>
+      </c>
+      <c r="Q100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R100">
+        <v>0.05</v>
+      </c>
+      <c r="S100">
+        <v>0.05</v>
+      </c>
+      <c r="T100">
+        <v>2.13</v>
+      </c>
+      <c r="U100">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="V100">
+        <v>0.08</v>
+      </c>
+      <c r="W100">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101">
+        <v>35.9</v>
+      </c>
+      <c r="C101">
+        <v>3.42</v>
+      </c>
+      <c r="D101">
+        <v>23.32</v>
+      </c>
+      <c r="E101">
+        <v>54.7</v>
+      </c>
+      <c r="F101">
+        <v>13.4</v>
+      </c>
+      <c r="G101">
+        <v>0.05</v>
+      </c>
+      <c r="H101">
+        <v>0.03</v>
+      </c>
+      <c r="I101">
+        <v>0.43</v>
+      </c>
+      <c r="J101">
         <v>0.93</v>
       </c>
-      <c r="K97">
+      <c r="K101">
         <v>2.96</v>
       </c>
-      <c r="L97">
-        <v>0.01</v>
-      </c>
-      <c r="M97">
+      <c r="L101">
+        <v>0.01</v>
+      </c>
+      <c r="M101">
         <v>0.26</v>
       </c>
-      <c r="N97">
-        <v>0.01</v>
-      </c>
-      <c r="O97">
-        <v>0.01</v>
-      </c>
-      <c r="P97">
-        <v>0.02</v>
-      </c>
-      <c r="Q97">
+      <c r="N101">
+        <v>0.01</v>
+      </c>
+      <c r="O101">
+        <v>0.01</v>
+      </c>
+      <c r="P101">
+        <v>0.02</v>
+      </c>
+      <c r="Q101">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="R97">
-        <v>0.03</v>
-      </c>
-      <c r="S97">
-        <v>0.02</v>
-      </c>
-      <c r="T97">
+      <c r="R101">
+        <v>0.03</v>
+      </c>
+      <c r="S101">
+        <v>0.02</v>
+      </c>
+      <c r="T101">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U97">
+      <c r="U101">
         <v>1.34E-3</v>
       </c>
-      <c r="V97">
+      <c r="V101">
         <v>0.14299999999999999</v>
       </c>
-      <c r="W97">
+      <c r="W101">
         <v>6.52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102">
+        <v>114.28</v>
+      </c>
+      <c r="C102">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="D102">
+        <v>19.03</v>
+      </c>
+      <c r="E102">
+        <v>61.23</v>
+      </c>
+      <c r="F102">
+        <v>10.81</v>
+      </c>
+      <c r="G102">
+        <v>0.1</v>
+      </c>
+      <c r="H102">
+        <v>0.08</v>
+      </c>
+      <c r="I102">
+        <v>0.61</v>
+      </c>
+      <c r="J102">
+        <v>0.06</v>
+      </c>
+      <c r="K102">
+        <v>3.26</v>
+      </c>
+      <c r="L102">
+        <v>0.01</v>
+      </c>
+      <c r="M102">
+        <v>0.31</v>
+      </c>
+      <c r="N102">
+        <v>0.01</v>
+      </c>
+      <c r="O102">
+        <v>0.01</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0.06</v>
+      </c>
+      <c r="R102">
+        <v>0.31</v>
+      </c>
+      <c r="S102">
+        <v>0.02</v>
+      </c>
+      <c r="T102">
+        <v>2.92</v>
+      </c>
+      <c r="U102">
+        <v>9.1479999999999999E-3</v>
+      </c>
+      <c r="V102">
+        <v>0.09</v>
+      </c>
+      <c r="W102">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103">
+        <v>78.56</v>
+      </c>
+      <c r="C103">
+        <v>2.33</v>
+      </c>
+      <c r="D103">
+        <v>21.53</v>
+      </c>
+      <c r="E103">
+        <v>59.57</v>
+      </c>
+      <c r="F103">
+        <v>12.04</v>
+      </c>
+      <c r="G103">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H103">
+        <v>0.09</v>
+      </c>
+      <c r="I103">
+        <v>0.62</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>3.24</v>
+      </c>
+      <c r="L103">
+        <v>0.01</v>
+      </c>
+      <c r="M103">
+        <v>0.32</v>
+      </c>
+      <c r="N103">
+        <v>0.01</v>
+      </c>
+      <c r="O103">
+        <v>0.01</v>
+      </c>
+      <c r="P103">
+        <v>0.02</v>
+      </c>
+      <c r="Q103">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R103">
+        <v>0.05</v>
+      </c>
+      <c r="S103">
+        <v>0.02</v>
+      </c>
+      <c r="T103">
+        <v>0.78</v>
+      </c>
+      <c r="U103">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="V103">
+        <v>0.06</v>
+      </c>
+      <c r="W103">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104">
+        <v>134.5</v>
+      </c>
+      <c r="C104">
+        <v>2.84</v>
+      </c>
+      <c r="D104">
+        <v>19.98</v>
+      </c>
+      <c r="E104">
+        <v>61.14</v>
+      </c>
+      <c r="F104">
+        <v>11.35</v>
+      </c>
+      <c r="G104">
+        <v>0.09</v>
+      </c>
+      <c r="H104">
+        <v>0.08</v>
+      </c>
+      <c r="I104">
+        <v>0.67</v>
+      </c>
+      <c r="J104">
+        <v>0.05</v>
+      </c>
+      <c r="K104">
+        <v>3.31</v>
+      </c>
+      <c r="L104">
+        <v>0.01</v>
+      </c>
+      <c r="M104">
+        <v>0.32</v>
+      </c>
+      <c r="N104">
+        <v>0.01</v>
+      </c>
+      <c r="O104">
+        <v>0.01</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R104">
+        <v>0.05</v>
+      </c>
+      <c r="S104">
+        <v>0.02</v>
+      </c>
+      <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="V104">
+        <v>0.09</v>
+      </c>
+      <c r="W104">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105">
+        <v>90.47</v>
+      </c>
+      <c r="C105">
+        <v>3.22</v>
+      </c>
+      <c r="D105">
+        <v>21.97</v>
+      </c>
+      <c r="E105">
+        <v>56.58</v>
+      </c>
+      <c r="F105">
+        <v>13.44</v>
+      </c>
+      <c r="G105">
+        <v>0.06</v>
+      </c>
+      <c r="H105">
+        <v>0.08</v>
+      </c>
+      <c r="I105">
+        <v>0.69</v>
+      </c>
+      <c r="J105">
+        <v>0.03</v>
+      </c>
+      <c r="K105">
+        <v>3.41</v>
+      </c>
+      <c r="L105">
+        <v>0.01</v>
+      </c>
+      <c r="M105">
+        <v>0.35</v>
+      </c>
+      <c r="N105">
+        <v>0.01</v>
+      </c>
+      <c r="O105">
+        <v>0.01</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0.08</v>
+      </c>
+      <c r="R105">
+        <v>0.04</v>
+      </c>
+      <c r="S105">
+        <v>0.02</v>
+      </c>
+      <c r="T105">
+        <v>1.56</v>
+      </c>
+      <c r="U105">
+        <v>3.9800000000000002E-4</v>
+      </c>
+      <c r="V105">
+        <v>0.05</v>
+      </c>
+      <c r="W105">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106">
+        <v>131.25</v>
+      </c>
+      <c r="C106">
+        <v>4.04</v>
+      </c>
+      <c r="D106">
+        <v>18.97</v>
+      </c>
+      <c r="E106">
+        <v>59.07</v>
+      </c>
+      <c r="F106">
+        <v>12.37</v>
+      </c>
+      <c r="G106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I106">
+        <v>0.61</v>
+      </c>
+      <c r="J106">
+        <v>0.03</v>
+      </c>
+      <c r="K106">
+        <v>3.24</v>
+      </c>
+      <c r="L106">
+        <v>0.01</v>
+      </c>
+      <c r="M106">
+        <v>0.34</v>
+      </c>
+      <c r="N106">
+        <v>0.01</v>
+      </c>
+      <c r="O106">
+        <v>0.01</v>
+      </c>
+      <c r="P106">
+        <v>0.02</v>
+      </c>
+      <c r="Q106">
+        <v>0.08</v>
+      </c>
+      <c r="R106">
+        <v>0.04</v>
+      </c>
+      <c r="S106">
+        <v>0.02</v>
+      </c>
+      <c r="T106">
+        <v>4.09</v>
+      </c>
+      <c r="U106">
+        <v>8.2600000000000002E-4</v>
+      </c>
+      <c r="V106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W106">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107">
+        <v>89.24</v>
+      </c>
+      <c r="C107">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D107">
+        <v>21.69</v>
+      </c>
+      <c r="E107">
+        <v>58.16</v>
+      </c>
+      <c r="F107">
+        <v>13.09</v>
+      </c>
+      <c r="G107">
+        <v>0.06</v>
+      </c>
+      <c r="H107">
+        <v>0.08</v>
+      </c>
+      <c r="I107">
+        <v>0.62</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>3.27</v>
+      </c>
+      <c r="L107">
+        <v>0.01</v>
+      </c>
+      <c r="M107">
+        <v>0.33</v>
+      </c>
+      <c r="N107">
+        <v>0.01</v>
+      </c>
+      <c r="O107">
+        <v>0.01</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0.08</v>
+      </c>
+      <c r="R107">
+        <v>0.04</v>
+      </c>
+      <c r="S107">
+        <v>0.02</v>
+      </c>
+      <c r="T107">
+        <v>2.34</v>
+      </c>
+      <c r="U107">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="V107">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W107">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108">
+        <v>111.02</v>
+      </c>
+      <c r="C108">
+        <v>3.91</v>
+      </c>
+      <c r="D108">
+        <v>21.26</v>
+      </c>
+      <c r="E108">
+        <v>58.01</v>
+      </c>
+      <c r="F108">
+        <v>12.41</v>
+      </c>
+      <c r="G108">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H108">
+        <v>0.08</v>
+      </c>
+      <c r="I108">
+        <v>0.63</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>3.17</v>
+      </c>
+      <c r="L108">
+        <v>0.01</v>
+      </c>
+      <c r="M108">
+        <v>0.33</v>
+      </c>
+      <c r="N108">
+        <v>0.01</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0.18</v>
+      </c>
+      <c r="Q108">
+        <v>0.27</v>
+      </c>
+      <c r="R108">
+        <v>0.18</v>
+      </c>
+      <c r="S108">
+        <v>0.16</v>
+      </c>
+      <c r="T108">
+        <v>1.75</v>
+      </c>
+      <c r="U108">
+        <v>5.62E-4</v>
+      </c>
+      <c r="V108">
+        <v>0.08</v>
+      </c>
+      <c r="W108">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109">
+        <v>67.08</v>
+      </c>
+      <c r="C109">
+        <v>0.16</v>
+      </c>
+      <c r="D109">
+        <v>4.55</v>
+      </c>
+      <c r="E109">
+        <v>15.52</v>
+      </c>
+      <c r="F109">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="G109">
+        <v>0.01</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0.77</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>8.25</v>
+      </c>
+      <c r="L109">
+        <v>0.08</v>
+      </c>
+      <c r="M109">
+        <v>0.65</v>
+      </c>
+      <c r="N109">
+        <v>0.16</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0.18</v>
+      </c>
+      <c r="Q109">
+        <v>0.27</v>
+      </c>
+      <c r="R109">
+        <v>0.18</v>
+      </c>
+      <c r="S109">
+        <v>0.16</v>
+      </c>
+      <c r="T109">
+        <v>0.78</v>
+      </c>
+      <c r="U109">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="V109">
+        <v>0.06</v>
+      </c>
+      <c r="W109">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110">
+        <v>46.52</v>
+      </c>
+      <c r="C110">
+        <v>1.68</v>
+      </c>
+      <c r="D110">
+        <v>18.16</v>
+      </c>
+      <c r="E110">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="F110">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G110">
+        <v>0.12</v>
+      </c>
+      <c r="H110">
+        <v>0.09</v>
+      </c>
+      <c r="I110">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J110">
+        <v>1.57</v>
+      </c>
+      <c r="K110">
+        <v>2.71</v>
+      </c>
+      <c r="L110">
+        <v>0.01</v>
+      </c>
+      <c r="M110">
+        <v>0.31</v>
+      </c>
+      <c r="N110">
+        <v>0.02</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0.02</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>1.95</v>
+      </c>
+      <c r="U110">
+        <v>4.3262000000000002E-2</v>
+      </c>
+      <c r="V110">
+        <v>0.04</v>
+      </c>
+      <c r="W110">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111">
+        <v>54.34</v>
+      </c>
+      <c r="C111">
+        <v>3.08</v>
+      </c>
+      <c r="D111">
+        <v>20.09</v>
+      </c>
+      <c r="E111">
+        <v>63.29</v>
+      </c>
+      <c r="F111">
+        <v>9.41</v>
+      </c>
+      <c r="G111">
+        <v>0.05</v>
+      </c>
+      <c r="H111">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I111">
+        <v>0.51</v>
+      </c>
+      <c r="J111">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K111">
+        <v>2.9</v>
+      </c>
+      <c r="L111">
+        <v>0.01</v>
+      </c>
+      <c r="M111">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N111">
+        <v>0.01</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R111">
+        <v>0.03</v>
+      </c>
+      <c r="S111">
+        <v>0.02</v>
+      </c>
+      <c r="T111">
+        <v>1.56</v>
+      </c>
+      <c r="U111">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="V111">
+        <v>0.06</v>
+      </c>
+      <c r="W111">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112">
+        <v>96.36</v>
+      </c>
+      <c r="C112">
+        <v>1.39</v>
+      </c>
+      <c r="D112">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="E112">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="F112">
+        <v>7.29</v>
+      </c>
+      <c r="G112">
+        <v>0.13</v>
+      </c>
+      <c r="H112">
+        <v>0.1</v>
+      </c>
+      <c r="I112">
+        <v>0.48</v>
+      </c>
+      <c r="J112">
+        <v>0.13</v>
+      </c>
+      <c r="K112">
+        <v>2.63</v>
+      </c>
+      <c r="L112">
+        <v>0.01</v>
+      </c>
+      <c r="M112">
+        <v>0.23</v>
+      </c>
+      <c r="N112">
+        <v>0.01</v>
+      </c>
+      <c r="O112">
+        <v>0.01</v>
+      </c>
+      <c r="P112">
+        <v>0.01</v>
+      </c>
+      <c r="Q112">
+        <v>0.06</v>
+      </c>
+      <c r="R112">
+        <v>0.03</v>
+      </c>
+      <c r="S112">
+        <v>0.01</v>
+      </c>
+      <c r="T112">
+        <v>3.7</v>
+      </c>
+      <c r="U112">
+        <v>6.9020000000000001E-3</v>
+      </c>
+      <c r="V112">
+        <v>0.17</v>
+      </c>
+      <c r="W112">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113">
+        <v>86.93</v>
+      </c>
+      <c r="C113">
+        <v>0.72</v>
+      </c>
+      <c r="D113">
+        <v>17.62</v>
+      </c>
+      <c r="E113">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="F113">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G113">
+        <v>0.16</v>
+      </c>
+      <c r="H113">
+        <v>0.09</v>
+      </c>
+      <c r="I113">
+        <v>0.51</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0.01</v>
+      </c>
+      <c r="M113">
+        <v>0.26</v>
+      </c>
+      <c r="N113">
+        <v>0.01</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0.06</v>
+      </c>
+      <c r="R113">
+        <v>0.04</v>
+      </c>
+      <c r="S113">
+        <v>0.01</v>
+      </c>
+      <c r="T113">
+        <v>3.9</v>
+      </c>
+      <c r="U113">
+        <v>1.438E-3</v>
+      </c>
+      <c r="V113">
+        <v>0.13</v>
+      </c>
+      <c r="W113">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="C114">
+        <v>1.65</v>
+      </c>
+      <c r="D114">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E114">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="F114">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G114">
+        <v>0.15</v>
+      </c>
+      <c r="H114">
+        <v>0.1</v>
+      </c>
+      <c r="I114">
+        <v>0.49</v>
+      </c>
+      <c r="J114">
+        <v>0.4</v>
+      </c>
+      <c r="K114">
+        <v>2.73</v>
+      </c>
+      <c r="L114">
+        <v>0.01</v>
+      </c>
+      <c r="M114">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N114">
+        <v>0.01</v>
+      </c>
+      <c r="O114">
+        <v>0.01</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0.06</v>
+      </c>
+      <c r="R114">
+        <v>0.04</v>
+      </c>
+      <c r="S114">
+        <v>0.02</v>
+      </c>
+      <c r="T114">
+        <v>3.7</v>
+      </c>
+      <c r="U114">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="V114">
+        <v>0.18</v>
+      </c>
+      <c r="W114">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="C115">
+        <v>2.73</v>
+      </c>
+      <c r="D115">
+        <v>22.68</v>
+      </c>
+      <c r="E115">
+        <v>62.28</v>
+      </c>
+      <c r="F115">
+        <v>8.42</v>
+      </c>
+      <c r="G115">
+        <v>0.09</v>
+      </c>
+      <c r="H115">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I115">
+        <v>0.47</v>
+      </c>
+      <c r="J115">
+        <v>0.05</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0.01</v>
+      </c>
+      <c r="M115">
+        <v>0.24</v>
+      </c>
+      <c r="N115">
+        <v>0.01</v>
+      </c>
+      <c r="O115">
+        <v>0.01</v>
+      </c>
+      <c r="P115">
+        <v>0.01</v>
+      </c>
+      <c r="Q115">
+        <v>0.06</v>
+      </c>
+      <c r="R115">
+        <v>0.04</v>
+      </c>
+      <c r="S115">
+        <v>0.01</v>
+      </c>
+      <c r="T115">
+        <v>4.29</v>
+      </c>
+      <c r="U115">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="V115">
+        <v>0.08</v>
+      </c>
+      <c r="W115">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116">
+        <v>116.32</v>
+      </c>
+      <c r="C116">
+        <v>1.22</v>
+      </c>
+      <c r="D116">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E116">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="F116">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="G116">
+        <v>0.13</v>
+      </c>
+      <c r="H116">
+        <v>0.09</v>
+      </c>
+      <c r="I116">
+        <v>0.53</v>
+      </c>
+      <c r="J116">
+        <v>0.08</v>
+      </c>
+      <c r="K116">
+        <v>2.7</v>
+      </c>
+      <c r="L116">
+        <v>0.01</v>
+      </c>
+      <c r="M116">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N116">
+        <v>0.01</v>
+      </c>
+      <c r="O116">
+        <v>0.01</v>
+      </c>
+      <c r="P116">
+        <v>0.01</v>
+      </c>
+      <c r="Q116">
+        <v>0.05</v>
+      </c>
+      <c r="R116">
+        <v>0.04</v>
+      </c>
+      <c r="S116">
+        <v>0.02</v>
+      </c>
+      <c r="T116">
+        <v>2.92</v>
+      </c>
+      <c r="U116">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="V116">
+        <v>0.08</v>
+      </c>
+      <c r="W116">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117">
+        <v>91.28</v>
+      </c>
+      <c r="C117">
+        <v>1.97</v>
+      </c>
+      <c r="D117">
+        <v>20.63</v>
+      </c>
+      <c r="E117">
+        <v>58.16</v>
+      </c>
+      <c r="F117">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G117">
+        <v>0.1</v>
+      </c>
+      <c r="H117">
+        <v>0.08</v>
+      </c>
+      <c r="I117">
+        <v>0.51</v>
+      </c>
+      <c r="J117">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K117">
+        <v>2.8</v>
+      </c>
+      <c r="L117">
+        <v>0.01</v>
+      </c>
+      <c r="M117">
+        <v>0.31</v>
+      </c>
+      <c r="N117">
+        <v>0.01</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R117">
+        <v>0.04</v>
+      </c>
+      <c r="S117">
+        <v>0.01</v>
+      </c>
+      <c r="T117">
+        <v>1.36</v>
+      </c>
+      <c r="U117">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="V117">
+        <v>0.04</v>
+      </c>
+      <c r="W117">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118">
+        <v>73.13</v>
+      </c>
+      <c r="C118">
+        <v>3.01</v>
+      </c>
+      <c r="D118">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>61.79</v>
+      </c>
+      <c r="F118">
+        <v>12.01</v>
+      </c>
+      <c r="G118">
+        <v>0.15</v>
+      </c>
+      <c r="H118">
+        <v>0.11</v>
+      </c>
+      <c r="I118">
+        <v>0.48</v>
+      </c>
+      <c r="J118">
+        <v>0.02</v>
+      </c>
+      <c r="K118">
+        <v>2.86</v>
+      </c>
+      <c r="L118">
+        <v>0.01</v>
+      </c>
+      <c r="M118">
+        <v>0.35</v>
+      </c>
+      <c r="N118">
+        <v>0.01</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0.03</v>
+      </c>
+      <c r="Q118">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R118">
+        <v>0.04</v>
+      </c>
+      <c r="S118">
+        <v>0.02</v>
+      </c>
+      <c r="T118">
+        <v>3.51</v>
+      </c>
+      <c r="U118">
+        <v>8.1599999999999999E-4</v>
+      </c>
+      <c r="V118">
+        <v>0.13</v>
+      </c>
+      <c r="W118">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119">
+        <v>81.87</v>
+      </c>
+      <c r="C119">
+        <v>2.61</v>
+      </c>
+      <c r="D119">
+        <v>22.33</v>
+      </c>
+      <c r="E119">
+        <v>58.68</v>
+      </c>
+      <c r="F119">
+        <v>12.28</v>
+      </c>
+      <c r="G119">
+        <v>0.09</v>
+      </c>
+      <c r="H119">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I119">
+        <v>0.47</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>2.93</v>
+      </c>
+      <c r="L119">
+        <v>0.01</v>
+      </c>
+      <c r="M119">
+        <v>0.35</v>
+      </c>
+      <c r="N119">
+        <v>0.01</v>
+      </c>
+      <c r="O119">
+        <v>0.01</v>
+      </c>
+      <c r="P119">
+        <v>0.02</v>
+      </c>
+      <c r="Q119">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R119">
+        <v>0.03</v>
+      </c>
+      <c r="S119">
+        <v>0.01</v>
+      </c>
+      <c r="T119">
+        <v>2.34</v>
+      </c>
+      <c r="U119">
+        <v>3.79E-4</v>
+      </c>
+      <c r="V119">
+        <v>0.06</v>
+      </c>
+      <c r="W119">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120">
+        <v>76.14</v>
+      </c>
+      <c r="C120">
+        <v>2.21</v>
+      </c>
+      <c r="D120">
+        <v>19.48</v>
+      </c>
+      <c r="E120">
+        <v>63.38</v>
+      </c>
+      <c r="F120">
+        <v>11.08</v>
+      </c>
+      <c r="G120">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H120">
+        <v>0.11</v>
+      </c>
+      <c r="I120">
+        <v>0.45</v>
+      </c>
+      <c r="J120">
+        <v>0.1</v>
+      </c>
+      <c r="K120">
+        <v>2.58</v>
+      </c>
+      <c r="L120">
+        <v>0.01</v>
+      </c>
+      <c r="M120">
+        <v>0.21</v>
+      </c>
+      <c r="N120">
+        <v>0.01</v>
+      </c>
+      <c r="O120">
+        <v>0.01</v>
+      </c>
+      <c r="P120">
+        <v>0.02</v>
+      </c>
+      <c r="Q120">
+        <v>0.06</v>
+      </c>
+      <c r="R120">
+        <v>0.03</v>
+      </c>
+      <c r="S120">
+        <v>0.02</v>
+      </c>
+      <c r="T120">
+        <v>3.9</v>
+      </c>
+      <c r="U120">
+        <v>6.9499999999999998E-4</v>
+      </c>
+      <c r="V120">
+        <v>0.1</v>
+      </c>
+      <c r="W120">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>42</v>
+      </c>
+      <c r="B121">
+        <v>68.81</v>
+      </c>
+      <c r="C121">
+        <v>3.7</v>
+      </c>
+      <c r="D121">
+        <v>18.48</v>
+      </c>
+      <c r="E121">
+        <v>61.05</v>
+      </c>
+      <c r="F121">
+        <v>12.61</v>
+      </c>
+      <c r="G121">
+        <v>0.2</v>
+      </c>
+      <c r="H121">
+        <v>0.11</v>
+      </c>
+      <c r="I121">
+        <v>0.5</v>
+      </c>
+      <c r="J121">
+        <v>0.18</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0.02</v>
+      </c>
+      <c r="M121">
+        <v>0.32</v>
+      </c>
+      <c r="N121">
+        <v>0.02</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0.06</v>
+      </c>
+      <c r="R121">
+        <v>0.04</v>
+      </c>
+      <c r="S121">
+        <v>0.03</v>
+      </c>
+      <c r="T121">
+        <v>5.45</v>
+      </c>
+      <c r="U121">
+        <v>1.64E-3</v>
+      </c>
+      <c r="V121">
+        <v>0.15</v>
+      </c>
+      <c r="W121">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122">
+        <v>70.7</v>
+      </c>
+      <c r="C122">
+        <v>3.14</v>
+      </c>
+      <c r="D122">
+        <v>18.18</v>
+      </c>
+      <c r="E122">
+        <v>62.09</v>
+      </c>
+      <c r="F122">
+        <v>12.15</v>
+      </c>
+      <c r="G122">
+        <v>0.19</v>
+      </c>
+      <c r="H122">
+        <v>0.1</v>
+      </c>
+      <c r="I122">
+        <v>0.52</v>
+      </c>
+      <c r="J122">
+        <v>0.25</v>
+      </c>
+      <c r="K122">
+        <v>2.85</v>
+      </c>
+      <c r="L122">
+        <v>0.02</v>
+      </c>
+      <c r="M122">
+        <v>0.32</v>
+      </c>
+      <c r="N122">
+        <v>0.01</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0.03</v>
+      </c>
+      <c r="Q122">
+        <v>0.06</v>
+      </c>
+      <c r="R122">
+        <v>0.04</v>
+      </c>
+      <c r="S122">
+        <v>0.04</v>
+      </c>
+      <c r="T122">
+        <v>5.26</v>
+      </c>
+      <c r="U122">
+        <v>1.145E-3</v>
+      </c>
+      <c r="V122">
+        <v>0.11</v>
+      </c>
+      <c r="W122">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123">
+        <v>107.21</v>
+      </c>
+      <c r="C123">
+        <v>3.95</v>
+      </c>
+      <c r="D123">
+        <v>21.79</v>
+      </c>
+      <c r="E123">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="F123">
+        <v>59.03</v>
+      </c>
+      <c r="G123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I123">
+        <v>0.44</v>
+      </c>
+      <c r="J123">
+        <v>0.01</v>
+      </c>
+      <c r="K123">
+        <v>2.68</v>
+      </c>
+      <c r="L123">
+        <v>0.01</v>
+      </c>
+      <c r="M123">
+        <v>0.3</v>
+      </c>
+      <c r="N123">
+        <v>0.01</v>
+      </c>
+      <c r="O123">
+        <v>0.01</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0.05</v>
+      </c>
+      <c r="R123">
+        <v>0.04</v>
+      </c>
+      <c r="S123">
+        <v>0.01</v>
+      </c>
+      <c r="T123">
+        <v>1.56</v>
+      </c>
+      <c r="U123">
+        <v>5.9599999999999996E-4</v>
+      </c>
+      <c r="V123">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W123">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124">
+        <v>92.63</v>
+      </c>
+      <c r="C124">
+        <v>3.36</v>
+      </c>
+      <c r="D124">
+        <v>23.16</v>
+      </c>
+      <c r="E124">
+        <v>57.35</v>
+      </c>
+      <c r="F124">
+        <v>12.29</v>
+      </c>
+      <c r="G124">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H124">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I124">
+        <v>0.46</v>
+      </c>
+      <c r="J124">
+        <v>0.03</v>
+      </c>
+      <c r="K124">
+        <v>2.79</v>
+      </c>
+      <c r="L124">
+        <v>0.01</v>
+      </c>
+      <c r="M124">
+        <v>0.27</v>
+      </c>
+      <c r="N124">
+        <v>0.01</v>
+      </c>
+      <c r="O124">
+        <v>0.01</v>
+      </c>
+      <c r="P124">
+        <v>0.02</v>
+      </c>
+      <c r="Q124">
+        <v>0.06</v>
+      </c>
+      <c r="R124">
+        <v>0.03</v>
+      </c>
+      <c r="S124">
+        <v>0.01</v>
+      </c>
+      <c r="T124">
+        <v>2.34</v>
+      </c>
+      <c r="U124">
+        <v>1.16E-4</v>
+      </c>
+      <c r="V124">
+        <v>0.04</v>
+      </c>
+      <c r="W124">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>60</v>
+      </c>
+      <c r="B125">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C125">
+        <v>1.05</v>
+      </c>
+      <c r="D125">
+        <v>20.49</v>
+      </c>
+      <c r="E125">
+        <v>66.33</v>
+      </c>
+      <c r="F125">
+        <v>8.35</v>
+      </c>
+      <c r="G125">
+        <v>0.11</v>
+      </c>
+      <c r="H125">
+        <v>0.09</v>
+      </c>
+      <c r="I125">
+        <v>0.47</v>
+      </c>
+      <c r="J125">
+        <v>0.06</v>
+      </c>
+      <c r="K125">
+        <v>2.67</v>
+      </c>
+      <c r="L125">
+        <v>0.01</v>
+      </c>
+      <c r="M125">
+        <v>0.25</v>
+      </c>
+      <c r="N125">
+        <v>0.01</v>
+      </c>
+      <c r="O125">
+        <v>0.01</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0.06</v>
+      </c>
+      <c r="R125">
+        <v>0.03</v>
+      </c>
+      <c r="S125">
+        <v>0.01</v>
+      </c>
+      <c r="T125">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U125">
+        <v>4.08E-4</v>
+      </c>
+      <c r="V125">
+        <v>0.04</v>
+      </c>
+      <c r="W125">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126">
+        <v>90.75</v>
+      </c>
+      <c r="C126">
+        <v>3.18</v>
+      </c>
+      <c r="D126">
+        <v>22.36</v>
+      </c>
+      <c r="E126">
+        <v>58.8</v>
+      </c>
+      <c r="F126">
+        <v>11.82</v>
+      </c>
+      <c r="G126">
+        <v>0.08</v>
+      </c>
+      <c r="H126">
+        <v>0.06</v>
+      </c>
+      <c r="I126">
+        <v>0.44</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>2.79</v>
+      </c>
+      <c r="L126">
+        <v>0.01</v>
+      </c>
+      <c r="M126">
+        <v>0.32</v>
+      </c>
+      <c r="N126">
+        <v>0.01</v>
+      </c>
+      <c r="O126">
+        <v>0.01</v>
+      </c>
+      <c r="P126">
+        <v>0.02</v>
+      </c>
+      <c r="Q126">
+        <v>0.06</v>
+      </c>
+      <c r="R126">
+        <v>0.03</v>
+      </c>
+      <c r="S126">
+        <v>0.02</v>
+      </c>
+      <c r="T126">
+        <v>2.73</v>
+      </c>
+      <c r="U126">
+        <v>1.55E-4</v>
+      </c>
+      <c r="V126">
+        <v>0.06</v>
+      </c>
+      <c r="W126">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127">
+        <v>24.31</v>
+      </c>
+      <c r="C127">
+        <v>4.51</v>
+      </c>
+      <c r="D127">
+        <v>22.58</v>
+      </c>
+      <c r="E127">
+        <v>55.04</v>
+      </c>
+      <c r="F127">
+        <v>12.57</v>
+      </c>
+      <c r="G127">
+        <v>0.11</v>
+      </c>
+      <c r="H127">
+        <v>0.03</v>
+      </c>
+      <c r="I127">
+        <v>0.46</v>
+      </c>
+      <c r="J127">
+        <v>1.23</v>
+      </c>
+      <c r="K127">
+        <v>3.02</v>
+      </c>
+      <c r="L127">
+        <v>0.02</v>
+      </c>
+      <c r="M127">
+        <v>0.27</v>
+      </c>
+      <c r="N127">
+        <v>0.01</v>
+      </c>
+      <c r="O127">
+        <v>0.01</v>
+      </c>
+      <c r="P127">
+        <v>0.02</v>
+      </c>
+      <c r="Q127">
+        <v>0.08</v>
+      </c>
+      <c r="R127">
+        <v>0.03</v>
+      </c>
+      <c r="S127">
+        <v>0.03</v>
+      </c>
+      <c r="T127">
+        <v>2.14</v>
+      </c>
+      <c r="U127">
+        <v>3.398E-3</v>
+      </c>
+      <c r="V127">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W127">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128">
+        <v>11.48</v>
+      </c>
+      <c r="C128">
+        <v>5.26</v>
+      </c>
+      <c r="D128">
+        <v>23.61</v>
+      </c>
+      <c r="E128">
+        <v>51.74</v>
+      </c>
+      <c r="F128">
+        <v>13.91</v>
+      </c>
+      <c r="G128">
+        <v>0.08</v>
+      </c>
+      <c r="H128">
+        <v>0.02</v>
+      </c>
+      <c r="I128">
+        <v>0.45</v>
+      </c>
+      <c r="J128">
+        <v>1.38</v>
+      </c>
+      <c r="K128">
+        <v>3.03</v>
+      </c>
+      <c r="L128">
+        <v>0.02</v>
+      </c>
+      <c r="M128">
+        <v>0.3</v>
+      </c>
+      <c r="N128">
+        <v>0.01</v>
+      </c>
+      <c r="O128">
+        <v>0.01</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0.09</v>
+      </c>
+      <c r="R128">
+        <v>0.03</v>
+      </c>
+      <c r="S128">
+        <v>0.04</v>
+      </c>
+      <c r="T128">
+        <v>3.7</v>
+      </c>
+      <c r="U128">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="V128">
+        <v>0.04</v>
+      </c>
+      <c r="W128">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>50</v>
+      </c>
+      <c r="B129">
+        <v>55.42</v>
+      </c>
+      <c r="C129">
+        <v>2.99</v>
+      </c>
+      <c r="D129">
+        <v>23.75</v>
+      </c>
+      <c r="E129">
+        <v>55.5</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129">
+        <v>0.05</v>
+      </c>
+      <c r="H129">
+        <v>0.03</v>
+      </c>
+      <c r="I129">
+        <v>0.46</v>
+      </c>
+      <c r="J129">
+        <v>0.59</v>
+      </c>
+      <c r="K129">
+        <v>3.16</v>
+      </c>
+      <c r="L129">
+        <v>0.01</v>
+      </c>
+      <c r="M129">
+        <v>0.27</v>
+      </c>
+      <c r="N129">
+        <v>0.01</v>
+      </c>
+      <c r="O129">
+        <v>0.01</v>
+      </c>
+      <c r="P129">
+        <v>0.02</v>
+      </c>
+      <c r="Q129">
+        <v>0.08</v>
+      </c>
+      <c r="R129">
+        <v>0.03</v>
+      </c>
+      <c r="S129">
+        <v>0.03</v>
+      </c>
+      <c r="T129">
+        <v>1.56</v>
+      </c>
+      <c r="U129">
+        <v>7.0100000000000002E-4</v>
+      </c>
+      <c r="V129">
+        <v>0.06</v>
+      </c>
+      <c r="W129">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C130">
+        <v>3.82</v>
+      </c>
+      <c r="D130">
+        <v>21.1</v>
+      </c>
+      <c r="E130">
+        <v>58.16</v>
+      </c>
+      <c r="F130">
+        <v>11.51</v>
+      </c>
+      <c r="G130">
+        <v>0.1</v>
+      </c>
+      <c r="H130">
+        <v>0.02</v>
+      </c>
+      <c r="I130">
+        <v>0.6</v>
+      </c>
+      <c r="J130">
+        <v>1.37</v>
+      </c>
+      <c r="K130">
+        <v>2.82</v>
+      </c>
+      <c r="L130">
+        <v>0.02</v>
+      </c>
+      <c r="M130">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N130">
+        <v>0.01</v>
+      </c>
+      <c r="O130">
+        <v>0.01</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0.02</v>
+      </c>
+      <c r="R130">
+        <v>0.04</v>
+      </c>
+      <c r="S130">
+        <v>0.03</v>
+      </c>
+      <c r="T130">
+        <v>2.92</v>
+      </c>
+      <c r="U130">
+        <v>3.7580000000000001E-3</v>
+      </c>
+      <c r="V130">
+        <v>0.11</v>
+      </c>
+      <c r="W130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131">
+        <v>46.49</v>
+      </c>
+      <c r="C131">
+        <v>4.41</v>
+      </c>
+      <c r="D131">
+        <v>24.67</v>
+      </c>
+      <c r="E131">
+        <v>53.92</v>
+      </c>
+      <c r="F131">
+        <v>12.71</v>
+      </c>
+      <c r="G131">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H131">
+        <v>0.03</v>
+      </c>
+      <c r="I131">
+        <v>0.43</v>
+      </c>
+      <c r="J131">
+        <v>0.25</v>
+      </c>
+      <c r="K131">
+        <v>0.34</v>
+      </c>
+      <c r="L131">
+        <v>0.01</v>
+      </c>
+      <c r="M131">
+        <v>0.25</v>
+      </c>
+      <c r="N131">
+        <v>0.01</v>
+      </c>
+      <c r="O131">
+        <v>0.01</v>
+      </c>
+      <c r="P131">
+        <v>0.02</v>
+      </c>
+      <c r="Q131">
+        <v>0.08</v>
+      </c>
+      <c r="R131">
+        <v>0.03</v>
+      </c>
+      <c r="S131">
+        <v>0.02</v>
+      </c>
+      <c r="T131">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U131">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="V131">
+        <v>0.06</v>
+      </c>
+      <c r="W131">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132">
+        <v>22.56</v>
+      </c>
+      <c r="C132">
+        <v>4.49</v>
+      </c>
+      <c r="D132">
+        <v>22.88</v>
+      </c>
+      <c r="E132">
+        <v>55.26</v>
+      </c>
+      <c r="F132">
+        <v>12.52</v>
+      </c>
+      <c r="G132">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H132">
+        <v>0.03</v>
+      </c>
+      <c r="I132">
+        <v>0.43</v>
+      </c>
+      <c r="J132">
+        <v>0.9</v>
+      </c>
+      <c r="K132">
+        <v>2.96</v>
+      </c>
+      <c r="L132">
+        <v>0.02</v>
+      </c>
+      <c r="M132">
+        <v>0.26</v>
+      </c>
+      <c r="N132">
+        <v>0.01</v>
+      </c>
+      <c r="O132">
+        <v>0.01</v>
+      </c>
+      <c r="P132">
+        <v>0.02</v>
+      </c>
+      <c r="Q132">
+        <v>0.08</v>
+      </c>
+      <c r="R132">
+        <v>0.03</v>
+      </c>
+      <c r="S132">
+        <v>0.02</v>
+      </c>
+      <c r="T132">
+        <v>1.75</v>
+      </c>
+      <c r="U132">
+        <v>2.6749999999999999E-3</v>
+      </c>
+      <c r="V132">
+        <v>0.06</v>
+      </c>
+      <c r="W132">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>54</v>
+      </c>
+      <c r="B133">
+        <v>19.89</v>
+      </c>
+      <c r="C133">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D133">
+        <v>23.56</v>
+      </c>
+      <c r="E133">
+        <v>55.37</v>
+      </c>
+      <c r="F133">
+        <v>12.35</v>
+      </c>
+      <c r="G133">
+        <v>0.06</v>
+      </c>
+      <c r="H133">
+        <v>0.03</v>
+      </c>
+      <c r="I133">
+        <v>0.42</v>
+      </c>
+      <c r="J133">
+        <v>0.65</v>
+      </c>
+      <c r="K133">
+        <v>2.76</v>
+      </c>
+      <c r="L133">
+        <v>0.01</v>
+      </c>
+      <c r="M133">
+        <v>0.24</v>
+      </c>
+      <c r="N133">
+        <v>0.01</v>
+      </c>
+      <c r="O133">
+        <v>0.01</v>
+      </c>
+      <c r="P133">
+        <v>0.02</v>
+      </c>
+      <c r="Q133">
+        <v>0.08</v>
+      </c>
+      <c r="R133">
+        <v>0.02</v>
+      </c>
+      <c r="S133">
+        <v>0.02</v>
+      </c>
+      <c r="T133">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U133">
+        <v>1.6379999999999999E-3</v>
+      </c>
+      <c r="V133">
+        <v>0.05</v>
+      </c>
+      <c r="W133">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>55</v>
+      </c>
+      <c r="B134">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C134">
+        <v>5.12</v>
+      </c>
+      <c r="D134">
+        <v>21.58</v>
+      </c>
+      <c r="E134">
+        <v>55.02</v>
+      </c>
+      <c r="F134">
+        <v>12.25</v>
+      </c>
+      <c r="G134">
+        <v>0.11</v>
+      </c>
+      <c r="H134">
+        <v>0.02</v>
+      </c>
+      <c r="I134">
+        <v>0.59</v>
+      </c>
+      <c r="J134">
+        <v>1.78</v>
+      </c>
+      <c r="K134">
+        <v>3.01</v>
+      </c>
+      <c r="L134">
+        <v>0.02</v>
+      </c>
+      <c r="M134">
+        <v>0.26</v>
+      </c>
+      <c r="N134">
+        <v>0.01</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R134">
+        <v>0.03</v>
+      </c>
+      <c r="S134">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T134">
+        <v>2.34</v>
+      </c>
+      <c r="U134">
+        <v>1.1191E-2</v>
+      </c>
+      <c r="V134">
+        <v>0.11</v>
+      </c>
+      <c r="W134">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C135">
+        <v>6.85</v>
+      </c>
+      <c r="D135">
+        <v>23.58</v>
+      </c>
+      <c r="E135">
+        <v>51.82</v>
+      </c>
+      <c r="F135">
+        <v>13.53</v>
+      </c>
+      <c r="G135">
+        <v>0.02</v>
+      </c>
+      <c r="H135">
+        <v>0.03</v>
+      </c>
+      <c r="I135">
+        <v>0.39</v>
+      </c>
+      <c r="J135">
+        <v>0.33</v>
+      </c>
+      <c r="K135">
+        <v>2.99</v>
+      </c>
+      <c r="L135">
+        <v>0.01</v>
+      </c>
+      <c r="M135">
+        <v>0.32</v>
+      </c>
+      <c r="N135">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O135">
+        <v>0.01</v>
+      </c>
+      <c r="P135">
+        <v>0.02</v>
+      </c>
+      <c r="Q135">
+        <v>0.09</v>
+      </c>
+      <c r="R135">
+        <v>0.03</v>
+      </c>
+      <c r="S135">
+        <v>0.02</v>
+      </c>
+      <c r="T135">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U135">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V135">
+        <v>0.08</v>
+      </c>
+      <c r="W135">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>57</v>
+      </c>
+      <c r="B136">
+        <v>102.13</v>
+      </c>
+      <c r="C136">
+        <v>3.32</v>
+      </c>
+      <c r="D136">
+        <v>21.78</v>
+      </c>
+      <c r="E136">
+        <v>56.43</v>
+      </c>
+      <c r="F136">
+        <v>12.66</v>
+      </c>
+      <c r="G136">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H136">
+        <v>0.08</v>
+      </c>
+      <c r="I136">
+        <v>0.62</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>3.4</v>
+      </c>
+      <c r="L136">
+        <v>0.01</v>
+      </c>
+      <c r="M136">
+        <v>0.36</v>
+      </c>
+      <c r="N136">
+        <v>0.01</v>
+      </c>
+      <c r="O136">
+        <v>0.01</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0.08</v>
+      </c>
+      <c r="R136">
+        <v>0.04</v>
+      </c>
+      <c r="S136">
+        <v>0.02</v>
+      </c>
+      <c r="T136">
+        <v>0.19</v>
+      </c>
+      <c r="U136">
+        <v>1.2019999999999999E-3</v>
+      </c>
+      <c r="V136">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="W136">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>58</v>
+      </c>
+      <c r="B137">
+        <v>93.17</v>
+      </c>
+      <c r="C137">
+        <v>3.09</v>
+      </c>
+      <c r="D137">
+        <v>18.95</v>
+      </c>
+      <c r="E137">
+        <v>60.17</v>
+      </c>
+      <c r="F137">
+        <v>12.71</v>
+      </c>
+      <c r="G137">
+        <v>0.12</v>
+      </c>
+      <c r="H137">
+        <v>0.08</v>
+      </c>
+      <c r="I137">
+        <v>0.71</v>
+      </c>
+      <c r="J137">
+        <v>0.12</v>
+      </c>
+      <c r="K137">
+        <v>3.49</v>
+      </c>
+      <c r="L137">
+        <v>0.01</v>
+      </c>
+      <c r="M137">
+        <v>0.36</v>
+      </c>
+      <c r="N137">
+        <v>0.01</v>
+      </c>
+      <c r="O137">
+        <v>0.01</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0.08</v>
+      </c>
+      <c r="R137">
+        <v>0.05</v>
+      </c>
+      <c r="S137">
+        <v>0.03</v>
+      </c>
+      <c r="T137">
+        <v>2.14</v>
+      </c>
+      <c r="U137">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="V137">
+        <v>0.09</v>
+      </c>
+      <c r="W137">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>59</v>
+      </c>
+      <c r="B138">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="C138">
+        <v>2.85</v>
+      </c>
+      <c r="D138">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="E138">
+        <v>65.63</v>
+      </c>
+      <c r="F138">
+        <v>8.35</v>
+      </c>
+      <c r="G138">
+        <v>0.11</v>
+      </c>
+      <c r="H138">
+        <v>0.1</v>
+      </c>
+      <c r="I138">
+        <v>0.47</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0.01</v>
+      </c>
+      <c r="M138">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N138">
+        <v>0.01</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0.06</v>
+      </c>
+      <c r="R138">
+        <v>0.03</v>
+      </c>
+      <c r="S138">
+        <v>0.01</v>
+      </c>
+      <c r="T138">
+        <v>0.19</v>
+      </c>
+      <c r="U138">
+        <v>9.5600000000000004E-4</v>
+      </c>
+      <c r="V138">
+        <v>0.05</v>
+      </c>
+      <c r="W138">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139">
+        <v>19.34</v>
+      </c>
+      <c r="C139">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D139">
+        <v>19.5</v>
+      </c>
+      <c r="E139">
+        <v>62.82</v>
+      </c>
+      <c r="F139">
+        <v>11.45</v>
+      </c>
+      <c r="G139">
+        <v>0.16</v>
+      </c>
+      <c r="H139">
+        <v>0.1</v>
+      </c>
+      <c r="I139">
+        <v>0.49</v>
+      </c>
+      <c r="J139">
+        <v>0.06</v>
+      </c>
+      <c r="K139">
+        <v>2.73</v>
+      </c>
+      <c r="L139">
+        <v>0.01</v>
+      </c>
+      <c r="M139">
+        <v>0.27</v>
+      </c>
+      <c r="N139">
+        <v>0.01</v>
+      </c>
+      <c r="O139">
+        <v>0.01</v>
+      </c>
+      <c r="P139">
+        <v>0.02</v>
+      </c>
+      <c r="Q139">
+        <v>0.06</v>
+      </c>
+      <c r="R139">
+        <v>0.03</v>
+      </c>
+      <c r="S139">
+        <v>0.01</v>
+      </c>
+      <c r="T139">
+        <v>2.73</v>
+      </c>
+      <c r="U139">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="V139">
+        <v>0.12</v>
+      </c>
+      <c r="W139">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140">
+        <v>87.17</v>
+      </c>
+      <c r="C140">
+        <v>2.75</v>
+      </c>
+      <c r="D140">
+        <v>22.43</v>
+      </c>
+      <c r="E140">
+        <v>58.48</v>
+      </c>
+      <c r="F140">
+        <v>12.35</v>
+      </c>
+      <c r="G140">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H140">
+        <v>0.08</v>
+      </c>
+      <c r="I140">
+        <v>0.42</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>2.86</v>
+      </c>
+      <c r="L140">
+        <v>0.01</v>
+      </c>
+      <c r="M140">
+        <v>0.31</v>
+      </c>
+      <c r="N140">
+        <v>0.01</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0.02</v>
+      </c>
+      <c r="Q140">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R140">
+        <v>0.04</v>
+      </c>
+      <c r="S140">
+        <v>0.01</v>
+      </c>
+      <c r="T140">
+        <v>0.19</v>
+      </c>
+      <c r="U140">
+        <v>2.5300000000000002E-4</v>
+      </c>
+      <c r="V140">
+        <v>0.06</v>
+      </c>
+      <c r="W140">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141">
+        <v>55.41</v>
+      </c>
+      <c r="C141">
+        <v>4.13</v>
+      </c>
+      <c r="D141">
+        <v>24.94</v>
+      </c>
+      <c r="E141">
+        <v>52.63</v>
+      </c>
+      <c r="F141">
+        <v>13.67</v>
+      </c>
+      <c r="G141">
+        <v>0.03</v>
+      </c>
+      <c r="H141">
+        <v>0.02</v>
+      </c>
+      <c r="I141">
+        <v>0.42</v>
+      </c>
+      <c r="J141">
+        <v>1.34</v>
+      </c>
+      <c r="K141">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="L141">
+        <v>0.01</v>
+      </c>
+      <c r="M141">
+        <v>0.25</v>
+      </c>
+      <c r="N141">
+        <v>0.01</v>
+      </c>
+      <c r="O141">
+        <v>0.01</v>
+      </c>
+      <c r="P141">
+        <v>0.02</v>
+      </c>
+      <c r="Q141">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="R141">
+        <v>0.02</v>
+      </c>
+      <c r="S141">
+        <v>0.03</v>
+      </c>
+      <c r="T141">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U141">
+        <v>2.2420000000000001E-3</v>
+      </c>
+      <c r="V141">
+        <v>0.05</v>
+      </c>
+      <c r="W141">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>63</v>
+      </c>
+      <c r="B142">
+        <v>82.63</v>
+      </c>
+      <c r="C142">
+        <v>4.3</v>
+      </c>
+      <c r="D142">
+        <v>20.52</v>
+      </c>
+      <c r="E142">
+        <v>59.62</v>
+      </c>
+      <c r="F142">
+        <v>11.26</v>
+      </c>
+      <c r="G142">
+        <v>0.08</v>
+      </c>
+      <c r="H142">
+        <v>0.06</v>
+      </c>
+      <c r="I142">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J142">
+        <v>0.04</v>
+      </c>
+      <c r="K142">
+        <v>3.09</v>
+      </c>
+      <c r="L142">
+        <v>0.01</v>
+      </c>
+      <c r="M142">
+        <v>0.31</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0.01</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R142">
+        <v>0.04</v>
+      </c>
+      <c r="S142">
+        <v>0.01</v>
+      </c>
+      <c r="T142">
+        <v>2.4</v>
+      </c>
+      <c r="U142">
+        <v>1.934E-3</v>
+      </c>
+      <c r="V142">
+        <v>0.08</v>
+      </c>
+      <c r="W142">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="C143">
+        <v>5.71</v>
+      </c>
+      <c r="D143">
+        <v>21.84</v>
+      </c>
+      <c r="E143">
+        <v>54.42</v>
+      </c>
+      <c r="F143">
+        <v>13.41</v>
+      </c>
+      <c r="G143">
+        <v>0.05</v>
+      </c>
+      <c r="H143">
+        <v>0.05</v>
+      </c>
+      <c r="I143">
+        <v>0.64</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>3.45</v>
+      </c>
+      <c r="L143">
+        <v>0.01</v>
+      </c>
+      <c r="M143">
+        <v>0.37</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0.01</v>
+      </c>
+      <c r="P143">
+        <v>0.02</v>
+      </c>
+      <c r="Q143">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="R143">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S143">
+        <v>0.02</v>
+      </c>
+      <c r="T143">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U143">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="V143">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="W143">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>65</v>
+      </c>
+      <c r="B144">
+        <v>87.52</v>
+      </c>
+      <c r="C144">
+        <v>4.32</v>
+      </c>
+      <c r="D144">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E144">
+        <v>67.260000000000005</v>
+      </c>
+      <c r="F144">
+        <v>8.1449999999999996</v>
+      </c>
+      <c r="G144">
+        <v>0.09</v>
+      </c>
+      <c r="H144">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I144">
+        <v>0.44</v>
+      </c>
+      <c r="J144">
+        <v>0.35</v>
+      </c>
+      <c r="K144">
+        <v>2.74</v>
+      </c>
+      <c r="L144">
+        <v>0.01</v>
+      </c>
+      <c r="M144">
+        <v>0.27</v>
+      </c>
+      <c r="N144">
+        <v>0.01</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0.02</v>
+      </c>
+      <c r="Q144">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R144">
+        <v>0.05</v>
+      </c>
+      <c r="S144">
+        <v>0.02</v>
+      </c>
+      <c r="T144">
+        <v>3.2</v>
+      </c>
+      <c r="U144">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="V144">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="W144">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>66</v>
+      </c>
+      <c r="B145">
+        <v>58.32</v>
+      </c>
+      <c r="C145">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D145">
+        <v>20.3</v>
+      </c>
+      <c r="E145">
+        <v>62.16</v>
+      </c>
+      <c r="F145">
+        <v>9.19</v>
+      </c>
+      <c r="G145">
+        <v>0.08</v>
+      </c>
+      <c r="H145">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I145">
+        <v>0.43</v>
+      </c>
+      <c r="J145">
+        <v>0.13</v>
+      </c>
+      <c r="K145">
+        <v>2.84</v>
+      </c>
+      <c r="L145">
+        <v>0.01</v>
+      </c>
+      <c r="M145">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N145">
+        <v>0.01</v>
+      </c>
+      <c r="O145">
+        <v>0.01</v>
+      </c>
+      <c r="P145">
+        <v>0.02</v>
+      </c>
+      <c r="Q145">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R145">
+        <v>0.05</v>
+      </c>
+      <c r="S145">
+        <v>0.01</v>
+      </c>
+      <c r="T145">
+        <v>1.9</v>
+      </c>
+      <c r="U145">
+        <v>1.2960000000000001E-3</v>
+      </c>
+      <c r="V145">
+        <v>0.05</v>
+      </c>
+      <c r="W145">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>67</v>
+      </c>
+      <c r="B146">
+        <v>90.9</v>
+      </c>
+      <c r="C146">
+        <v>4.05</v>
+      </c>
+      <c r="D146">
+        <v>19.25</v>
+      </c>
+      <c r="E146">
+        <v>61.12</v>
+      </c>
+      <c r="F146">
+        <v>11.69</v>
+      </c>
+      <c r="G146">
+        <v>0.12</v>
+      </c>
+      <c r="H146">
+        <v>0.08</v>
+      </c>
+      <c r="I146">
+        <v>0.42</v>
+      </c>
+      <c r="J146">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K146">
+        <v>2.7</v>
+      </c>
+      <c r="L146">
+        <v>0.01</v>
+      </c>
+      <c r="M146">
+        <v>0.309</v>
+      </c>
+      <c r="N146">
+        <v>0.01</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0.02</v>
+      </c>
+      <c r="Q146">
+        <v>6.2E-2</v>
+      </c>
+      <c r="R146">
+        <v>0.03</v>
+      </c>
+      <c r="S146">
+        <v>0.02</v>
+      </c>
+      <c r="T146">
+        <v>3.44</v>
+      </c>
+      <c r="U146">
+        <v>1E-3</v>
+      </c>
+      <c r="V146">
+        <v>0.109</v>
+      </c>
+      <c r="W146">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>68</v>
+      </c>
+      <c r="B147">
+        <v>83.11</v>
+      </c>
+      <c r="C147">
+        <v>5.61</v>
+      </c>
+      <c r="D147">
+        <v>20.59</v>
+      </c>
+      <c r="E147">
+        <v>58.05</v>
+      </c>
+      <c r="F147">
+        <v>12.03</v>
+      </c>
+      <c r="G147">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H147">
+        <v>0.06</v>
+      </c>
+      <c r="I147">
+        <v>0.42</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>2.67</v>
+      </c>
+      <c r="L147">
+        <v>0.01</v>
+      </c>
+      <c r="M147">
+        <v>0.3</v>
+      </c>
+      <c r="N147">
+        <v>0.01</v>
+      </c>
+      <c r="O147">
+        <v>0.01</v>
+      </c>
+      <c r="P147">
+        <v>0.02</v>
+      </c>
+      <c r="Q147">
+        <v>0.06</v>
+      </c>
+      <c r="R147">
+        <v>0.03</v>
+      </c>
+      <c r="S147">
+        <v>0.01</v>
+      </c>
+      <c r="T147">
+        <v>2.56</v>
+      </c>
+      <c r="U147">
+        <v>4.9200000000000003E-4</v>
+      </c>
+      <c r="V147">
+        <v>0.06</v>
+      </c>
+      <c r="W147">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>69</v>
+      </c>
+      <c r="B148">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C148">
+        <v>3.08</v>
+      </c>
+      <c r="D148">
+        <v>22.1</v>
+      </c>
+      <c r="E148">
+        <v>57.24</v>
+      </c>
+      <c r="F148">
+        <v>12.21</v>
+      </c>
+      <c r="G148">
+        <v>0.08</v>
+      </c>
+      <c r="H148">
+        <v>0.03</v>
+      </c>
+      <c r="I148">
+        <v>0.63</v>
+      </c>
+      <c r="J148">
+        <v>1.32</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0.02</v>
+      </c>
+      <c r="M148">
+        <v>0.24</v>
+      </c>
+      <c r="N148">
+        <v>0.01</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0.02</v>
+      </c>
+      <c r="Q148">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R148">
+        <v>0.05</v>
+      </c>
+      <c r="S148">
+        <v>0.05</v>
+      </c>
+      <c r="T148">
+        <v>2.13</v>
+      </c>
+      <c r="U148">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="V148">
+        <v>0.08</v>
+      </c>
+      <c r="W148">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149">
+        <v>35.9</v>
+      </c>
+      <c r="C149">
+        <v>3.42</v>
+      </c>
+      <c r="D149">
+        <v>23.32</v>
+      </c>
+      <c r="E149">
+        <v>54.7</v>
+      </c>
+      <c r="F149">
+        <v>13.4</v>
+      </c>
+      <c r="G149">
+        <v>0.05</v>
+      </c>
+      <c r="H149">
+        <v>0.03</v>
+      </c>
+      <c r="I149">
+        <v>0.43</v>
+      </c>
+      <c r="J149">
+        <v>0.93</v>
+      </c>
+      <c r="K149">
+        <v>2.96</v>
+      </c>
+      <c r="L149">
+        <v>0.01</v>
+      </c>
+      <c r="M149">
+        <v>0.26</v>
+      </c>
+      <c r="N149">
+        <v>0.01</v>
+      </c>
+      <c r="O149">
+        <v>0.01</v>
+      </c>
+      <c r="P149">
+        <v>0.02</v>
+      </c>
+      <c r="Q149">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="R149">
+        <v>0.03</v>
+      </c>
+      <c r="S149">
+        <v>0.02</v>
+      </c>
+      <c r="T149">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U149">
+        <v>1.34E-3</v>
+      </c>
+      <c r="V149">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="W149">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150">
+        <v>114.28</v>
+      </c>
+      <c r="C150">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="D150">
+        <v>19.03</v>
+      </c>
+      <c r="E150">
+        <v>61.23</v>
+      </c>
+      <c r="F150">
+        <v>10.81</v>
+      </c>
+      <c r="G150">
+        <v>0.1</v>
+      </c>
+      <c r="H150">
+        <v>0.08</v>
+      </c>
+      <c r="I150">
+        <v>0.61</v>
+      </c>
+      <c r="J150">
+        <v>0.06</v>
+      </c>
+      <c r="K150">
+        <v>3.26</v>
+      </c>
+      <c r="L150">
+        <v>0.01</v>
+      </c>
+      <c r="M150">
+        <v>0.31</v>
+      </c>
+      <c r="N150">
+        <v>0.01</v>
+      </c>
+      <c r="O150">
+        <v>0.01</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0.06</v>
+      </c>
+      <c r="R150">
+        <v>0.31</v>
+      </c>
+      <c r="S150">
+        <v>0.02</v>
+      </c>
+      <c r="T150">
+        <v>2.92</v>
+      </c>
+      <c r="U150">
+        <v>9.1479999999999999E-3</v>
+      </c>
+      <c r="V150">
+        <v>0.09</v>
+      </c>
+      <c r="W150">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151">
+        <v>78.56</v>
+      </c>
+      <c r="C151">
+        <v>2.33</v>
+      </c>
+      <c r="D151">
+        <v>21.53</v>
+      </c>
+      <c r="E151">
+        <v>59.57</v>
+      </c>
+      <c r="F151">
+        <v>12.04</v>
+      </c>
+      <c r="G151">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H151">
+        <v>0.09</v>
+      </c>
+      <c r="I151">
+        <v>0.62</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>3.24</v>
+      </c>
+      <c r="L151">
+        <v>0.01</v>
+      </c>
+      <c r="M151">
+        <v>0.32</v>
+      </c>
+      <c r="N151">
+        <v>0.01</v>
+      </c>
+      <c r="O151">
+        <v>0.01</v>
+      </c>
+      <c r="P151">
+        <v>0.02</v>
+      </c>
+      <c r="Q151">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R151">
+        <v>0.05</v>
+      </c>
+      <c r="S151">
+        <v>0.02</v>
+      </c>
+      <c r="T151">
+        <v>0.78</v>
+      </c>
+      <c r="U151">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="V151">
+        <v>0.06</v>
+      </c>
+      <c r="W151">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152">
+        <v>134.5</v>
+      </c>
+      <c r="C152">
+        <v>2.84</v>
+      </c>
+      <c r="D152">
+        <v>19.98</v>
+      </c>
+      <c r="E152">
+        <v>61.14</v>
+      </c>
+      <c r="F152">
+        <v>11.35</v>
+      </c>
+      <c r="G152">
+        <v>0.09</v>
+      </c>
+      <c r="H152">
+        <v>0.08</v>
+      </c>
+      <c r="I152">
+        <v>0.67</v>
+      </c>
+      <c r="J152">
+        <v>0.05</v>
+      </c>
+      <c r="K152">
+        <v>3.31</v>
+      </c>
+      <c r="L152">
+        <v>0.01</v>
+      </c>
+      <c r="M152">
+        <v>0.32</v>
+      </c>
+      <c r="N152">
+        <v>0.01</v>
+      </c>
+      <c r="O152">
+        <v>0.01</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R152">
+        <v>0.05</v>
+      </c>
+      <c r="S152">
+        <v>0.02</v>
+      </c>
+      <c r="T152">
+        <v>1.36</v>
+      </c>
+      <c r="U152">
+        <v>1.9499999999999999E-3</v>
+      </c>
+      <c r="V152">
+        <v>0.09</v>
+      </c>
+      <c r="W152">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>26</v>
+      </c>
+      <c r="B153">
+        <v>90.47</v>
+      </c>
+      <c r="C153">
+        <v>3.22</v>
+      </c>
+      <c r="D153">
+        <v>21.97</v>
+      </c>
+      <c r="E153">
+        <v>56.58</v>
+      </c>
+      <c r="F153">
+        <v>13.44</v>
+      </c>
+      <c r="G153">
+        <v>0.06</v>
+      </c>
+      <c r="H153">
+        <v>0.08</v>
+      </c>
+      <c r="I153">
+        <v>0.69</v>
+      </c>
+      <c r="J153">
+        <v>0.03</v>
+      </c>
+      <c r="K153">
+        <v>3.41</v>
+      </c>
+      <c r="L153">
+        <v>0.01</v>
+      </c>
+      <c r="M153">
+        <v>0.35</v>
+      </c>
+      <c r="N153">
+        <v>0.01</v>
+      </c>
+      <c r="O153">
+        <v>0.01</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0.08</v>
+      </c>
+      <c r="R153">
+        <v>0.04</v>
+      </c>
+      <c r="S153">
+        <v>0.02</v>
+      </c>
+      <c r="T153">
+        <v>1.56</v>
+      </c>
+      <c r="U153">
+        <v>3.9800000000000002E-4</v>
+      </c>
+      <c r="V153">
+        <v>0.05</v>
+      </c>
+      <c r="W153">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154">
+        <v>131.25</v>
+      </c>
+      <c r="C154">
+        <v>4.04</v>
+      </c>
+      <c r="D154">
+        <v>18.97</v>
+      </c>
+      <c r="E154">
+        <v>59.07</v>
+      </c>
+      <c r="F154">
+        <v>12.37</v>
+      </c>
+      <c r="G154">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H154">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I154">
+        <v>0.61</v>
+      </c>
+      <c r="J154">
+        <v>0.03</v>
+      </c>
+      <c r="K154">
+        <v>3.24</v>
+      </c>
+      <c r="L154">
+        <v>0.01</v>
+      </c>
+      <c r="M154">
+        <v>0.34</v>
+      </c>
+      <c r="N154">
+        <v>0.01</v>
+      </c>
+      <c r="O154">
+        <v>0.01</v>
+      </c>
+      <c r="P154">
+        <v>0.02</v>
+      </c>
+      <c r="Q154">
+        <v>0.08</v>
+      </c>
+      <c r="R154">
+        <v>0.04</v>
+      </c>
+      <c r="S154">
+        <v>0.02</v>
+      </c>
+      <c r="T154">
+        <v>4.09</v>
+      </c>
+      <c r="U154">
+        <v>8.2600000000000002E-4</v>
+      </c>
+      <c r="V154">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W154">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155">
+        <v>89.24</v>
+      </c>
+      <c r="C155">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="D155">
+        <v>21.69</v>
+      </c>
+      <c r="E155">
+        <v>58.16</v>
+      </c>
+      <c r="F155">
+        <v>13.09</v>
+      </c>
+      <c r="G155">
+        <v>0.06</v>
+      </c>
+      <c r="H155">
+        <v>0.08</v>
+      </c>
+      <c r="I155">
+        <v>0.62</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>3.27</v>
+      </c>
+      <c r="L155">
+        <v>0.01</v>
+      </c>
+      <c r="M155">
+        <v>0.33</v>
+      </c>
+      <c r="N155">
+        <v>0.01</v>
+      </c>
+      <c r="O155">
+        <v>0.01</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0.08</v>
+      </c>
+      <c r="R155">
+        <v>0.04</v>
+      </c>
+      <c r="S155">
+        <v>0.02</v>
+      </c>
+      <c r="T155">
+        <v>2.34</v>
+      </c>
+      <c r="U155">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="V155">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W155">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156">
+        <v>111.02</v>
+      </c>
+      <c r="C156">
+        <v>3.91</v>
+      </c>
+      <c r="D156">
+        <v>21.26</v>
+      </c>
+      <c r="E156">
+        <v>58.01</v>
+      </c>
+      <c r="F156">
+        <v>12.41</v>
+      </c>
+      <c r="G156">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H156">
+        <v>0.08</v>
+      </c>
+      <c r="I156">
+        <v>0.63</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>3.17</v>
+      </c>
+      <c r="L156">
+        <v>0.01</v>
+      </c>
+      <c r="M156">
+        <v>0.33</v>
+      </c>
+      <c r="N156">
+        <v>0.01</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0.18</v>
+      </c>
+      <c r="Q156">
+        <v>0.27</v>
+      </c>
+      <c r="R156">
+        <v>0.18</v>
+      </c>
+      <c r="S156">
+        <v>0.16</v>
+      </c>
+      <c r="T156">
+        <v>1.75</v>
+      </c>
+      <c r="U156">
+        <v>5.62E-4</v>
+      </c>
+      <c r="V156">
+        <v>0.08</v>
+      </c>
+      <c r="W156">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157">
+        <v>67.08</v>
+      </c>
+      <c r="C157">
+        <v>0.16</v>
+      </c>
+      <c r="D157">
+        <v>4.55</v>
+      </c>
+      <c r="E157">
+        <v>15.52</v>
+      </c>
+      <c r="F157">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="G157">
+        <v>0.01</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0.77</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>8.25</v>
+      </c>
+      <c r="L157">
+        <v>0.08</v>
+      </c>
+      <c r="M157">
+        <v>0.65</v>
+      </c>
+      <c r="N157">
+        <v>0.16</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0.18</v>
+      </c>
+      <c r="Q157">
+        <v>0.27</v>
+      </c>
+      <c r="R157">
+        <v>0.18</v>
+      </c>
+      <c r="S157">
+        <v>0.16</v>
+      </c>
+      <c r="T157">
+        <v>0.78</v>
+      </c>
+      <c r="U157">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="V157">
+        <v>0.06</v>
+      </c>
+      <c r="W157">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158">
+        <v>46.52</v>
+      </c>
+      <c r="C158">
+        <v>1.68</v>
+      </c>
+      <c r="D158">
+        <v>18.16</v>
+      </c>
+      <c r="E158">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="F158">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="G158">
+        <v>0.12</v>
+      </c>
+      <c r="H158">
+        <v>0.09</v>
+      </c>
+      <c r="I158">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J158">
+        <v>1.57</v>
+      </c>
+      <c r="K158">
+        <v>2.71</v>
+      </c>
+      <c r="L158">
+        <v>0.01</v>
+      </c>
+      <c r="M158">
+        <v>0.31</v>
+      </c>
+      <c r="N158">
+        <v>0.02</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0.02</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>1.95</v>
+      </c>
+      <c r="U158">
+        <v>4.3262000000000002E-2</v>
+      </c>
+      <c r="V158">
+        <v>0.04</v>
+      </c>
+      <c r="W158">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>32</v>
+      </c>
+      <c r="B159">
+        <v>54.34</v>
+      </c>
+      <c r="C159">
+        <v>3.08</v>
+      </c>
+      <c r="D159">
+        <v>20.09</v>
+      </c>
+      <c r="E159">
+        <v>63.29</v>
+      </c>
+      <c r="F159">
+        <v>9.41</v>
+      </c>
+      <c r="G159">
+        <v>0.05</v>
+      </c>
+      <c r="H159">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I159">
+        <v>0.51</v>
+      </c>
+      <c r="J159">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K159">
+        <v>2.9</v>
+      </c>
+      <c r="L159">
+        <v>0.01</v>
+      </c>
+      <c r="M159">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N159">
+        <v>0.01</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R159">
+        <v>0.03</v>
+      </c>
+      <c r="S159">
+        <v>0.02</v>
+      </c>
+      <c r="T159">
+        <v>1.56</v>
+      </c>
+      <c r="U159">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="V159">
+        <v>0.06</v>
+      </c>
+      <c r="W159">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>33</v>
+      </c>
+      <c r="B160">
+        <v>96.36</v>
+      </c>
+      <c r="C160">
+        <v>1.39</v>
+      </c>
+      <c r="D160">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="E160">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="F160">
+        <v>7.29</v>
+      </c>
+      <c r="G160">
+        <v>0.13</v>
+      </c>
+      <c r="H160">
+        <v>0.1</v>
+      </c>
+      <c r="I160">
+        <v>0.48</v>
+      </c>
+      <c r="J160">
+        <v>0.13</v>
+      </c>
+      <c r="K160">
+        <v>2.63</v>
+      </c>
+      <c r="L160">
+        <v>0.01</v>
+      </c>
+      <c r="M160">
+        <v>0.23</v>
+      </c>
+      <c r="N160">
+        <v>0.01</v>
+      </c>
+      <c r="O160">
+        <v>0.01</v>
+      </c>
+      <c r="P160">
+        <v>0.01</v>
+      </c>
+      <c r="Q160">
+        <v>0.06</v>
+      </c>
+      <c r="R160">
+        <v>0.03</v>
+      </c>
+      <c r="S160">
+        <v>0.01</v>
+      </c>
+      <c r="T160">
+        <v>3.7</v>
+      </c>
+      <c r="U160">
+        <v>6.9020000000000001E-3</v>
+      </c>
+      <c r="V160">
+        <v>0.17</v>
+      </c>
+      <c r="W160">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>34</v>
+      </c>
+      <c r="B161">
+        <v>86.93</v>
+      </c>
+      <c r="C161">
+        <v>0.72</v>
+      </c>
+      <c r="D161">
+        <v>17.62</v>
+      </c>
+      <c r="E161">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="F161">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G161">
+        <v>0.16</v>
+      </c>
+      <c r="H161">
+        <v>0.09</v>
+      </c>
+      <c r="I161">
+        <v>0.51</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0.01</v>
+      </c>
+      <c r="M161">
+        <v>0.26</v>
+      </c>
+      <c r="N161">
+        <v>0.01</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0.06</v>
+      </c>
+      <c r="R161">
+        <v>0.04</v>
+      </c>
+      <c r="S161">
+        <v>0.01</v>
+      </c>
+      <c r="T161">
+        <v>3.9</v>
+      </c>
+      <c r="U161">
+        <v>1.438E-3</v>
+      </c>
+      <c r="V161">
+        <v>0.13</v>
+      </c>
+      <c r="W161">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>35</v>
+      </c>
+      <c r="B162">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="C162">
+        <v>1.65</v>
+      </c>
+      <c r="D162">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E162">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="F162">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G162">
+        <v>0.15</v>
+      </c>
+      <c r="H162">
+        <v>0.1</v>
+      </c>
+      <c r="I162">
+        <v>0.49</v>
+      </c>
+      <c r="J162">
+        <v>0.4</v>
+      </c>
+      <c r="K162">
+        <v>2.73</v>
+      </c>
+      <c r="L162">
+        <v>0.01</v>
+      </c>
+      <c r="M162">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N162">
+        <v>0.01</v>
+      </c>
+      <c r="O162">
+        <v>0.01</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0.06</v>
+      </c>
+      <c r="R162">
+        <v>0.04</v>
+      </c>
+      <c r="S162">
+        <v>0.02</v>
+      </c>
+      <c r="T162">
+        <v>3.7</v>
+      </c>
+      <c r="U162">
+        <v>1.7570000000000001E-3</v>
+      </c>
+      <c r="V162">
+        <v>0.18</v>
+      </c>
+      <c r="W162">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="C163">
+        <v>2.73</v>
+      </c>
+      <c r="D163">
+        <v>22.68</v>
+      </c>
+      <c r="E163">
+        <v>62.28</v>
+      </c>
+      <c r="F163">
+        <v>8.42</v>
+      </c>
+      <c r="G163">
+        <v>0.09</v>
+      </c>
+      <c r="H163">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I163">
+        <v>0.47</v>
+      </c>
+      <c r="J163">
+        <v>0.05</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0.01</v>
+      </c>
+      <c r="M163">
+        <v>0.24</v>
+      </c>
+      <c r="N163">
+        <v>0.01</v>
+      </c>
+      <c r="O163">
+        <v>0.01</v>
+      </c>
+      <c r="P163">
+        <v>0.01</v>
+      </c>
+      <c r="Q163">
+        <v>0.06</v>
+      </c>
+      <c r="R163">
+        <v>0.04</v>
+      </c>
+      <c r="S163">
+        <v>0.01</v>
+      </c>
+      <c r="T163">
+        <v>4.29</v>
+      </c>
+      <c r="U163">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="V163">
+        <v>0.08</v>
+      </c>
+      <c r="W163">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>37</v>
+      </c>
+      <c r="B164">
+        <v>116.32</v>
+      </c>
+      <c r="C164">
+        <v>1.22</v>
+      </c>
+      <c r="D164">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="E164">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="F164">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="G164">
+        <v>0.13</v>
+      </c>
+      <c r="H164">
+        <v>0.09</v>
+      </c>
+      <c r="I164">
+        <v>0.53</v>
+      </c>
+      <c r="J164">
+        <v>0.08</v>
+      </c>
+      <c r="K164">
+        <v>2.7</v>
+      </c>
+      <c r="L164">
+        <v>0.01</v>
+      </c>
+      <c r="M164">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N164">
+        <v>0.01</v>
+      </c>
+      <c r="O164">
+        <v>0.01</v>
+      </c>
+      <c r="P164">
+        <v>0.01</v>
+      </c>
+      <c r="Q164">
+        <v>0.05</v>
+      </c>
+      <c r="R164">
+        <v>0.04</v>
+      </c>
+      <c r="S164">
+        <v>0.02</v>
+      </c>
+      <c r="T164">
+        <v>2.92</v>
+      </c>
+      <c r="U164">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="V164">
+        <v>0.08</v>
+      </c>
+      <c r="W164">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>38</v>
+      </c>
+      <c r="B165">
+        <v>91.28</v>
+      </c>
+      <c r="C165">
+        <v>1.97</v>
+      </c>
+      <c r="D165">
+        <v>20.63</v>
+      </c>
+      <c r="E165">
+        <v>58.16</v>
+      </c>
+      <c r="F165">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G165">
+        <v>0.1</v>
+      </c>
+      <c r="H165">
+        <v>0.08</v>
+      </c>
+      <c r="I165">
+        <v>0.51</v>
+      </c>
+      <c r="J165">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K165">
+        <v>2.8</v>
+      </c>
+      <c r="L165">
+        <v>0.01</v>
+      </c>
+      <c r="M165">
+        <v>0.31</v>
+      </c>
+      <c r="N165">
+        <v>0.01</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R165">
+        <v>0.04</v>
+      </c>
+      <c r="S165">
+        <v>0.01</v>
+      </c>
+      <c r="T165">
+        <v>1.36</v>
+      </c>
+      <c r="U165">
+        <v>3.3799999999999998E-4</v>
+      </c>
+      <c r="V165">
+        <v>0.04</v>
+      </c>
+      <c r="W165">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>39</v>
+      </c>
+      <c r="B166">
+        <v>73.13</v>
+      </c>
+      <c r="C166">
+        <v>3.01</v>
+      </c>
+      <c r="D166">
+        <v>19</v>
+      </c>
+      <c r="E166">
+        <v>61.79</v>
+      </c>
+      <c r="F166">
+        <v>12.01</v>
+      </c>
+      <c r="G166">
+        <v>0.15</v>
+      </c>
+      <c r="H166">
+        <v>0.11</v>
+      </c>
+      <c r="I166">
+        <v>0.48</v>
+      </c>
+      <c r="J166">
+        <v>0.02</v>
+      </c>
+      <c r="K166">
+        <v>2.86</v>
+      </c>
+      <c r="L166">
+        <v>0.01</v>
+      </c>
+      <c r="M166">
+        <v>0.35</v>
+      </c>
+      <c r="N166">
+        <v>0.01</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0.03</v>
+      </c>
+      <c r="Q166">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R166">
+        <v>0.04</v>
+      </c>
+      <c r="S166">
+        <v>0.02</v>
+      </c>
+      <c r="T166">
+        <v>3.51</v>
+      </c>
+      <c r="U166">
+        <v>8.1599999999999999E-4</v>
+      </c>
+      <c r="V166">
+        <v>0.13</v>
+      </c>
+      <c r="W166">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>40</v>
+      </c>
+      <c r="B167">
+        <v>81.87</v>
+      </c>
+      <c r="C167">
+        <v>2.61</v>
+      </c>
+      <c r="D167">
+        <v>22.33</v>
+      </c>
+      <c r="E167">
+        <v>58.68</v>
+      </c>
+      <c r="F167">
+        <v>12.28</v>
+      </c>
+      <c r="G167">
+        <v>0.09</v>
+      </c>
+      <c r="H167">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I167">
+        <v>0.47</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>2.93</v>
+      </c>
+      <c r="L167">
+        <v>0.01</v>
+      </c>
+      <c r="M167">
+        <v>0.35</v>
+      </c>
+      <c r="N167">
+        <v>0.01</v>
+      </c>
+      <c r="O167">
+        <v>0.01</v>
+      </c>
+      <c r="P167">
+        <v>0.02</v>
+      </c>
+      <c r="Q167">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R167">
+        <v>0.03</v>
+      </c>
+      <c r="S167">
+        <v>0.01</v>
+      </c>
+      <c r="T167">
+        <v>2.34</v>
+      </c>
+      <c r="U167">
+        <v>3.79E-4</v>
+      </c>
+      <c r="V167">
+        <v>0.06</v>
+      </c>
+      <c r="W167">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>41</v>
+      </c>
+      <c r="B168">
+        <v>76.14</v>
+      </c>
+      <c r="C168">
+        <v>2.21</v>
+      </c>
+      <c r="D168">
+        <v>19.48</v>
+      </c>
+      <c r="E168">
+        <v>63.38</v>
+      </c>
+      <c r="F168">
+        <v>11.08</v>
+      </c>
+      <c r="G168">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H168">
+        <v>0.11</v>
+      </c>
+      <c r="I168">
+        <v>0.45</v>
+      </c>
+      <c r="J168">
+        <v>0.1</v>
+      </c>
+      <c r="K168">
+        <v>2.58</v>
+      </c>
+      <c r="L168">
+        <v>0.01</v>
+      </c>
+      <c r="M168">
+        <v>0.21</v>
+      </c>
+      <c r="N168">
+        <v>0.01</v>
+      </c>
+      <c r="O168">
+        <v>0.01</v>
+      </c>
+      <c r="P168">
+        <v>0.02</v>
+      </c>
+      <c r="Q168">
+        <v>0.06</v>
+      </c>
+      <c r="R168">
+        <v>0.03</v>
+      </c>
+      <c r="S168">
+        <v>0.02</v>
+      </c>
+      <c r="T168">
+        <v>3.9</v>
+      </c>
+      <c r="U168">
+        <v>6.9499999999999998E-4</v>
+      </c>
+      <c r="V168">
+        <v>0.1</v>
+      </c>
+      <c r="W168">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169">
+        <v>68.81</v>
+      </c>
+      <c r="C169">
+        <v>3.7</v>
+      </c>
+      <c r="D169">
+        <v>18.48</v>
+      </c>
+      <c r="E169">
+        <v>61.05</v>
+      </c>
+      <c r="F169">
+        <v>12.61</v>
+      </c>
+      <c r="G169">
+        <v>0.2</v>
+      </c>
+      <c r="H169">
+        <v>0.11</v>
+      </c>
+      <c r="I169">
+        <v>0.5</v>
+      </c>
+      <c r="J169">
+        <v>0.18</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0.02</v>
+      </c>
+      <c r="M169">
+        <v>0.32</v>
+      </c>
+      <c r="N169">
+        <v>0.02</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0.06</v>
+      </c>
+      <c r="R169">
+        <v>0.04</v>
+      </c>
+      <c r="S169">
+        <v>0.03</v>
+      </c>
+      <c r="T169">
+        <v>5.45</v>
+      </c>
+      <c r="U169">
+        <v>1.64E-3</v>
+      </c>
+      <c r="V169">
+        <v>0.15</v>
+      </c>
+      <c r="W169">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>43</v>
+      </c>
+      <c r="B170">
+        <v>70.7</v>
+      </c>
+      <c r="C170">
+        <v>3.14</v>
+      </c>
+      <c r="D170">
+        <v>18.18</v>
+      </c>
+      <c r="E170">
+        <v>62.09</v>
+      </c>
+      <c r="F170">
+        <v>12.15</v>
+      </c>
+      <c r="G170">
+        <v>0.19</v>
+      </c>
+      <c r="H170">
+        <v>0.1</v>
+      </c>
+      <c r="I170">
+        <v>0.52</v>
+      </c>
+      <c r="J170">
+        <v>0.25</v>
+      </c>
+      <c r="K170">
+        <v>2.85</v>
+      </c>
+      <c r="L170">
+        <v>0.02</v>
+      </c>
+      <c r="M170">
+        <v>0.32</v>
+      </c>
+      <c r="N170">
+        <v>0.01</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0.03</v>
+      </c>
+      <c r="Q170">
+        <v>0.06</v>
+      </c>
+      <c r="R170">
+        <v>0.04</v>
+      </c>
+      <c r="S170">
+        <v>0.04</v>
+      </c>
+      <c r="T170">
+        <v>5.26</v>
+      </c>
+      <c r="U170">
+        <v>1.145E-3</v>
+      </c>
+      <c r="V170">
+        <v>0.11</v>
+      </c>
+      <c r="W170">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>44</v>
+      </c>
+      <c r="B171">
+        <v>107.21</v>
+      </c>
+      <c r="C171">
+        <v>3.95</v>
+      </c>
+      <c r="D171">
+        <v>21.79</v>
+      </c>
+      <c r="E171">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="F171">
+        <v>59.03</v>
+      </c>
+      <c r="G171">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H171">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I171">
+        <v>0.44</v>
+      </c>
+      <c r="J171">
+        <v>0.01</v>
+      </c>
+      <c r="K171">
+        <v>2.68</v>
+      </c>
+      <c r="L171">
+        <v>0.01</v>
+      </c>
+      <c r="M171">
+        <v>0.3</v>
+      </c>
+      <c r="N171">
+        <v>0.01</v>
+      </c>
+      <c r="O171">
+        <v>0.01</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0.05</v>
+      </c>
+      <c r="R171">
+        <v>0.04</v>
+      </c>
+      <c r="S171">
+        <v>0.01</v>
+      </c>
+      <c r="T171">
+        <v>1.56</v>
+      </c>
+      <c r="U171">
+        <v>5.9599999999999996E-4</v>
+      </c>
+      <c r="V171">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W171">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172">
+        <v>92.63</v>
+      </c>
+      <c r="C172">
+        <v>3.36</v>
+      </c>
+      <c r="D172">
+        <v>23.16</v>
+      </c>
+      <c r="E172">
+        <v>57.35</v>
+      </c>
+      <c r="F172">
+        <v>12.29</v>
+      </c>
+      <c r="G172">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H172">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I172">
+        <v>0.46</v>
+      </c>
+      <c r="J172">
+        <v>0.03</v>
+      </c>
+      <c r="K172">
+        <v>2.79</v>
+      </c>
+      <c r="L172">
+        <v>0.01</v>
+      </c>
+      <c r="M172">
+        <v>0.27</v>
+      </c>
+      <c r="N172">
+        <v>0.01</v>
+      </c>
+      <c r="O172">
+        <v>0.01</v>
+      </c>
+      <c r="P172">
+        <v>0.02</v>
+      </c>
+      <c r="Q172">
+        <v>0.06</v>
+      </c>
+      <c r="R172">
+        <v>0.03</v>
+      </c>
+      <c r="S172">
+        <v>0.01</v>
+      </c>
+      <c r="T172">
+        <v>2.34</v>
+      </c>
+      <c r="U172">
+        <v>1.16E-4</v>
+      </c>
+      <c r="V172">
+        <v>0.04</v>
+      </c>
+      <c r="W172">
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>60</v>
+      </c>
+      <c r="B173">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C173">
+        <v>1.05</v>
+      </c>
+      <c r="D173">
+        <v>20.49</v>
+      </c>
+      <c r="E173">
+        <v>66.33</v>
+      </c>
+      <c r="F173">
+        <v>8.35</v>
+      </c>
+      <c r="G173">
+        <v>0.11</v>
+      </c>
+      <c r="H173">
+        <v>0.09</v>
+      </c>
+      <c r="I173">
+        <v>0.47</v>
+      </c>
+      <c r="J173">
+        <v>0.06</v>
+      </c>
+      <c r="K173">
+        <v>2.67</v>
+      </c>
+      <c r="L173">
+        <v>0.01</v>
+      </c>
+      <c r="M173">
+        <v>0.25</v>
+      </c>
+      <c r="N173">
+        <v>0.01</v>
+      </c>
+      <c r="O173">
+        <v>0.01</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0.06</v>
+      </c>
+      <c r="R173">
+        <v>0.03</v>
+      </c>
+      <c r="S173">
+        <v>0.01</v>
+      </c>
+      <c r="T173">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U173">
+        <v>4.08E-4</v>
+      </c>
+      <c r="V173">
+        <v>0.04</v>
+      </c>
+      <c r="W173">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>47</v>
+      </c>
+      <c r="B174">
+        <v>90.75</v>
+      </c>
+      <c r="C174">
+        <v>3.18</v>
+      </c>
+      <c r="D174">
+        <v>22.36</v>
+      </c>
+      <c r="E174">
+        <v>58.8</v>
+      </c>
+      <c r="F174">
+        <v>11.82</v>
+      </c>
+      <c r="G174">
+        <v>0.08</v>
+      </c>
+      <c r="H174">
+        <v>0.06</v>
+      </c>
+      <c r="I174">
+        <v>0.44</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>2.79</v>
+      </c>
+      <c r="L174">
+        <v>0.01</v>
+      </c>
+      <c r="M174">
+        <v>0.32</v>
+      </c>
+      <c r="N174">
+        <v>0.01</v>
+      </c>
+      <c r="O174">
+        <v>0.01</v>
+      </c>
+      <c r="P174">
+        <v>0.02</v>
+      </c>
+      <c r="Q174">
+        <v>0.06</v>
+      </c>
+      <c r="R174">
+        <v>0.03</v>
+      </c>
+      <c r="S174">
+        <v>0.02</v>
+      </c>
+      <c r="T174">
+        <v>2.73</v>
+      </c>
+      <c r="U174">
+        <v>1.55E-4</v>
+      </c>
+      <c r="V174">
+        <v>0.06</v>
+      </c>
+      <c r="W174">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>48</v>
+      </c>
+      <c r="B175">
+        <v>24.31</v>
+      </c>
+      <c r="C175">
+        <v>4.51</v>
+      </c>
+      <c r="D175">
+        <v>22.58</v>
+      </c>
+      <c r="E175">
+        <v>55.04</v>
+      </c>
+      <c r="F175">
+        <v>12.57</v>
+      </c>
+      <c r="G175">
+        <v>0.11</v>
+      </c>
+      <c r="H175">
+        <v>0.03</v>
+      </c>
+      <c r="I175">
+        <v>0.46</v>
+      </c>
+      <c r="J175">
+        <v>1.23</v>
+      </c>
+      <c r="K175">
+        <v>3.02</v>
+      </c>
+      <c r="L175">
+        <v>0.02</v>
+      </c>
+      <c r="M175">
+        <v>0.27</v>
+      </c>
+      <c r="N175">
+        <v>0.01</v>
+      </c>
+      <c r="O175">
+        <v>0.01</v>
+      </c>
+      <c r="P175">
+        <v>0.02</v>
+      </c>
+      <c r="Q175">
+        <v>0.08</v>
+      </c>
+      <c r="R175">
+        <v>0.03</v>
+      </c>
+      <c r="S175">
+        <v>0.03</v>
+      </c>
+      <c r="T175">
+        <v>2.14</v>
+      </c>
+      <c r="U175">
+        <v>3.398E-3</v>
+      </c>
+      <c r="V175">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W175">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>49</v>
+      </c>
+      <c r="B176">
+        <v>11.48</v>
+      </c>
+      <c r="C176">
+        <v>5.26</v>
+      </c>
+      <c r="D176">
+        <v>23.61</v>
+      </c>
+      <c r="E176">
+        <v>51.74</v>
+      </c>
+      <c r="F176">
+        <v>13.91</v>
+      </c>
+      <c r="G176">
+        <v>0.08</v>
+      </c>
+      <c r="H176">
+        <v>0.02</v>
+      </c>
+      <c r="I176">
+        <v>0.45</v>
+      </c>
+      <c r="J176">
+        <v>1.38</v>
+      </c>
+      <c r="K176">
+        <v>3.03</v>
+      </c>
+      <c r="L176">
+        <v>0.02</v>
+      </c>
+      <c r="M176">
+        <v>0.3</v>
+      </c>
+      <c r="N176">
+        <v>0.01</v>
+      </c>
+      <c r="O176">
+        <v>0.01</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0.09</v>
+      </c>
+      <c r="R176">
+        <v>0.03</v>
+      </c>
+      <c r="S176">
+        <v>0.04</v>
+      </c>
+      <c r="T176">
+        <v>3.7</v>
+      </c>
+      <c r="U176">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="V176">
+        <v>0.04</v>
+      </c>
+      <c r="W176">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>50</v>
+      </c>
+      <c r="B177">
+        <v>55.42</v>
+      </c>
+      <c r="C177">
+        <v>2.99</v>
+      </c>
+      <c r="D177">
+        <v>23.75</v>
+      </c>
+      <c r="E177">
+        <v>55.5</v>
+      </c>
+      <c r="F177">
+        <v>13</v>
+      </c>
+      <c r="G177">
+        <v>0.05</v>
+      </c>
+      <c r="H177">
+        <v>0.03</v>
+      </c>
+      <c r="I177">
+        <v>0.46</v>
+      </c>
+      <c r="J177">
+        <v>0.59</v>
+      </c>
+      <c r="K177">
+        <v>3.16</v>
+      </c>
+      <c r="L177">
+        <v>0.01</v>
+      </c>
+      <c r="M177">
+        <v>0.27</v>
+      </c>
+      <c r="N177">
+        <v>0.01</v>
+      </c>
+      <c r="O177">
+        <v>0.01</v>
+      </c>
+      <c r="P177">
+        <v>0.02</v>
+      </c>
+      <c r="Q177">
+        <v>0.08</v>
+      </c>
+      <c r="R177">
+        <v>0.03</v>
+      </c>
+      <c r="S177">
+        <v>0.03</v>
+      </c>
+      <c r="T177">
+        <v>1.56</v>
+      </c>
+      <c r="U177">
+        <v>7.0100000000000002E-4</v>
+      </c>
+      <c r="V177">
+        <v>0.06</v>
+      </c>
+      <c r="W177">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>51</v>
+      </c>
+      <c r="B178">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="C178">
+        <v>3.82</v>
+      </c>
+      <c r="D178">
+        <v>21.1</v>
+      </c>
+      <c r="E178">
+        <v>58.16</v>
+      </c>
+      <c r="F178">
+        <v>11.51</v>
+      </c>
+      <c r="G178">
+        <v>0.1</v>
+      </c>
+      <c r="H178">
+        <v>0.02</v>
+      </c>
+      <c r="I178">
+        <v>0.6</v>
+      </c>
+      <c r="J178">
+        <v>1.37</v>
+      </c>
+      <c r="K178">
+        <v>2.82</v>
+      </c>
+      <c r="L178">
+        <v>0.02</v>
+      </c>
+      <c r="M178">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N178">
+        <v>0.01</v>
+      </c>
+      <c r="O178">
+        <v>0.01</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0.02</v>
+      </c>
+      <c r="R178">
+        <v>0.04</v>
+      </c>
+      <c r="S178">
+        <v>0.03</v>
+      </c>
+      <c r="T178">
+        <v>2.92</v>
+      </c>
+      <c r="U178">
+        <v>3.7580000000000001E-3</v>
+      </c>
+      <c r="V178">
+        <v>0.11</v>
+      </c>
+      <c r="W178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>52</v>
+      </c>
+      <c r="B179">
+        <v>46.49</v>
+      </c>
+      <c r="C179">
+        <v>4.41</v>
+      </c>
+      <c r="D179">
+        <v>24.67</v>
+      </c>
+      <c r="E179">
+        <v>53.92</v>
+      </c>
+      <c r="F179">
+        <v>12.71</v>
+      </c>
+      <c r="G179">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H179">
+        <v>0.03</v>
+      </c>
+      <c r="I179">
+        <v>0.43</v>
+      </c>
+      <c r="J179">
+        <v>0.25</v>
+      </c>
+      <c r="K179">
+        <v>0.34</v>
+      </c>
+      <c r="L179">
+        <v>0.01</v>
+      </c>
+      <c r="M179">
+        <v>0.25</v>
+      </c>
+      <c r="N179">
+        <v>0.01</v>
+      </c>
+      <c r="O179">
+        <v>0.01</v>
+      </c>
+      <c r="P179">
+        <v>0.02</v>
+      </c>
+      <c r="Q179">
+        <v>0.08</v>
+      </c>
+      <c r="R179">
+        <v>0.03</v>
+      </c>
+      <c r="S179">
+        <v>0.02</v>
+      </c>
+      <c r="T179">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="U179">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="V179">
+        <v>0.06</v>
+      </c>
+      <c r="W179">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>53</v>
+      </c>
+      <c r="B180">
+        <v>22.56</v>
+      </c>
+      <c r="C180">
+        <v>4.49</v>
+      </c>
+      <c r="D180">
+        <v>22.88</v>
+      </c>
+      <c r="E180">
+        <v>55.26</v>
+      </c>
+      <c r="F180">
+        <v>12.52</v>
+      </c>
+      <c r="G180">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H180">
+        <v>0.03</v>
+      </c>
+      <c r="I180">
+        <v>0.43</v>
+      </c>
+      <c r="J180">
+        <v>0.9</v>
+      </c>
+      <c r="K180">
+        <v>2.96</v>
+      </c>
+      <c r="L180">
+        <v>0.02</v>
+      </c>
+      <c r="M180">
+        <v>0.26</v>
+      </c>
+      <c r="N180">
+        <v>0.01</v>
+      </c>
+      <c r="O180">
+        <v>0.01</v>
+      </c>
+      <c r="P180">
+        <v>0.02</v>
+      </c>
+      <c r="Q180">
+        <v>0.08</v>
+      </c>
+      <c r="R180">
+        <v>0.03</v>
+      </c>
+      <c r="S180">
+        <v>0.02</v>
+      </c>
+      <c r="T180">
+        <v>1.75</v>
+      </c>
+      <c r="U180">
+        <v>2.6749999999999999E-3</v>
+      </c>
+      <c r="V180">
+        <v>0.06</v>
+      </c>
+      <c r="W180">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>54</v>
+      </c>
+      <c r="B181">
+        <v>19.89</v>
+      </c>
+      <c r="C181">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D181">
+        <v>23.56</v>
+      </c>
+      <c r="E181">
+        <v>55.37</v>
+      </c>
+      <c r="F181">
+        <v>12.35</v>
+      </c>
+      <c r="G181">
+        <v>0.06</v>
+      </c>
+      <c r="H181">
+        <v>0.03</v>
+      </c>
+      <c r="I181">
+        <v>0.42</v>
+      </c>
+      <c r="J181">
+        <v>0.65</v>
+      </c>
+      <c r="K181">
+        <v>2.76</v>
+      </c>
+      <c r="L181">
+        <v>0.01</v>
+      </c>
+      <c r="M181">
+        <v>0.24</v>
+      </c>
+      <c r="N181">
+        <v>0.01</v>
+      </c>
+      <c r="O181">
+        <v>0.01</v>
+      </c>
+      <c r="P181">
+        <v>0.02</v>
+      </c>
+      <c r="Q181">
+        <v>0.08</v>
+      </c>
+      <c r="R181">
+        <v>0.02</v>
+      </c>
+      <c r="S181">
+        <v>0.02</v>
+      </c>
+      <c r="T181">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U181">
+        <v>1.6379999999999999E-3</v>
+      </c>
+      <c r="V181">
+        <v>0.05</v>
+      </c>
+      <c r="W181">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>55</v>
+      </c>
+      <c r="B182">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C182">
+        <v>5.12</v>
+      </c>
+      <c r="D182">
+        <v>21.58</v>
+      </c>
+      <c r="E182">
+        <v>55.02</v>
+      </c>
+      <c r="F182">
+        <v>12.25</v>
+      </c>
+      <c r="G182">
+        <v>0.11</v>
+      </c>
+      <c r="H182">
+        <v>0.02</v>
+      </c>
+      <c r="I182">
+        <v>0.59</v>
+      </c>
+      <c r="J182">
+        <v>1.78</v>
+      </c>
+      <c r="K182">
+        <v>3.01</v>
+      </c>
+      <c r="L182">
+        <v>0.02</v>
+      </c>
+      <c r="M182">
+        <v>0.26</v>
+      </c>
+      <c r="N182">
+        <v>0.01</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R182">
+        <v>0.03</v>
+      </c>
+      <c r="S182">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T182">
+        <v>2.34</v>
+      </c>
+      <c r="U182">
+        <v>1.1191E-2</v>
+      </c>
+      <c r="V182">
+        <v>0.11</v>
+      </c>
+      <c r="W182">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>56</v>
+      </c>
+      <c r="B183">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C183">
+        <v>6.85</v>
+      </c>
+      <c r="D183">
+        <v>23.58</v>
+      </c>
+      <c r="E183">
+        <v>51.82</v>
+      </c>
+      <c r="F183">
+        <v>13.53</v>
+      </c>
+      <c r="G183">
+        <v>0.02</v>
+      </c>
+      <c r="H183">
+        <v>0.03</v>
+      </c>
+      <c r="I183">
+        <v>0.39</v>
+      </c>
+      <c r="J183">
+        <v>0.33</v>
+      </c>
+      <c r="K183">
+        <v>2.99</v>
+      </c>
+      <c r="L183">
+        <v>0.01</v>
+      </c>
+      <c r="M183">
+        <v>0.32</v>
+      </c>
+      <c r="N183">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O183">
+        <v>0.01</v>
+      </c>
+      <c r="P183">
+        <v>0.02</v>
+      </c>
+      <c r="Q183">
+        <v>0.09</v>
+      </c>
+      <c r="R183">
+        <v>0.03</v>
+      </c>
+      <c r="S183">
+        <v>0.02</v>
+      </c>
+      <c r="T183">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U183">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V183">
+        <v>0.08</v>
+      </c>
+      <c r="W183">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>57</v>
+      </c>
+      <c r="B184">
+        <v>102.13</v>
+      </c>
+      <c r="C184">
+        <v>3.32</v>
+      </c>
+      <c r="D184">
+        <v>21.78</v>
+      </c>
+      <c r="E184">
+        <v>56.43</v>
+      </c>
+      <c r="F184">
+        <v>12.66</v>
+      </c>
+      <c r="G184">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H184">
+        <v>0.08</v>
+      </c>
+      <c r="I184">
+        <v>0.62</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>3.4</v>
+      </c>
+      <c r="L184">
+        <v>0.01</v>
+      </c>
+      <c r="M184">
+        <v>0.36</v>
+      </c>
+      <c r="N184">
+        <v>0.01</v>
+      </c>
+      <c r="O184">
+        <v>0.01</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0.08</v>
+      </c>
+      <c r="R184">
+        <v>0.04</v>
+      </c>
+      <c r="S184">
+        <v>0.02</v>
+      </c>
+      <c r="T184">
+        <v>0.19</v>
+      </c>
+      <c r="U184">
+        <v>1.2019999999999999E-3</v>
+      </c>
+      <c r="V184">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="W184">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>58</v>
+      </c>
+      <c r="B185">
+        <v>93.17</v>
+      </c>
+      <c r="C185">
+        <v>3.09</v>
+      </c>
+      <c r="D185">
+        <v>18.95</v>
+      </c>
+      <c r="E185">
+        <v>60.17</v>
+      </c>
+      <c r="F185">
+        <v>12.71</v>
+      </c>
+      <c r="G185">
+        <v>0.12</v>
+      </c>
+      <c r="H185">
+        <v>0.08</v>
+      </c>
+      <c r="I185">
+        <v>0.71</v>
+      </c>
+      <c r="J185">
+        <v>0.12</v>
+      </c>
+      <c r="K185">
+        <v>3.49</v>
+      </c>
+      <c r="L185">
+        <v>0.01</v>
+      </c>
+      <c r="M185">
+        <v>0.36</v>
+      </c>
+      <c r="N185">
+        <v>0.01</v>
+      </c>
+      <c r="O185">
+        <v>0.01</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0.08</v>
+      </c>
+      <c r="R185">
+        <v>0.05</v>
+      </c>
+      <c r="S185">
+        <v>0.03</v>
+      </c>
+      <c r="T185">
+        <v>2.14</v>
+      </c>
+      <c r="U185">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="V185">
+        <v>0.09</v>
+      </c>
+      <c r="W185">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186">
+        <v>71.510000000000005</v>
+      </c>
+      <c r="C186">
+        <v>2.85</v>
+      </c>
+      <c r="D186">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="E186">
+        <v>65.63</v>
+      </c>
+      <c r="F186">
+        <v>8.35</v>
+      </c>
+      <c r="G186">
+        <v>0.11</v>
+      </c>
+      <c r="H186">
+        <v>0.1</v>
+      </c>
+      <c r="I186">
+        <v>0.47</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0.01</v>
+      </c>
+      <c r="M186">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N186">
+        <v>0.01</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0.06</v>
+      </c>
+      <c r="R186">
+        <v>0.03</v>
+      </c>
+      <c r="S186">
+        <v>0.01</v>
+      </c>
+      <c r="T186">
+        <v>0.19</v>
+      </c>
+      <c r="U186">
+        <v>9.5600000000000004E-4</v>
+      </c>
+      <c r="V186">
+        <v>0.05</v>
+      </c>
+      <c r="W186">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>46</v>
+      </c>
+      <c r="B187">
+        <v>19.34</v>
+      </c>
+      <c r="C187">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D187">
+        <v>19.5</v>
+      </c>
+      <c r="E187">
+        <v>62.82</v>
+      </c>
+      <c r="F187">
+        <v>11.45</v>
+      </c>
+      <c r="G187">
+        <v>0.16</v>
+      </c>
+      <c r="H187">
+        <v>0.1</v>
+      </c>
+      <c r="I187">
+        <v>0.49</v>
+      </c>
+      <c r="J187">
+        <v>0.06</v>
+      </c>
+      <c r="K187">
+        <v>2.73</v>
+      </c>
+      <c r="L187">
+        <v>0.01</v>
+      </c>
+      <c r="M187">
+        <v>0.27</v>
+      </c>
+      <c r="N187">
+        <v>0.01</v>
+      </c>
+      <c r="O187">
+        <v>0.01</v>
+      </c>
+      <c r="P187">
+        <v>0.02</v>
+      </c>
+      <c r="Q187">
+        <v>0.06</v>
+      </c>
+      <c r="R187">
+        <v>0.03</v>
+      </c>
+      <c r="S187">
+        <v>0.01</v>
+      </c>
+      <c r="T187">
+        <v>2.73</v>
+      </c>
+      <c r="U187">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="V187">
+        <v>0.12</v>
+      </c>
+      <c r="W187">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>61</v>
+      </c>
+      <c r="B188">
+        <v>87.17</v>
+      </c>
+      <c r="C188">
+        <v>2.75</v>
+      </c>
+      <c r="D188">
+        <v>22.43</v>
+      </c>
+      <c r="E188">
+        <v>58.48</v>
+      </c>
+      <c r="F188">
+        <v>12.35</v>
+      </c>
+      <c r="G188">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H188">
+        <v>0.08</v>
+      </c>
+      <c r="I188">
+        <v>0.42</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>2.86</v>
+      </c>
+      <c r="L188">
+        <v>0.01</v>
+      </c>
+      <c r="M188">
+        <v>0.31</v>
+      </c>
+      <c r="N188">
+        <v>0.01</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0.02</v>
+      </c>
+      <c r="Q188">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R188">
+        <v>0.04</v>
+      </c>
+      <c r="S188">
+        <v>0.01</v>
+      </c>
+      <c r="T188">
+        <v>0.19</v>
+      </c>
+      <c r="U188">
+        <v>2.5300000000000002E-4</v>
+      </c>
+      <c r="V188">
+        <v>0.06</v>
+      </c>
+      <c r="W188">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>62</v>
+      </c>
+      <c r="B189">
+        <v>55.41</v>
+      </c>
+      <c r="C189">
+        <v>4.13</v>
+      </c>
+      <c r="D189">
+        <v>24.94</v>
+      </c>
+      <c r="E189">
+        <v>52.63</v>
+      </c>
+      <c r="F189">
+        <v>13.67</v>
+      </c>
+      <c r="G189">
+        <v>0.03</v>
+      </c>
+      <c r="H189">
+        <v>0.02</v>
+      </c>
+      <c r="I189">
+        <v>0.42</v>
+      </c>
+      <c r="J189">
+        <v>1.34</v>
+      </c>
+      <c r="K189">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="L189">
+        <v>0.01</v>
+      </c>
+      <c r="M189">
+        <v>0.25</v>
+      </c>
+      <c r="N189">
+        <v>0.01</v>
+      </c>
+      <c r="O189">
+        <v>0.01</v>
+      </c>
+      <c r="P189">
+        <v>0.02</v>
+      </c>
+      <c r="Q189">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="R189">
+        <v>0.02</v>
+      </c>
+      <c r="S189">
+        <v>0.03</v>
+      </c>
+      <c r="T189">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U189">
+        <v>2.2420000000000001E-3</v>
+      </c>
+      <c r="V189">
+        <v>0.05</v>
+      </c>
+      <c r="W189">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>63</v>
+      </c>
+      <c r="B190">
+        <v>82.63</v>
+      </c>
+      <c r="C190">
+        <v>4.3</v>
+      </c>
+      <c r="D190">
+        <v>20.52</v>
+      </c>
+      <c r="E190">
+        <v>59.62</v>
+      </c>
+      <c r="F190">
+        <v>11.26</v>
+      </c>
+      <c r="G190">
+        <v>0.08</v>
+      </c>
+      <c r="H190">
+        <v>0.06</v>
+      </c>
+      <c r="I190">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J190">
+        <v>0.04</v>
+      </c>
+      <c r="K190">
+        <v>3.09</v>
+      </c>
+      <c r="L190">
+        <v>0.01</v>
+      </c>
+      <c r="M190">
+        <v>0.31</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0.01</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R190">
+        <v>0.04</v>
+      </c>
+      <c r="S190">
+        <v>0.01</v>
+      </c>
+      <c r="T190">
+        <v>2.4</v>
+      </c>
+      <c r="U190">
+        <v>1.934E-3</v>
+      </c>
+      <c r="V190">
+        <v>0.08</v>
+      </c>
+      <c r="W190">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>64</v>
+      </c>
+      <c r="B191">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="C191">
+        <v>5.71</v>
+      </c>
+      <c r="D191">
+        <v>21.84</v>
+      </c>
+      <c r="E191">
+        <v>54.42</v>
+      </c>
+      <c r="F191">
+        <v>13.41</v>
+      </c>
+      <c r="G191">
+        <v>0.05</v>
+      </c>
+      <c r="H191">
+        <v>0.05</v>
+      </c>
+      <c r="I191">
+        <v>0.64</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>3.45</v>
+      </c>
+      <c r="L191">
+        <v>0.01</v>
+      </c>
+      <c r="M191">
+        <v>0.37</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0.01</v>
+      </c>
+      <c r="P191">
+        <v>0.02</v>
+      </c>
+      <c r="Q191">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="R191">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="S191">
+        <v>0.02</v>
+      </c>
+      <c r="T191">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U191">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="V191">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="W191">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>65</v>
+      </c>
+      <c r="B192">
+        <v>87.52</v>
+      </c>
+      <c r="C192">
+        <v>4.32</v>
+      </c>
+      <c r="D192">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E192">
+        <v>67.260000000000005</v>
+      </c>
+      <c r="F192">
+        <v>8.1449999999999996</v>
+      </c>
+      <c r="G192">
+        <v>0.09</v>
+      </c>
+      <c r="H192">
+        <v>6.2E-2</v>
+      </c>
+      <c r="I192">
+        <v>0.44</v>
+      </c>
+      <c r="J192">
+        <v>0.35</v>
+      </c>
+      <c r="K192">
+        <v>2.74</v>
+      </c>
+      <c r="L192">
+        <v>0.01</v>
+      </c>
+      <c r="M192">
+        <v>0.27</v>
+      </c>
+      <c r="N192">
+        <v>0.01</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0.02</v>
+      </c>
+      <c r="Q192">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="R192">
+        <v>0.05</v>
+      </c>
+      <c r="S192">
+        <v>0.02</v>
+      </c>
+      <c r="T192">
+        <v>3.2</v>
+      </c>
+      <c r="U192">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="V192">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="W192">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>66</v>
+      </c>
+      <c r="B193">
+        <v>58.32</v>
+      </c>
+      <c r="C193">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D193">
+        <v>20.3</v>
+      </c>
+      <c r="E193">
+        <v>62.16</v>
+      </c>
+      <c r="F193">
+        <v>9.19</v>
+      </c>
+      <c r="G193">
+        <v>0.08</v>
+      </c>
+      <c r="H193">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I193">
+        <v>0.43</v>
+      </c>
+      <c r="J193">
+        <v>0.13</v>
+      </c>
+      <c r="K193">
+        <v>2.84</v>
+      </c>
+      <c r="L193">
+        <v>0.01</v>
+      </c>
+      <c r="M193">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N193">
+        <v>0.01</v>
+      </c>
+      <c r="O193">
+        <v>0.01</v>
+      </c>
+      <c r="P193">
+        <v>0.02</v>
+      </c>
+      <c r="Q193">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R193">
+        <v>0.05</v>
+      </c>
+      <c r="S193">
+        <v>0.01</v>
+      </c>
+      <c r="T193">
+        <v>1.9</v>
+      </c>
+      <c r="U193">
+        <v>1.2960000000000001E-3</v>
+      </c>
+      <c r="V193">
+        <v>0.05</v>
+      </c>
+      <c r="W193">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>67</v>
+      </c>
+      <c r="B194">
+        <v>90.9</v>
+      </c>
+      <c r="C194">
+        <v>4.05</v>
+      </c>
+      <c r="D194">
+        <v>19.25</v>
+      </c>
+      <c r="E194">
+        <v>61.12</v>
+      </c>
+      <c r="F194">
+        <v>11.69</v>
+      </c>
+      <c r="G194">
+        <v>0.12</v>
+      </c>
+      <c r="H194">
+        <v>0.08</v>
+      </c>
+      <c r="I194">
+        <v>0.42</v>
+      </c>
+      <c r="J194">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K194">
+        <v>2.7</v>
+      </c>
+      <c r="L194">
+        <v>0.01</v>
+      </c>
+      <c r="M194">
+        <v>0.309</v>
+      </c>
+      <c r="N194">
+        <v>0.01</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0.02</v>
+      </c>
+      <c r="Q194">
+        <v>6.2E-2</v>
+      </c>
+      <c r="R194">
+        <v>0.03</v>
+      </c>
+      <c r="S194">
+        <v>0.02</v>
+      </c>
+      <c r="T194">
+        <v>3.44</v>
+      </c>
+      <c r="U194">
+        <v>1E-3</v>
+      </c>
+      <c r="V194">
+        <v>0.109</v>
+      </c>
+      <c r="W194">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>68</v>
+      </c>
+      <c r="B195">
+        <v>83.11</v>
+      </c>
+      <c r="C195">
+        <v>5.61</v>
+      </c>
+      <c r="D195">
+        <v>20.59</v>
+      </c>
+      <c r="E195">
+        <v>58.05</v>
+      </c>
+      <c r="F195">
+        <v>12.03</v>
+      </c>
+      <c r="G195">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H195">
+        <v>0.06</v>
+      </c>
+      <c r="I195">
+        <v>0.42</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>2.67</v>
+      </c>
+      <c r="L195">
+        <v>0.01</v>
+      </c>
+      <c r="M195">
+        <v>0.3</v>
+      </c>
+      <c r="N195">
+        <v>0.01</v>
+      </c>
+      <c r="O195">
+        <v>0.01</v>
+      </c>
+      <c r="P195">
+        <v>0.02</v>
+      </c>
+      <c r="Q195">
+        <v>0.06</v>
+      </c>
+      <c r="R195">
+        <v>0.03</v>
+      </c>
+      <c r="S195">
+        <v>0.01</v>
+      </c>
+      <c r="T195">
+        <v>2.56</v>
+      </c>
+      <c r="U195">
+        <v>4.9200000000000003E-4</v>
+      </c>
+      <c r="V195">
+        <v>0.06</v>
+      </c>
+      <c r="W195">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>69</v>
+      </c>
+      <c r="B196">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C196">
+        <v>3.08</v>
+      </c>
+      <c r="D196">
+        <v>22.1</v>
+      </c>
+      <c r="E196">
+        <v>57.24</v>
+      </c>
+      <c r="F196">
+        <v>12.21</v>
+      </c>
+      <c r="G196">
+        <v>0.08</v>
+      </c>
+      <c r="H196">
+        <v>0.03</v>
+      </c>
+      <c r="I196">
+        <v>0.63</v>
+      </c>
+      <c r="J196">
+        <v>1.32</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0.02</v>
+      </c>
+      <c r="M196">
+        <v>0.24</v>
+      </c>
+      <c r="N196">
+        <v>0.01</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0.02</v>
+      </c>
+      <c r="Q196">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R196">
+        <v>0.05</v>
+      </c>
+      <c r="S196">
+        <v>0.05</v>
+      </c>
+      <c r="T196">
+        <v>2.13</v>
+      </c>
+      <c r="U196">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="V196">
+        <v>0.08</v>
+      </c>
+      <c r="W196">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>70</v>
+      </c>
+      <c r="B197">
+        <v>35.9</v>
+      </c>
+      <c r="C197">
+        <v>3.42</v>
+      </c>
+      <c r="D197">
+        <v>23.32</v>
+      </c>
+      <c r="E197">
+        <v>54.7</v>
+      </c>
+      <c r="F197">
+        <v>13.4</v>
+      </c>
+      <c r="G197">
+        <v>0.05</v>
+      </c>
+      <c r="H197">
+        <v>0.03</v>
+      </c>
+      <c r="I197">
+        <v>0.43</v>
+      </c>
+      <c r="J197">
+        <v>0.93</v>
+      </c>
+      <c r="K197">
+        <v>2.96</v>
+      </c>
+      <c r="L197">
+        <v>0.01</v>
+      </c>
+      <c r="M197">
+        <v>0.26</v>
+      </c>
+      <c r="N197">
+        <v>0.01</v>
+      </c>
+      <c r="O197">
+        <v>0.01</v>
+      </c>
+      <c r="P197">
+        <v>0.02</v>
+      </c>
+      <c r="Q197">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="R197">
+        <v>0.03</v>
+      </c>
+      <c r="S197">
+        <v>0.02</v>
+      </c>
+      <c r="T197">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U197">
+        <v>1.34E-3</v>
+      </c>
+      <c r="V197">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="W197">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>56</v>
+      </c>
+      <c r="B198">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C198">
+        <v>6.85</v>
+      </c>
+      <c r="D198">
+        <v>23.58</v>
+      </c>
+      <c r="E198">
+        <v>51.82</v>
+      </c>
+      <c r="F198">
+        <v>13.53</v>
+      </c>
+      <c r="G198">
+        <v>0.02</v>
+      </c>
+      <c r="H198">
+        <v>0.03</v>
+      </c>
+      <c r="I198">
+        <v>0.39</v>
+      </c>
+      <c r="J198">
+        <v>0.33</v>
+      </c>
+      <c r="K198">
+        <v>2.99</v>
+      </c>
+      <c r="L198">
+        <v>0.01</v>
+      </c>
+      <c r="M198">
+        <v>0.32</v>
+      </c>
+      <c r="N198">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O198">
+        <v>0.01</v>
+      </c>
+      <c r="P198">
+        <v>0.02</v>
+      </c>
+      <c r="Q198">
+        <v>0.09</v>
+      </c>
+      <c r="R198">
+        <v>0.03</v>
+      </c>
+      <c r="S198">
+        <v>0.02</v>
+      </c>
+      <c r="T198">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U198">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V198">
+        <v>0.08</v>
+      </c>
+      <c r="W198">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C199">
+        <v>6.85</v>
+      </c>
+      <c r="D199">
+        <v>23.58</v>
+      </c>
+      <c r="E199">
+        <v>51.82</v>
+      </c>
+      <c r="F199">
+        <v>13.53</v>
+      </c>
+      <c r="G199">
+        <v>0.02</v>
+      </c>
+      <c r="H199">
+        <v>0.03</v>
+      </c>
+      <c r="I199">
+        <v>0.39</v>
+      </c>
+      <c r="J199">
+        <v>0.33</v>
+      </c>
+      <c r="K199">
+        <v>2.99</v>
+      </c>
+      <c r="L199">
+        <v>0.01</v>
+      </c>
+      <c r="M199">
+        <v>0.32</v>
+      </c>
+      <c r="N199">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O199">
+        <v>0.01</v>
+      </c>
+      <c r="P199">
+        <v>0.02</v>
+      </c>
+      <c r="Q199">
+        <v>0.09</v>
+      </c>
+      <c r="R199">
+        <v>0.03</v>
+      </c>
+      <c r="S199">
+        <v>0.02</v>
+      </c>
+      <c r="T199">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U199">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V199">
+        <v>0.08</v>
+      </c>
+      <c r="W199">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>56</v>
+      </c>
+      <c r="B200">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C200">
+        <v>6.85</v>
+      </c>
+      <c r="D200">
+        <v>23.58</v>
+      </c>
+      <c r="E200">
+        <v>51.82</v>
+      </c>
+      <c r="F200">
+        <v>13.53</v>
+      </c>
+      <c r="G200">
+        <v>0.02</v>
+      </c>
+      <c r="H200">
+        <v>0.03</v>
+      </c>
+      <c r="I200">
+        <v>0.39</v>
+      </c>
+      <c r="J200">
+        <v>0.33</v>
+      </c>
+      <c r="K200">
+        <v>2.99</v>
+      </c>
+      <c r="L200">
+        <v>0.01</v>
+      </c>
+      <c r="M200">
+        <v>0.32</v>
+      </c>
+      <c r="N200">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O200">
+        <v>0.01</v>
+      </c>
+      <c r="P200">
+        <v>0.02</v>
+      </c>
+      <c r="Q200">
+        <v>0.09</v>
+      </c>
+      <c r="R200">
+        <v>0.03</v>
+      </c>
+      <c r="S200">
+        <v>0.02</v>
+      </c>
+      <c r="T200">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U200">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V200">
+        <v>0.08</v>
+      </c>
+      <c r="W200">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>56</v>
+      </c>
+      <c r="B201">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C201">
+        <v>6.85</v>
+      </c>
+      <c r="D201">
+        <v>23.58</v>
+      </c>
+      <c r="E201">
+        <v>51.82</v>
+      </c>
+      <c r="F201">
+        <v>13.53</v>
+      </c>
+      <c r="G201">
+        <v>0.02</v>
+      </c>
+      <c r="H201">
+        <v>0.03</v>
+      </c>
+      <c r="I201">
+        <v>0.39</v>
+      </c>
+      <c r="J201">
+        <v>0.33</v>
+      </c>
+      <c r="K201">
+        <v>2.99</v>
+      </c>
+      <c r="L201">
+        <v>0.01</v>
+      </c>
+      <c r="M201">
+        <v>0.32</v>
+      </c>
+      <c r="N201">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O201">
+        <v>0.01</v>
+      </c>
+      <c r="P201">
+        <v>0.02</v>
+      </c>
+      <c r="Q201">
+        <v>0.09</v>
+      </c>
+      <c r="R201">
+        <v>0.03</v>
+      </c>
+      <c r="S201">
+        <v>0.02</v>
+      </c>
+      <c r="T201">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U201">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V201">
+        <v>0.08</v>
+      </c>
+      <c r="W201">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>56</v>
+      </c>
+      <c r="B202">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C202">
+        <v>6.85</v>
+      </c>
+      <c r="D202">
+        <v>23.58</v>
+      </c>
+      <c r="E202">
+        <v>51.82</v>
+      </c>
+      <c r="F202">
+        <v>13.53</v>
+      </c>
+      <c r="G202">
+        <v>0.02</v>
+      </c>
+      <c r="H202">
+        <v>0.03</v>
+      </c>
+      <c r="I202">
+        <v>0.39</v>
+      </c>
+      <c r="J202">
+        <v>0.33</v>
+      </c>
+      <c r="K202">
+        <v>2.99</v>
+      </c>
+      <c r="L202">
+        <v>0.01</v>
+      </c>
+      <c r="M202">
+        <v>0.32</v>
+      </c>
+      <c r="N202">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O202">
+        <v>0.01</v>
+      </c>
+      <c r="P202">
+        <v>0.02</v>
+      </c>
+      <c r="Q202">
+        <v>0.09</v>
+      </c>
+      <c r="R202">
+        <v>0.03</v>
+      </c>
+      <c r="S202">
+        <v>0.02</v>
+      </c>
+      <c r="T202">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U202">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V202">
+        <v>0.08</v>
+      </c>
+      <c r="W202">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>56</v>
+      </c>
+      <c r="B203">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C203">
+        <v>6.85</v>
+      </c>
+      <c r="D203">
+        <v>23.58</v>
+      </c>
+      <c r="E203">
+        <v>51.82</v>
+      </c>
+      <c r="F203">
+        <v>13.53</v>
+      </c>
+      <c r="G203">
+        <v>0.02</v>
+      </c>
+      <c r="H203">
+        <v>0.03</v>
+      </c>
+      <c r="I203">
+        <v>0.39</v>
+      </c>
+      <c r="J203">
+        <v>0.33</v>
+      </c>
+      <c r="K203">
+        <v>2.99</v>
+      </c>
+      <c r="L203">
+        <v>0.01</v>
+      </c>
+      <c r="M203">
+        <v>0.32</v>
+      </c>
+      <c r="N203">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O203">
+        <v>0.01</v>
+      </c>
+      <c r="P203">
+        <v>0.02</v>
+      </c>
+      <c r="Q203">
+        <v>0.09</v>
+      </c>
+      <c r="R203">
+        <v>0.03</v>
+      </c>
+      <c r="S203">
+        <v>0.02</v>
+      </c>
+      <c r="T203">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U203">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V203">
+        <v>0.08</v>
+      </c>
+      <c r="W203">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>56</v>
+      </c>
+      <c r="B204">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C204">
+        <v>6.85</v>
+      </c>
+      <c r="D204">
+        <v>23.58</v>
+      </c>
+      <c r="E204">
+        <v>51.82</v>
+      </c>
+      <c r="F204">
+        <v>13.53</v>
+      </c>
+      <c r="G204">
+        <v>0.02</v>
+      </c>
+      <c r="H204">
+        <v>0.03</v>
+      </c>
+      <c r="I204">
+        <v>0.39</v>
+      </c>
+      <c r="J204">
+        <v>0.33</v>
+      </c>
+      <c r="K204">
+        <v>2.99</v>
+      </c>
+      <c r="L204">
+        <v>0.01</v>
+      </c>
+      <c r="M204">
+        <v>0.32</v>
+      </c>
+      <c r="N204">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O204">
+        <v>0.01</v>
+      </c>
+      <c r="P204">
+        <v>0.02</v>
+      </c>
+      <c r="Q204">
+        <v>0.09</v>
+      </c>
+      <c r="R204">
+        <v>0.03</v>
+      </c>
+      <c r="S204">
+        <v>0.02</v>
+      </c>
+      <c r="T204">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U204">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V204">
+        <v>0.08</v>
+      </c>
+      <c r="W204">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>56</v>
+      </c>
+      <c r="B205">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C205">
+        <v>6.85</v>
+      </c>
+      <c r="D205">
+        <v>23.58</v>
+      </c>
+      <c r="E205">
+        <v>51.82</v>
+      </c>
+      <c r="F205">
+        <v>13.53</v>
+      </c>
+      <c r="G205">
+        <v>0.02</v>
+      </c>
+      <c r="H205">
+        <v>0.03</v>
+      </c>
+      <c r="I205">
+        <v>0.39</v>
+      </c>
+      <c r="J205">
+        <v>0.33</v>
+      </c>
+      <c r="K205">
+        <v>2.99</v>
+      </c>
+      <c r="L205">
+        <v>0.01</v>
+      </c>
+      <c r="M205">
+        <v>0.32</v>
+      </c>
+      <c r="N205">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O205">
+        <v>0.01</v>
+      </c>
+      <c r="P205">
+        <v>0.02</v>
+      </c>
+      <c r="Q205">
+        <v>0.09</v>
+      </c>
+      <c r="R205">
+        <v>0.03</v>
+      </c>
+      <c r="S205">
+        <v>0.02</v>
+      </c>
+      <c r="T205">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U205">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V205">
+        <v>0.08</v>
+      </c>
+      <c r="W205">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>56</v>
+      </c>
+      <c r="B206">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="C206">
+        <v>6.85</v>
+      </c>
+      <c r="D206">
+        <v>23.58</v>
+      </c>
+      <c r="E206">
+        <v>51.82</v>
+      </c>
+      <c r="F206">
+        <v>13.53</v>
+      </c>
+      <c r="G206">
+        <v>0.02</v>
+      </c>
+      <c r="H206">
+        <v>0.03</v>
+      </c>
+      <c r="I206">
+        <v>0.39</v>
+      </c>
+      <c r="J206">
+        <v>0.33</v>
+      </c>
+      <c r="K206">
+        <v>2.99</v>
+      </c>
+      <c r="L206">
+        <v>0.01</v>
+      </c>
+      <c r="M206">
+        <v>0.32</v>
+      </c>
+      <c r="N206">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O206">
+        <v>0.01</v>
+      </c>
+      <c r="P206">
+        <v>0.02</v>
+      </c>
+      <c r="Q206">
+        <v>0.09</v>
+      </c>
+      <c r="R206">
+        <v>0.03</v>
+      </c>
+      <c r="S206">
+        <v>0.02</v>
+      </c>
+      <c r="T206">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="U206">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="V206">
+        <v>0.08</v>
+      </c>
+      <c r="W206">
+        <v>6.15</v>
       </c>
     </row>
   </sheetData>
